--- a/Visualizations/dashboard_1/covid_dashboard_data.xlsx
+++ b/Visualizations/dashboard_1/covid_dashboard_data.xlsx
@@ -5,21 +5,22 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/67f750dc1a89abd6/Documents/GitHub/cprit_2020/Visualizations/dashboard_1/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dilek\Documents\GitHub\cprit_2020\Visualizations\dashboard_1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="30" documentId="8_{690F1422-F2D5-4515-9C60-EFED1843BE22}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{840E8738-3968-4A7F-BFB7-18A4BBA42051}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78826486-A64E-4E76-90E1-B363C7AA1EE2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{AC486988-8AA8-48CB-864F-5A6EEC02CF10}"/>
+    <workbookView xWindow="1080" yWindow="1080" windowWidth="15375" windowHeight="7875" firstSheet="3" activeTab="4" xr2:uid="{AC486988-8AA8-48CB-864F-5A6EEC02CF10}"/>
   </bookViews>
   <sheets>
-    <sheet name="Covid_Cases" sheetId="3" r:id="rId1"/>
-    <sheet name="Covid_Death_Rate" sheetId="2" r:id="rId2"/>
-    <sheet name="Mortality_Rates" sheetId="5" r:id="rId3"/>
-    <sheet name="Cancer_Cases" sheetId="4" r:id="rId4"/>
+    <sheet name="Covid Cases" sheetId="3" r:id="rId1"/>
+    <sheet name="Covid Death Rate" sheetId="2" r:id="rId2"/>
+    <sheet name="Mortality Rates" sheetId="5" r:id="rId3"/>
+    <sheet name="Cancer Cases" sheetId="4" r:id="rId4"/>
+    <sheet name="2017 LC" sheetId="6" r:id="rId5"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId5"/>
+    <externalReference r:id="rId6"/>
   </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="516" uniqueCount="256">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="520" uniqueCount="259">
   <si>
     <t>County_Code</t>
   </si>
@@ -807,6 +808,15 @@
   </si>
   <si>
     <t>48507</t>
+  </si>
+  <si>
+    <t>SIR</t>
+  </si>
+  <si>
+    <t>Expected</t>
+  </si>
+  <si>
+    <t>Observed</t>
   </si>
 </sst>
 </file>
@@ -842,8 +852,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5522,7 +5535,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8AF3B7B-66A5-4473-938A-A8E9F2FCB422}">
   <dimension ref="A1:B255"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
@@ -11938,4 +11951,3589 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC897562-A88E-489A-821C-263DC69C2F69}">
+  <dimension ref="A1:D255"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>256</v>
+      </c>
+      <c r="C1" t="s">
+        <v>257</v>
+      </c>
+      <c r="D1" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>48001</v>
+      </c>
+      <c r="B2" s="1">
+        <v>0.9304551268546416</v>
+      </c>
+      <c r="C2" s="1">
+        <v>31.167542811046776</v>
+      </c>
+      <c r="D2" s="1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>48003</v>
+      </c>
+      <c r="B3" s="1">
+        <v>0.48600908760244721</v>
+      </c>
+      <c r="C3" s="1">
+        <v>6.172724083822037</v>
+      </c>
+      <c r="D3" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>48005</v>
+      </c>
+      <c r="B4" s="1">
+        <v>1.4138981122352543</v>
+      </c>
+      <c r="C4" s="1">
+        <v>48.801253359704106</v>
+      </c>
+      <c r="D4" s="1">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>48007</v>
+      </c>
+      <c r="B5" s="1">
+        <v>1.4926403705242657</v>
+      </c>
+      <c r="C5" s="1">
+        <v>20.098612225973085</v>
+      </c>
+      <c r="D5" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>48009</v>
+      </c>
+      <c r="B6" s="1">
+        <v>0.31658744787875337</v>
+      </c>
+      <c r="C6" s="1">
+        <v>6.3173698559456462</v>
+      </c>
+      <c r="D6" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>48011</v>
+      </c>
+      <c r="B7" s="1">
+        <v>2.0179051899909708</v>
+      </c>
+      <c r="C7" s="1">
+        <v>1.4866902641810558</v>
+      </c>
+      <c r="D7" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>48013</v>
+      </c>
+      <c r="B8" s="1">
+        <v>1.2495664741310599</v>
+      </c>
+      <c r="C8" s="1">
+        <v>18.406383714795201</v>
+      </c>
+      <c r="D8" s="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>48015</v>
+      </c>
+      <c r="B9" s="1">
+        <v>0.84895496814427496</v>
+      </c>
+      <c r="C9" s="1">
+        <v>18.846700473376455</v>
+      </c>
+      <c r="D9" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>48017</v>
+      </c>
+      <c r="B10" s="1">
+        <v>0.6403096176141575</v>
+      </c>
+      <c r="C10" s="1">
+        <v>3.1234889262668779</v>
+      </c>
+      <c r="D10" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>48019</v>
+      </c>
+      <c r="B11" s="1">
+        <v>0.9468036496332215</v>
+      </c>
+      <c r="C11" s="1">
+        <v>17.955148363217191</v>
+      </c>
+      <c r="D11" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>48021</v>
+      </c>
+      <c r="B12" s="1">
+        <v>1.6142130848599181</v>
+      </c>
+      <c r="C12" s="1">
+        <v>41.506292216565868</v>
+      </c>
+      <c r="D12" s="1">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>48023</v>
+      </c>
+      <c r="B13" s="1">
+        <v>1.7201391872139129</v>
+      </c>
+      <c r="C13" s="1">
+        <v>2.9067415225266946</v>
+      </c>
+      <c r="D13" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>48025</v>
+      </c>
+      <c r="B14" s="1">
+        <v>0.99591894703097261</v>
+      </c>
+      <c r="C14" s="1">
+        <v>11.045075538318788</v>
+      </c>
+      <c r="D14" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>48027</v>
+      </c>
+      <c r="B15" s="1">
+        <v>1.7108286534501511</v>
+      </c>
+      <c r="C15" s="1">
+        <v>128.00814363165625</v>
+      </c>
+      <c r="D15" s="1">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>48029</v>
+      </c>
+      <c r="B16" s="1">
+        <v>1.0301385695483436</v>
+      </c>
+      <c r="C16" s="1">
+        <v>621.27564088839335</v>
+      </c>
+      <c r="D16" s="1">
+        <v>639.99999999999989</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>48031</v>
+      </c>
+      <c r="B17" s="1">
+        <v>1.0166290667611539</v>
+      </c>
+      <c r="C17" s="1">
+        <v>8.8527864235407048</v>
+      </c>
+      <c r="D17" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>48033</v>
+      </c>
+      <c r="B18" s="1">
+        <v>0</v>
+      </c>
+      <c r="C18" s="1">
+        <v>0.5019081480756038</v>
+      </c>
+      <c r="D18" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>48035</v>
+      </c>
+      <c r="B19" s="1">
+        <v>1.8020844135106775</v>
+      </c>
+      <c r="C19" s="1">
+        <v>14.42773701668551</v>
+      </c>
+      <c r="D19" s="1">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>48037</v>
+      </c>
+      <c r="B20" s="1">
+        <v>1.4581186099113768</v>
+      </c>
+      <c r="C20" s="1">
+        <v>55.551036417348179</v>
+      </c>
+      <c r="D20" s="1">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>48039</v>
+      </c>
+      <c r="B21" s="1">
+        <v>0.86824521523754949</v>
+      </c>
+      <c r="C21" s="1">
+        <v>146.27204132101454</v>
+      </c>
+      <c r="D21" s="1">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>48041</v>
+      </c>
+      <c r="B22" s="1">
+        <v>0.81743089905203314</v>
+      </c>
+      <c r="C22" s="1">
+        <v>72.177354768974041</v>
+      </c>
+      <c r="D22" s="1">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>48043</v>
+      </c>
+      <c r="B23" s="1">
+        <v>0.53413602756311929</v>
+      </c>
+      <c r="C23" s="1">
+        <v>5.6165468067878788</v>
+      </c>
+      <c r="D23" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>48045</v>
+      </c>
+      <c r="B24" s="1">
+        <v>0.85439966939490641</v>
+      </c>
+      <c r="C24" s="1">
+        <v>1.1704124379029888</v>
+      </c>
+      <c r="D24" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>48047</v>
+      </c>
+      <c r="B25" s="1">
+        <v>0.91851390745555983</v>
+      </c>
+      <c r="C25" s="1">
+        <v>2.177430285775793</v>
+      </c>
+      <c r="D25" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>48049</v>
+      </c>
+      <c r="B26" s="1">
+        <v>1.3377801599920134</v>
+      </c>
+      <c r="C26" s="1">
+        <v>24.667730159936749</v>
+      </c>
+      <c r="D26" s="1">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>48051</v>
+      </c>
+      <c r="B27" s="1">
+        <v>1.2048516202095183</v>
+      </c>
+      <c r="C27" s="1">
+        <v>12.449665791536694</v>
+      </c>
+      <c r="D27" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>48053</v>
+      </c>
+      <c r="B28" s="1">
+        <v>1.3214916264450083</v>
+      </c>
+      <c r="C28" s="1">
+        <v>32.538987867577966</v>
+      </c>
+      <c r="D28" s="1">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>48055</v>
+      </c>
+      <c r="B29" s="1">
+        <v>1.190726060830273</v>
+      </c>
+      <c r="C29" s="1">
+        <v>17.636298297995644</v>
+      </c>
+      <c r="D29" s="1">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>48057</v>
+      </c>
+      <c r="B30" s="1">
+        <v>1.4432091866491543</v>
+      </c>
+      <c r="C30" s="1">
+        <v>11.086403930915122</v>
+      </c>
+      <c r="D30" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <v>48059</v>
+      </c>
+      <c r="B31" s="1">
+        <v>1.0098305774673311</v>
+      </c>
+      <c r="C31" s="1">
+        <v>9.9026512200493446</v>
+      </c>
+      <c r="D31" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
+        <v>48061</v>
+      </c>
+      <c r="B32" s="1">
+        <v>0.83914336499894771</v>
+      </c>
+      <c r="C32" s="1">
+        <v>110.82730779872951</v>
+      </c>
+      <c r="D32" s="1">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <v>48063</v>
+      </c>
+      <c r="B33" s="1">
+        <v>1.0103617607271556</v>
+      </c>
+      <c r="C33" s="1">
+        <v>7.917956034126246</v>
+      </c>
+      <c r="D33" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
+        <v>48065</v>
+      </c>
+      <c r="B34" s="1">
+        <v>0.50489133014356713</v>
+      </c>
+      <c r="C34" s="1">
+        <v>3.9612484520803615</v>
+      </c>
+      <c r="D34" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
+        <v>48067</v>
+      </c>
+      <c r="B35" s="1">
+        <v>1.3986242448134456</v>
+      </c>
+      <c r="C35" s="1">
+        <v>22.879626260352932</v>
+      </c>
+      <c r="D35" s="1">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
+        <v>48069</v>
+      </c>
+      <c r="B36" s="1">
+        <v>0.85918403185120706</v>
+      </c>
+      <c r="C36" s="1">
+        <v>3.491685004359506</v>
+      </c>
+      <c r="D36" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
+        <v>48071</v>
+      </c>
+      <c r="B37" s="1">
+        <v>1.4532340901599603</v>
+      </c>
+      <c r="C37" s="1">
+        <v>17.891129981087996</v>
+      </c>
+      <c r="D37" s="1">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
+        <v>48073</v>
+      </c>
+      <c r="B38" s="1">
+        <v>1.1355560350623335</v>
+      </c>
+      <c r="C38" s="1">
+        <v>30.821904793169242</v>
+      </c>
+      <c r="D38" s="1">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
+        <v>48075</v>
+      </c>
+      <c r="B39" s="1">
+        <v>0.55121615453592798</v>
+      </c>
+      <c r="C39" s="1">
+        <v>3.6283406854862799</v>
+      </c>
+      <c r="D39" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
+        <v>48077</v>
+      </c>
+      <c r="B40" s="1">
+        <v>1.3686208074267183</v>
+      </c>
+      <c r="C40" s="1">
+        <v>8.0372882980510916</v>
+      </c>
+      <c r="D40" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="1">
+        <v>48079</v>
+      </c>
+      <c r="B41" s="1">
+        <v>0.74963752358311131</v>
+      </c>
+      <c r="C41" s="1">
+        <v>1.3339780474437941</v>
+      </c>
+      <c r="D41" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="1">
+        <v>48081</v>
+      </c>
+      <c r="B42" s="1">
+        <v>2.1825959185445667</v>
+      </c>
+      <c r="C42" s="1">
+        <v>2.7490200769737605</v>
+      </c>
+      <c r="D42" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="1">
+        <v>48083</v>
+      </c>
+      <c r="B43" s="1">
+        <v>1.0587148482462825</v>
+      </c>
+      <c r="C43" s="1">
+        <v>6.611789767183498</v>
+      </c>
+      <c r="D43" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="1">
+        <v>48085</v>
+      </c>
+      <c r="B44" s="1">
+        <v>0.77256389715533413</v>
+      </c>
+      <c r="C44" s="1">
+        <v>368.9015252322838</v>
+      </c>
+      <c r="D44" s="1">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="1">
+        <v>48087</v>
+      </c>
+      <c r="B45" s="1">
+        <v>0</v>
+      </c>
+      <c r="C45" s="1">
+        <v>1.7723756932297863</v>
+      </c>
+      <c r="D45" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" s="1">
+        <v>48089</v>
+      </c>
+      <c r="B46" s="1">
+        <v>0.53185225213137854</v>
+      </c>
+      <c r="C46" s="1">
+        <v>15.041771409146602</v>
+      </c>
+      <c r="D46" s="1">
+        <v>7.9999999999999991</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" s="1">
+        <v>48091</v>
+      </c>
+      <c r="B47" s="1">
+        <v>0.95605442619424574</v>
+      </c>
+      <c r="C47" s="1">
+        <v>78.447416742320399</v>
+      </c>
+      <c r="D47" s="1">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" s="1">
+        <v>48093</v>
+      </c>
+      <c r="B48" s="1">
+        <v>0.88678784350203244</v>
+      </c>
+      <c r="C48" s="1">
+        <v>10.148988922150659</v>
+      </c>
+      <c r="D48" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" s="1">
+        <v>48095</v>
+      </c>
+      <c r="B49" s="1">
+        <v>0.97965945925660691</v>
+      </c>
+      <c r="C49" s="1">
+        <v>2.0415257374411064</v>
+      </c>
+      <c r="D49" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" s="1">
+        <v>48097</v>
+      </c>
+      <c r="B50" s="1">
+        <v>1.0993569527482125</v>
+      </c>
+      <c r="C50" s="1">
+        <v>25.469434590834741</v>
+      </c>
+      <c r="D50" s="1">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" s="1">
+        <v>48099</v>
+      </c>
+      <c r="B51" s="1">
+        <v>2.1233969578914684</v>
+      </c>
+      <c r="C51" s="1">
+        <v>27.314723130051931</v>
+      </c>
+      <c r="D51" s="1">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" s="1">
+        <v>48101</v>
+      </c>
+      <c r="B52" s="1">
+        <v>0</v>
+      </c>
+      <c r="C52" s="1">
+        <v>1.0794561487124015</v>
+      </c>
+      <c r="D52" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" s="1">
+        <v>48103</v>
+      </c>
+      <c r="B53" s="1">
+        <v>0.57619685156248124</v>
+      </c>
+      <c r="C53" s="1">
+        <v>1.7355179871050765</v>
+      </c>
+      <c r="D53" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" s="1">
+        <v>48105</v>
+      </c>
+      <c r="B54" s="1">
+        <v>0.64430586237037402</v>
+      </c>
+      <c r="C54" s="1">
+        <v>1.5520578942445786</v>
+      </c>
+      <c r="D54" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" s="1">
+        <v>48107</v>
+      </c>
+      <c r="B55" s="1">
+        <v>1.6294006687995584</v>
+      </c>
+      <c r="C55" s="1">
+        <v>3.0686129542856335</v>
+      </c>
+      <c r="D55" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" s="1">
+        <v>48109</v>
+      </c>
+      <c r="B56" s="1">
+        <v>0</v>
+      </c>
+      <c r="C56" s="1">
+        <v>0.93044417443829175</v>
+      </c>
+      <c r="D56" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" s="1">
+        <v>48111</v>
+      </c>
+      <c r="B57" s="1">
+        <v>1.1394949790050408</v>
+      </c>
+      <c r="C57" s="1">
+        <v>2.6327452558145312</v>
+      </c>
+      <c r="D57" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" s="1">
+        <v>48113</v>
+      </c>
+      <c r="B58" s="1">
+        <v>0.93432506163279261</v>
+      </c>
+      <c r="C58" s="1">
+        <v>958.98101934050965</v>
+      </c>
+      <c r="D58" s="1">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" s="1">
+        <v>48115</v>
+      </c>
+      <c r="B59" s="1">
+        <v>1.275950893728518</v>
+      </c>
+      <c r="C59" s="1">
+        <v>5.486104547131089</v>
+      </c>
+      <c r="D59" s="1">
+        <v>6.9999999999999991</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" s="1">
+        <v>48117</v>
+      </c>
+      <c r="B60" s="1">
+        <v>0.29790866567982305</v>
+      </c>
+      <c r="C60" s="1">
+        <v>6.7134670132405532</v>
+      </c>
+      <c r="D60" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" s="1">
+        <v>48119</v>
+      </c>
+      <c r="B61" s="1">
+        <v>2.3609071498736811</v>
+      </c>
+      <c r="C61" s="1">
+        <v>3.8120940082211789</v>
+      </c>
+      <c r="D61" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" s="1">
+        <v>48121</v>
+      </c>
+      <c r="B62" s="1">
+        <v>0.84707865202211985</v>
+      </c>
+      <c r="C62" s="1">
+        <v>296.31250817243546</v>
+      </c>
+      <c r="D62" s="1">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" s="1">
+        <v>48123</v>
+      </c>
+      <c r="B63" s="1">
+        <v>0.54720763849951637</v>
+      </c>
+      <c r="C63" s="1">
+        <v>12.792219091083076</v>
+      </c>
+      <c r="D63" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" s="1">
+        <v>48125</v>
+      </c>
+      <c r="B64" s="1">
+        <v>0.65531980493577302</v>
+      </c>
+      <c r="C64" s="1">
+        <v>1.5259724984170264</v>
+      </c>
+      <c r="D64" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" s="1">
+        <v>48127</v>
+      </c>
+      <c r="B65" s="1">
+        <v>0</v>
+      </c>
+      <c r="C65" s="1">
+        <v>3.1452332489754413</v>
+      </c>
+      <c r="D65" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" s="1">
+        <v>48129</v>
+      </c>
+      <c r="B66" s="1">
+        <v>0.74912209909703265</v>
+      </c>
+      <c r="C66" s="1">
+        <v>2.6697917501175508</v>
+      </c>
+      <c r="D66" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" s="1">
+        <v>48131</v>
+      </c>
+      <c r="B67" s="1">
+        <v>0.28286409081308173</v>
+      </c>
+      <c r="C67" s="1">
+        <v>3.5352666968986384</v>
+      </c>
+      <c r="D67" s="1">
+        <v>0.99999999999999989</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" s="1">
+        <v>48133</v>
+      </c>
+      <c r="B68" s="1">
+        <v>0.67210709132094493</v>
+      </c>
+      <c r="C68" s="1">
+        <v>13.390723169296715</v>
+      </c>
+      <c r="D68" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69" s="1">
+        <v>48135</v>
+      </c>
+      <c r="B69" s="1">
+        <v>1.08124552761656</v>
+      </c>
+      <c r="C69" s="1">
+        <v>49.942403108972599</v>
+      </c>
+      <c r="D69" s="1">
+        <v>54.000000000000007</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" s="1">
+        <v>48137</v>
+      </c>
+      <c r="B70" s="1">
+        <v>1.5036049162811129</v>
+      </c>
+      <c r="C70" s="1">
+        <v>1.330136645832888</v>
+      </c>
+      <c r="D70" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71" s="1">
+        <v>48139</v>
+      </c>
+      <c r="B71" s="1">
+        <v>1.0006492167951375</v>
+      </c>
+      <c r="C71" s="1">
+        <v>76.950042739866731</v>
+      </c>
+      <c r="D71" s="1">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72" s="1">
+        <v>48141</v>
+      </c>
+      <c r="B72" s="1">
+        <v>0.89996081765871316</v>
+      </c>
+      <c r="C72" s="1">
+        <v>205.56450499843478</v>
+      </c>
+      <c r="D72" s="1">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73" s="1">
+        <v>48143</v>
+      </c>
+      <c r="B73" s="1">
+        <v>0.88209516937097587</v>
+      </c>
+      <c r="C73" s="1">
+        <v>20.405961425722172</v>
+      </c>
+      <c r="D73" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74" s="1">
+        <v>48145</v>
+      </c>
+      <c r="B74" s="1">
+        <v>1.2354877502072965</v>
+      </c>
+      <c r="C74" s="1">
+        <v>10.522160173436598</v>
+      </c>
+      <c r="D74" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75" s="1">
+        <v>48147</v>
+      </c>
+      <c r="B75" s="1">
+        <v>1.3236326745449685</v>
+      </c>
+      <c r="C75" s="1">
+        <v>22.664898333907665</v>
+      </c>
+      <c r="D75" s="1">
+        <v>30.000000000000004</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76" s="1">
+        <v>48149</v>
+      </c>
+      <c r="B76" s="1">
+        <v>0.59056058725610894</v>
+      </c>
+      <c r="C76" s="1">
+        <v>20.319676353200233</v>
+      </c>
+      <c r="D76" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77" s="1">
+        <v>48151</v>
+      </c>
+      <c r="B77" s="1">
+        <v>1.368621430108631</v>
+      </c>
+      <c r="C77" s="1">
+        <v>2.9226489604817232</v>
+      </c>
+      <c r="D77" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78" s="1">
+        <v>48153</v>
+      </c>
+      <c r="B78" s="1">
+        <v>0.61518376931412977</v>
+      </c>
+      <c r="C78" s="1">
+        <v>3.2510610646145719</v>
+      </c>
+      <c r="D78" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A79" s="1">
+        <v>48155</v>
+      </c>
+      <c r="B79" s="1">
+        <v>0.97899528545109527</v>
+      </c>
+      <c r="C79" s="1">
+        <v>1.0214553786530507</v>
+      </c>
+      <c r="D79" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A80" s="1">
+        <v>48157</v>
+      </c>
+      <c r="B80" s="1">
+        <v>0.83138778648055145</v>
+      </c>
+      <c r="C80" s="1">
+        <v>271.8346404350105</v>
+      </c>
+      <c r="D80" s="1">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A81" s="1">
+        <v>48159</v>
+      </c>
+      <c r="B81" s="1">
+        <v>0.64771400971323723</v>
+      </c>
+      <c r="C81" s="1">
+        <v>7.7194563109938787</v>
+      </c>
+      <c r="D81" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A82" s="1">
+        <v>48161</v>
+      </c>
+      <c r="B82" s="1">
+        <v>1.2028794150067059</v>
+      </c>
+      <c r="C82" s="1">
+        <v>13.301416418295597</v>
+      </c>
+      <c r="D82" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A83" s="1">
+        <v>48163</v>
+      </c>
+      <c r="B83" s="1">
+        <v>1.1948615457771226</v>
+      </c>
+      <c r="C83" s="1">
+        <v>5.0215022997477732</v>
+      </c>
+      <c r="D83" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A84" s="1">
+        <v>48165</v>
+      </c>
+      <c r="B84" s="1">
+        <v>0.62427266672884685</v>
+      </c>
+      <c r="C84" s="1">
+        <v>6.4074565701551087</v>
+      </c>
+      <c r="D84" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A85" s="1">
+        <v>48167</v>
+      </c>
+      <c r="B85" s="1">
+        <v>1.0237850077882713</v>
+      </c>
+      <c r="C85" s="1">
+        <v>161.16664997513189</v>
+      </c>
+      <c r="D85" s="1">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A86" s="1">
+        <v>48169</v>
+      </c>
+      <c r="B86" s="1">
+        <v>1.1646771766721902</v>
+      </c>
+      <c r="C86" s="1">
+        <v>2.575821060194416</v>
+      </c>
+      <c r="D86" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A87" s="1">
+        <v>48171</v>
+      </c>
+      <c r="B87" s="1">
+        <v>1.0417296016482736</v>
+      </c>
+      <c r="C87" s="1">
+        <v>23.998550065625306</v>
+      </c>
+      <c r="D87" s="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A88" s="1">
+        <v>48173</v>
+      </c>
+      <c r="B88" s="1">
+        <v>0</v>
+      </c>
+      <c r="C88" s="1">
+        <v>0.71784323939624783</v>
+      </c>
+      <c r="D88" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A89" s="1">
+        <v>48175</v>
+      </c>
+      <c r="B89" s="1">
+        <v>0.79355746199260224</v>
+      </c>
+      <c r="C89" s="1">
+        <v>5.0405927630698644</v>
+      </c>
+      <c r="D89" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A90" s="1">
+        <v>48177</v>
+      </c>
+      <c r="B90" s="1">
+        <v>1.1260548249720994</v>
+      </c>
+      <c r="C90" s="1">
+        <v>10.656674731887346</v>
+      </c>
+      <c r="D90" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A91" s="1">
+        <v>48179</v>
+      </c>
+      <c r="B91" s="1">
+        <v>1.0871259189731481</v>
+      </c>
+      <c r="C91" s="1">
+        <v>12.87799302331398</v>
+      </c>
+      <c r="D91" s="1">
+        <v>14.000000000000002</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A92" s="1">
+        <v>48181</v>
+      </c>
+      <c r="B92" s="1">
+        <v>1.2678884443030871</v>
+      </c>
+      <c r="C92" s="1">
+        <v>79.66000514778419</v>
+      </c>
+      <c r="D92" s="1">
+        <v>101.00000000000001</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A93" s="1">
+        <v>48183</v>
+      </c>
+      <c r="B93" s="1">
+        <v>1.0279554110491003</v>
+      </c>
+      <c r="C93" s="1">
+        <v>68.096338856332409</v>
+      </c>
+      <c r="D93" s="1">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A94" s="1">
+        <v>48185</v>
+      </c>
+      <c r="B94" s="1">
+        <v>0.85991539821046881</v>
+      </c>
+      <c r="C94" s="1">
+        <v>16.280671365037502</v>
+      </c>
+      <c r="D94" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A95" s="1">
+        <v>48187</v>
+      </c>
+      <c r="B95" s="1">
+        <v>1.1394607732640547</v>
+      </c>
+      <c r="C95" s="1">
+        <v>66.69821531661276</v>
+      </c>
+      <c r="D95" s="1">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A96" s="1">
+        <v>48189</v>
+      </c>
+      <c r="B96" s="1">
+        <v>1.1071480951286834</v>
+      </c>
+      <c r="C96" s="1">
+        <v>13.548322998520407</v>
+      </c>
+      <c r="D96" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A97" s="1">
+        <v>48191</v>
+      </c>
+      <c r="B97" s="1">
+        <v>0</v>
+      </c>
+      <c r="C97" s="1">
+        <v>2.2897332571802549</v>
+      </c>
+      <c r="D97" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A98" s="1">
+        <v>48193</v>
+      </c>
+      <c r="B98" s="1">
+        <v>0.43068421123165718</v>
+      </c>
+      <c r="C98" s="1">
+        <v>6.9656605042954656</v>
+      </c>
+      <c r="D98" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A99" s="1">
+        <v>48195</v>
+      </c>
+      <c r="B99" s="1">
+        <v>0.3675336938775462</v>
+      </c>
+      <c r="C99" s="1">
+        <v>2.7208389779174289</v>
+      </c>
+      <c r="D99" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A100" s="1">
+        <v>48197</v>
+      </c>
+      <c r="B100" s="1">
+        <v>1.0694854710398487</v>
+      </c>
+      <c r="C100" s="1">
+        <v>2.8050871949509832</v>
+      </c>
+      <c r="D100" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A101" s="1">
+        <v>48199</v>
+      </c>
+      <c r="B101" s="1">
+        <v>0.79227829302044783</v>
+      </c>
+      <c r="C101" s="1">
+        <v>34.078934432327252</v>
+      </c>
+      <c r="D101" s="1">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A102" s="1">
+        <v>48201</v>
+      </c>
+      <c r="B102" s="1">
+        <v>0.89205456498948843</v>
+      </c>
+      <c r="C102" s="1">
+        <v>1592.951884077567</v>
+      </c>
+      <c r="D102" s="1">
+        <v>1421</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A103" s="1">
+        <v>48203</v>
+      </c>
+      <c r="B103" s="1">
+        <v>1.1490177725305817</v>
+      </c>
+      <c r="C103" s="1">
+        <v>40.034193638876623</v>
+      </c>
+      <c r="D103" s="1">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A104" s="1">
+        <v>48205</v>
+      </c>
+      <c r="B104" s="1">
+        <v>0.66493095351401599</v>
+      </c>
+      <c r="C104" s="1">
+        <v>3.0078310979966165</v>
+      </c>
+      <c r="D104" s="1">
+        <v>1.9999999999999998</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A105" s="1">
+        <v>48207</v>
+      </c>
+      <c r="B105" s="1">
+        <v>0.74525664357978405</v>
+      </c>
+      <c r="C105" s="1">
+        <v>4.0254589151862188</v>
+      </c>
+      <c r="D105" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A106" s="1">
+        <v>48209</v>
+      </c>
+      <c r="B106" s="1">
+        <v>0.68443576651316462</v>
+      </c>
+      <c r="C106" s="1">
+        <v>73.052874274416354</v>
+      </c>
+      <c r="D106" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A107" s="1">
+        <v>48211</v>
+      </c>
+      <c r="B107" s="1">
+        <v>0</v>
+      </c>
+      <c r="C107" s="1">
+        <v>1.9815547145823245</v>
+      </c>
+      <c r="D107" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A108" s="1">
+        <v>48213</v>
+      </c>
+      <c r="B108" s="1">
+        <v>1.7888846262322384</v>
+      </c>
+      <c r="C108" s="1">
+        <v>59.254799580483819</v>
+      </c>
+      <c r="D108" s="1">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A109" s="1">
+        <v>48215</v>
+      </c>
+      <c r="B109" s="1">
+        <v>0.77587344968177319</v>
+      </c>
+      <c r="C109" s="1">
+        <v>181.73066762090076</v>
+      </c>
+      <c r="D109" s="1">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A110" s="1">
+        <v>48217</v>
+      </c>
+      <c r="B110" s="1">
+        <v>1.2675940286078933</v>
+      </c>
+      <c r="C110" s="1">
+        <v>24.455779453335744</v>
+      </c>
+      <c r="D110" s="1">
+        <v>30.999999999999996</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A111" s="1">
+        <v>48219</v>
+      </c>
+      <c r="B111" s="1">
+        <v>0.85164804256429261</v>
+      </c>
+      <c r="C111" s="1">
+        <v>10.567745770777806</v>
+      </c>
+      <c r="D111" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A112" s="1">
+        <v>48221</v>
+      </c>
+      <c r="B112" s="1">
+        <v>1.0171692869176394</v>
+      </c>
+      <c r="C112" s="1">
+        <v>45.223543997671491</v>
+      </c>
+      <c r="D112" s="1">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A113" s="1">
+        <v>48223</v>
+      </c>
+      <c r="B113" s="1">
+        <v>1.33253320920938</v>
+      </c>
+      <c r="C113" s="1">
+        <v>22.5135102019706</v>
+      </c>
+      <c r="D113" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A114" s="1">
+        <v>48225</v>
+      </c>
+      <c r="B114" s="1">
+        <v>1.0425704801496187</v>
+      </c>
+      <c r="C114" s="1">
+        <v>17.265019816614057</v>
+      </c>
+      <c r="D114" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A115" s="1">
+        <v>48227</v>
+      </c>
+      <c r="B115" s="1">
+        <v>1.176405358373791</v>
+      </c>
+      <c r="C115" s="1">
+        <v>16.150895492574712</v>
+      </c>
+      <c r="D115" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A116" s="1">
+        <v>48229</v>
+      </c>
+      <c r="B116" s="1">
+        <v>0</v>
+      </c>
+      <c r="C116" s="1">
+        <v>1.3692258557653918</v>
+      </c>
+      <c r="D116" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A117" s="1">
+        <v>48231</v>
+      </c>
+      <c r="B117" s="1">
+        <v>1.1932427417383351</v>
+      </c>
+      <c r="C117" s="1">
+        <v>52.797304183238182</v>
+      </c>
+      <c r="D117" s="1">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A118" s="1">
+        <v>48233</v>
+      </c>
+      <c r="B118" s="1">
+        <v>1.0995428969569845</v>
+      </c>
+      <c r="C118" s="1">
+        <v>12.732563721474977</v>
+      </c>
+      <c r="D118" s="1">
+        <v>13.999999999999998</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A119" s="1">
+        <v>48235</v>
+      </c>
+      <c r="B119" s="1">
+        <v>0</v>
+      </c>
+      <c r="C119" s="1">
+        <v>0.98872525775761277</v>
+      </c>
+      <c r="D119" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A120" s="1">
+        <v>48237</v>
+      </c>
+      <c r="B120" s="1">
+        <v>1.7194679390446559</v>
+      </c>
+      <c r="C120" s="1">
+        <v>5.2341772682312646</v>
+      </c>
+      <c r="D120" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A121" s="1">
+        <v>48239</v>
+      </c>
+      <c r="B121" s="1">
+        <v>0.92966726341196004</v>
+      </c>
+      <c r="C121" s="1">
+        <v>8.6052293275760849</v>
+      </c>
+      <c r="D121" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A122" s="1">
+        <v>48241</v>
+      </c>
+      <c r="B122" s="1">
+        <v>0.8233545389255742</v>
+      </c>
+      <c r="C122" s="1">
+        <v>24.290872345343161</v>
+      </c>
+      <c r="D122" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A123" s="1">
+        <v>48243</v>
+      </c>
+      <c r="B123" s="1">
+        <v>0.49425735606886156</v>
+      </c>
+      <c r="C123" s="1">
+        <v>2.0232374646957743</v>
+      </c>
+      <c r="D123" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A124" s="1">
+        <v>48245</v>
+      </c>
+      <c r="B124" s="1">
+        <v>0.97668605936289909</v>
+      </c>
+      <c r="C124" s="1">
+        <v>136.17477051608279</v>
+      </c>
+      <c r="D124" s="1">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A125" s="1">
+        <v>48247</v>
+      </c>
+      <c r="B125" s="1">
+        <v>0.6998149420169103</v>
+      </c>
+      <c r="C125" s="1">
+        <v>1.4289491977949738</v>
+      </c>
+      <c r="D125" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A126" s="1">
+        <v>48249</v>
+      </c>
+      <c r="B126" s="1">
+        <v>0.53438801955961679</v>
+      </c>
+      <c r="C126" s="1">
+        <v>13.099096057147054</v>
+      </c>
+      <c r="D126" s="1">
+        <v>6.9999999999999991</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A127" s="1">
+        <v>48251</v>
+      </c>
+      <c r="B127" s="1">
+        <v>1.3427721047075358</v>
+      </c>
+      <c r="C127" s="1">
+        <v>81.920081311160899</v>
+      </c>
+      <c r="D127" s="1">
+        <v>109.99999999999999</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A128" s="1">
+        <v>48253</v>
+      </c>
+      <c r="B128" s="1">
+        <v>1.3376930022747258</v>
+      </c>
+      <c r="C128" s="1">
+        <v>10.465779499626015</v>
+      </c>
+      <c r="D128" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A129" s="1">
+        <v>48255</v>
+      </c>
+      <c r="B129" s="1">
+        <v>1.3363149294989638</v>
+      </c>
+      <c r="C129" s="1">
+        <v>6.7349393479981909</v>
+      </c>
+      <c r="D129" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A130" s="1">
+        <v>48257</v>
+      </c>
+      <c r="B130" s="1">
+        <v>1.3462949713931174</v>
+      </c>
+      <c r="C130" s="1">
+        <v>54.222886923852322</v>
+      </c>
+      <c r="D130" s="1">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A131" s="1">
+        <v>48259</v>
+      </c>
+      <c r="B131" s="1">
+        <v>0.85857440418266195</v>
+      </c>
+      <c r="C131" s="1">
+        <v>25.623871260107464</v>
+      </c>
+      <c r="D131" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A132" s="1">
+        <v>48261</v>
+      </c>
+      <c r="B132" s="1">
+        <v>0</v>
+      </c>
+      <c r="C132" s="1">
+        <v>0.16499785324651672</v>
+      </c>
+      <c r="D132" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A133" s="1">
+        <v>48263</v>
+      </c>
+      <c r="B133" s="1">
+        <v>0</v>
+      </c>
+      <c r="C133" s="1">
+        <v>0.61259997189631998</v>
+      </c>
+      <c r="D133" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A134" s="1">
+        <v>48265</v>
+      </c>
+      <c r="B134" s="1">
+        <v>1.002803265307759</v>
+      </c>
+      <c r="C134" s="1">
+        <v>42.879796553916641</v>
+      </c>
+      <c r="D134" s="1">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A135" s="1">
+        <v>48267</v>
+      </c>
+      <c r="B135" s="1">
+        <v>0.78249691724445769</v>
+      </c>
+      <c r="C135" s="1">
+        <v>3.8338809187446019</v>
+      </c>
+      <c r="D135" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A136" s="1">
+        <v>48269</v>
+      </c>
+      <c r="B136" s="1">
+        <v>0</v>
+      </c>
+      <c r="C136" s="1">
+        <v>0.19894800913895394</v>
+      </c>
+      <c r="D136" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A137" s="1">
+        <v>48271</v>
+      </c>
+      <c r="B137" s="1">
+        <v>0.42744645025820133</v>
+      </c>
+      <c r="C137" s="1">
+        <v>2.3394743350797382</v>
+      </c>
+      <c r="D137" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A138" s="1">
+        <v>48273</v>
+      </c>
+      <c r="B138" s="1">
+        <v>1.720130509638838</v>
+      </c>
+      <c r="C138" s="1">
+        <v>9.3016197959068769</v>
+      </c>
+      <c r="D138" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A139" s="1">
+        <v>48275</v>
+      </c>
+      <c r="B139" s="1">
+        <v>2.5088867402383217</v>
+      </c>
+      <c r="C139" s="1">
+        <v>2.391498948027464</v>
+      </c>
+      <c r="D139" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A140" s="1">
+        <v>48277</v>
+      </c>
+      <c r="B140" s="1">
+        <v>1.3190970202594896</v>
+      </c>
+      <c r="C140" s="1">
+        <v>32.598057109962348</v>
+      </c>
+      <c r="D140" s="1">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A141" s="1">
+        <v>48279</v>
+      </c>
+      <c r="B141" s="1">
+        <v>1.3571528688426349</v>
+      </c>
+      <c r="C141" s="1">
+        <v>6.631530026293281</v>
+      </c>
+      <c r="D141" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A142" s="1">
+        <v>48281</v>
+      </c>
+      <c r="B142" s="1">
+        <v>1.397703832762764</v>
+      </c>
+      <c r="C142" s="1">
+        <v>12.878264749707665</v>
+      </c>
+      <c r="D142" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A143" s="1">
+        <v>48283</v>
+      </c>
+      <c r="B143" s="1">
+        <v>0.49528536177528976</v>
+      </c>
+      <c r="C143" s="1">
+        <v>2.019038068106076</v>
+      </c>
+      <c r="D143" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A144" s="1">
+        <v>48285</v>
+      </c>
+      <c r="B144" s="1">
+        <v>1.1237541555760371</v>
+      </c>
+      <c r="C144" s="1">
+        <v>15.127863968864069</v>
+      </c>
+      <c r="D144" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A145" s="1">
+        <v>48287</v>
+      </c>
+      <c r="B145" s="1">
+        <v>0.81239737475240026</v>
+      </c>
+      <c r="C145" s="1">
+        <v>11.078322357630697</v>
+      </c>
+      <c r="D145" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A146" s="1">
+        <v>48289</v>
+      </c>
+      <c r="B146" s="1">
+        <v>0.73388146878924432</v>
+      </c>
+      <c r="C146" s="1">
+        <v>13.626178647756255</v>
+      </c>
+      <c r="D146" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A147" s="1">
+        <v>48291</v>
+      </c>
+      <c r="B147" s="1">
+        <v>1.2274444131808451</v>
+      </c>
+      <c r="C147" s="1">
+        <v>39.920341380689962</v>
+      </c>
+      <c r="D147" s="1">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A148" s="1">
+        <v>48293</v>
+      </c>
+      <c r="B148" s="1">
+        <v>0.78879934926942841</v>
+      </c>
+      <c r="C148" s="1">
+        <v>15.212994294574635</v>
+      </c>
+      <c r="D148" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A149" s="1">
+        <v>48295</v>
+      </c>
+      <c r="B149" s="1">
+        <v>0.50187014173951849</v>
+      </c>
+      <c r="C149" s="1">
+        <v>1.9925473082218583</v>
+      </c>
+      <c r="D149" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A150" s="1">
+        <v>48297</v>
+      </c>
+      <c r="B150" s="1">
+        <v>0.68619028562857665</v>
+      </c>
+      <c r="C150" s="1">
+        <v>7.286608546811193</v>
+      </c>
+      <c r="D150" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A151" s="1">
+        <v>48299</v>
+      </c>
+      <c r="B151" s="1">
+        <v>1.0618652842555107</v>
+      </c>
+      <c r="C151" s="1">
+        <v>22.601737109078531</v>
+      </c>
+      <c r="D151" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A152" s="1">
+        <v>48301</v>
+      </c>
+      <c r="B152" s="1">
+        <v>0</v>
+      </c>
+      <c r="C152" s="1">
+        <v>5.9766517270150164E-2</v>
+      </c>
+      <c r="D152" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A153" s="1">
+        <v>48303</v>
+      </c>
+      <c r="B153" s="1">
+        <v>1.0513875949571421</v>
+      </c>
+      <c r="C153" s="1">
+        <v>124.59724713162512</v>
+      </c>
+      <c r="D153" s="1">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A154" s="1">
+        <v>48305</v>
+      </c>
+      <c r="B154" s="1">
+        <v>0.99156047613579557</v>
+      </c>
+      <c r="C154" s="1">
+        <v>3.025534066960073</v>
+      </c>
+      <c r="D154" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A155" s="1">
+        <v>48307</v>
+      </c>
+      <c r="B155" s="1">
+        <v>1.628917491045381</v>
+      </c>
+      <c r="C155" s="1">
+        <v>5.5251417272363632</v>
+      </c>
+      <c r="D155" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A156" s="1">
+        <v>48309</v>
+      </c>
+      <c r="B156" s="1">
+        <v>1.2494295880764981</v>
+      </c>
+      <c r="C156" s="1">
+        <v>122.45588023535134</v>
+      </c>
+      <c r="D156" s="1">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A157" s="1">
+        <v>48311</v>
+      </c>
+      <c r="B157" s="1">
+        <v>0</v>
+      </c>
+      <c r="C157" s="1">
+        <v>0.52453089692800914</v>
+      </c>
+      <c r="D157" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A158" s="1">
+        <v>48313</v>
+      </c>
+      <c r="B158" s="1">
+        <v>0.93615210308253072</v>
+      </c>
+      <c r="C158" s="1">
+        <v>7.4774173736838607</v>
+      </c>
+      <c r="D158" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A159" s="1">
+        <v>48315</v>
+      </c>
+      <c r="B159" s="1">
+        <v>1.4638828426477821</v>
+      </c>
+      <c r="C159" s="1">
+        <v>8.880492086707152</v>
+      </c>
+      <c r="D159" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A160" s="1">
+        <v>48317</v>
+      </c>
+      <c r="B160" s="1">
+        <v>1.4158242020571188</v>
+      </c>
+      <c r="C160" s="1">
+        <v>2.1189071324258735</v>
+      </c>
+      <c r="D160" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A161" s="1">
+        <v>48319</v>
+      </c>
+      <c r="B161" s="1">
+        <v>0.28085992240994073</v>
+      </c>
+      <c r="C161" s="1">
+        <v>3.560493755817566</v>
+      </c>
+      <c r="D161" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A162" s="1">
+        <v>48321</v>
+      </c>
+      <c r="B162" s="1">
+        <v>0.99852751187884292</v>
+      </c>
+      <c r="C162" s="1">
+        <v>20.029493190796245</v>
+      </c>
+      <c r="D162" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A163" s="1">
+        <v>48323</v>
+      </c>
+      <c r="B163" s="1">
+        <v>0.62933541654398395</v>
+      </c>
+      <c r="C163" s="1">
+        <v>11.122844537243319</v>
+      </c>
+      <c r="D163" s="1">
+        <v>7.0000000000000009</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A164" s="1">
+        <v>48325</v>
+      </c>
+      <c r="B164" s="1">
+        <v>1.6128269520697271</v>
+      </c>
+      <c r="C164" s="1">
+        <v>22.941084877406229</v>
+      </c>
+      <c r="D164" s="1">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A165" s="1">
+        <v>48327</v>
+      </c>
+      <c r="B165" s="1">
+        <v>1.6542654518088509</v>
+      </c>
+      <c r="C165" s="1">
+        <v>1.8134937151227213</v>
+      </c>
+      <c r="D165" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A166" s="1">
+        <v>48329</v>
+      </c>
+      <c r="B166" s="1">
+        <v>0.76151331856193505</v>
+      </c>
+      <c r="C166" s="1">
+        <v>63.032384109374036</v>
+      </c>
+      <c r="D166" s="1">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A167" s="1">
+        <v>48331</v>
+      </c>
+      <c r="B167" s="1">
+        <v>1.2138915145615343</v>
+      </c>
+      <c r="C167" s="1">
+        <v>16.475936902173778</v>
+      </c>
+      <c r="D167" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A168" s="1">
+        <v>48333</v>
+      </c>
+      <c r="B168" s="1">
+        <v>0.24442278993188313</v>
+      </c>
+      <c r="C168" s="1">
+        <v>4.0912715229160286</v>
+      </c>
+      <c r="D168" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A169" s="1">
+        <v>48335</v>
+      </c>
+      <c r="B169" s="1">
+        <v>0.73435568726030365</v>
+      </c>
+      <c r="C169" s="1">
+        <v>4.0852138167435532</v>
+      </c>
+      <c r="D169" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A170" s="1">
+        <v>48337</v>
+      </c>
+      <c r="B170" s="1">
+        <v>1.5925380373936555</v>
+      </c>
+      <c r="C170" s="1">
+        <v>14.442355196514962</v>
+      </c>
+      <c r="D170" s="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A171" s="1">
+        <v>48339</v>
+      </c>
+      <c r="B171" s="1">
+        <v>0.92634773577974971</v>
+      </c>
+      <c r="C171" s="1">
+        <v>256.92295755401659</v>
+      </c>
+      <c r="D171" s="1">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A172" s="1">
+        <v>48341</v>
+      </c>
+      <c r="B172" s="1">
+        <v>0.91410976759108109</v>
+      </c>
+      <c r="C172" s="1">
+        <v>7.657723665339268</v>
+      </c>
+      <c r="D172" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A173" s="1">
+        <v>48343</v>
+      </c>
+      <c r="B173" s="1">
+        <v>0.7423467426292587</v>
+      </c>
+      <c r="C173" s="1">
+        <v>9.4295557561245005</v>
+      </c>
+      <c r="D173" s="1">
+        <v>6.9999999999999991</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A174" s="1">
+        <v>48345</v>
+      </c>
+      <c r="B174" s="1">
+        <v>0</v>
+      </c>
+      <c r="C174" s="1">
+        <v>1.0491287796221049</v>
+      </c>
+      <c r="D174" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A175" s="1">
+        <v>48347</v>
+      </c>
+      <c r="B175" s="1">
+        <v>1.0593451934195437</v>
+      </c>
+      <c r="C175" s="1">
+        <v>33.03927767588273</v>
+      </c>
+      <c r="D175" s="1">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A176" s="1">
+        <v>48349</v>
+      </c>
+      <c r="B176" s="1">
+        <v>0.95812286816189085</v>
+      </c>
+      <c r="C176" s="1">
+        <v>28.180101839963495</v>
+      </c>
+      <c r="D176" s="1">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A177" s="1">
+        <v>48351</v>
+      </c>
+      <c r="B177" s="1">
+        <v>1.0885976206394818</v>
+      </c>
+      <c r="C177" s="1">
+        <v>10.104743746856805</v>
+      </c>
+      <c r="D177" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A178" s="1">
+        <v>48353</v>
+      </c>
+      <c r="B178" s="1">
+        <v>1.0760529047975755</v>
+      </c>
+      <c r="C178" s="1">
+        <v>8.3639010311421984</v>
+      </c>
+      <c r="D178" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A179" s="1">
+        <v>48355</v>
+      </c>
+      <c r="B179" s="1">
+        <v>1.1079798200274242</v>
+      </c>
+      <c r="C179" s="1">
+        <v>133.57644004413075</v>
+      </c>
+      <c r="D179" s="1">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A180" s="1">
+        <v>48357</v>
+      </c>
+      <c r="B180" s="1">
+        <v>0.50845462324049817</v>
+      </c>
+      <c r="C180" s="1">
+        <v>3.9334876871677169</v>
+      </c>
+      <c r="D180" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A181" s="1">
+        <v>48359</v>
+      </c>
+      <c r="B181" s="1">
+        <v>0</v>
+      </c>
+      <c r="C181" s="1">
+        <v>1.1194852972085045</v>
+      </c>
+      <c r="D181" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A182" s="1">
+        <v>48361</v>
+      </c>
+      <c r="B182" s="1">
+        <v>1.1625593461586188</v>
+      </c>
+      <c r="C182" s="1">
+        <v>49.889926214645492</v>
+      </c>
+      <c r="D182" s="1">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A183" s="1">
+        <v>48363</v>
+      </c>
+      <c r="B183" s="1">
+        <v>1.3026010133764852</v>
+      </c>
+      <c r="C183" s="1">
+        <v>18.424674749629865</v>
+      </c>
+      <c r="D183" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A184" s="1">
+        <v>48365</v>
+      </c>
+      <c r="B184" s="1">
+        <v>1.2127466509665592</v>
+      </c>
+      <c r="C184" s="1">
+        <v>15.666916074232814</v>
+      </c>
+      <c r="D184" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A185" s="1">
+        <v>48367</v>
+      </c>
+      <c r="B185" s="1">
+        <v>1.1598785525234601</v>
+      </c>
+      <c r="C185" s="1">
+        <v>73.283534569263239</v>
+      </c>
+      <c r="D185" s="1">
+        <v>84.999999999999986</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A186" s="1">
+        <v>48369</v>
+      </c>
+      <c r="B186" s="1">
+        <v>0.742676044660049</v>
+      </c>
+      <c r="C186" s="1">
+        <v>4.0394462990565607</v>
+      </c>
+      <c r="D186" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A187" s="1">
+        <v>48371</v>
+      </c>
+      <c r="B187" s="1">
+        <v>0.93970071233268637</v>
+      </c>
+      <c r="C187" s="1">
+        <v>5.320843045428945</v>
+      </c>
+      <c r="D187" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A188" s="1">
+        <v>48373</v>
+      </c>
+      <c r="B188" s="1">
+        <v>1.5447075205821941</v>
+      </c>
+      <c r="C188" s="1">
+        <v>31.721215406222722</v>
+      </c>
+      <c r="D188" s="1">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A189" s="1">
+        <v>48375</v>
+      </c>
+      <c r="B189" s="1">
+        <v>1.0109756350133066</v>
+      </c>
+      <c r="C189" s="1">
+        <v>51.435463129945333</v>
+      </c>
+      <c r="D189" s="1">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A190" s="1">
+        <v>48377</v>
+      </c>
+      <c r="B190" s="1">
+        <v>0.70071048009205272</v>
+      </c>
+      <c r="C190" s="1">
+        <v>2.8542458787504632</v>
+      </c>
+      <c r="D190" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A191" s="1">
+        <v>48379</v>
+      </c>
+      <c r="B191" s="1">
+        <v>1.2998613014369884</v>
+      </c>
+      <c r="C191" s="1">
+        <v>9.2317541777219425</v>
+      </c>
+      <c r="D191" s="1">
+        <v>11.999999999999998</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A192" s="1">
+        <v>48381</v>
+      </c>
+      <c r="B192" s="1">
+        <v>0.86126799492080519</v>
+      </c>
+      <c r="C192" s="1">
+        <v>69.664727301885961</v>
+      </c>
+      <c r="D192" s="1">
+        <v>59.999999999999993</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A193" s="1">
+        <v>48383</v>
+      </c>
+      <c r="B193" s="1">
+        <v>0</v>
+      </c>
+      <c r="C193" s="1">
+        <v>1.3078045890151568</v>
+      </c>
+      <c r="D193" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A194" s="1">
+        <v>48385</v>
+      </c>
+      <c r="B194" s="1">
+        <v>1.0068523391904234</v>
+      </c>
+      <c r="C194" s="1">
+        <v>2.9795828874094892</v>
+      </c>
+      <c r="D194" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A195" s="1">
+        <v>48387</v>
+      </c>
+      <c r="B195" s="1">
+        <v>1.3950321763701676</v>
+      </c>
+      <c r="C195" s="1">
+        <v>10.035610817542278</v>
+      </c>
+      <c r="D195" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A196" s="1">
+        <v>48389</v>
+      </c>
+      <c r="B196" s="1">
+        <v>0.99327625310027212</v>
+      </c>
+      <c r="C196" s="1">
+        <v>4.0270770468084436</v>
+      </c>
+      <c r="D196" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A197" s="1">
+        <v>48391</v>
+      </c>
+      <c r="B197" s="1">
+        <v>0.96028095677197489</v>
+      </c>
+      <c r="C197" s="1">
+        <v>4.1654475930108719</v>
+      </c>
+      <c r="D197" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A198" s="1">
+        <v>48393</v>
+      </c>
+      <c r="B198" s="1">
+        <v>0</v>
+      </c>
+      <c r="C198" s="1">
+        <v>0.57840188646560431</v>
+      </c>
+      <c r="D198" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A199" s="1">
+        <v>48395</v>
+      </c>
+      <c r="B199" s="1">
+        <v>1.6314882235473491</v>
+      </c>
+      <c r="C199" s="1">
+        <v>11.032871546484444</v>
+      </c>
+      <c r="D199" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A200" s="1">
+        <v>48397</v>
+      </c>
+      <c r="B200" s="1">
+        <v>0.8029410073805695</v>
+      </c>
+      <c r="C200" s="1">
+        <v>42.344331261543154</v>
+      </c>
+      <c r="D200" s="1">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A201" s="1">
+        <v>48399</v>
+      </c>
+      <c r="B201" s="1">
+        <v>0.74452508444851606</v>
+      </c>
+      <c r="C201" s="1">
+        <v>6.7156904507839323</v>
+      </c>
+      <c r="D201" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A202" s="1">
+        <v>48401</v>
+      </c>
+      <c r="B202" s="1">
+        <v>1.0139850649095559</v>
+      </c>
+      <c r="C202" s="1">
+        <v>31.558650228102024</v>
+      </c>
+      <c r="D202" s="1">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A203" s="1">
+        <v>48403</v>
+      </c>
+      <c r="B203" s="1">
+        <v>0.97689313306410086</v>
+      </c>
+      <c r="C203" s="1">
+        <v>10.236534234439981</v>
+      </c>
+      <c r="D203" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A204" s="1">
+        <v>48405</v>
+      </c>
+      <c r="B204" s="1">
+        <v>0.96129685734311687</v>
+      </c>
+      <c r="C204" s="1">
+        <v>7.2818296934278663</v>
+      </c>
+      <c r="D204" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A205" s="1">
+        <v>48407</v>
+      </c>
+      <c r="B205" s="1">
+        <v>0.98413923518873503</v>
+      </c>
+      <c r="C205" s="1">
+        <v>20.322327659423582</v>
+      </c>
+      <c r="D205" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A206" s="1">
+        <v>48409</v>
+      </c>
+      <c r="B206" s="1">
+        <v>1.6208809199099461</v>
+      </c>
+      <c r="C206" s="1">
+        <v>27.145732582529615</v>
+      </c>
+      <c r="D206" s="1">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A207" s="1">
+        <v>48411</v>
+      </c>
+      <c r="B207" s="1">
+        <v>0.24287969601979822</v>
+      </c>
+      <c r="C207" s="1">
+        <v>4.1172647050681643</v>
+      </c>
+      <c r="D207" s="1">
+        <v>0.99999999999999989</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A208" s="1">
+        <v>48413</v>
+      </c>
+      <c r="B208" s="1">
+        <v>0</v>
+      </c>
+      <c r="C208" s="1">
+        <v>1.5027748524024029</v>
+      </c>
+      <c r="D208" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A209" s="1">
+        <v>48415</v>
+      </c>
+      <c r="B209" s="1">
+        <v>1.0486358263701907</v>
+      </c>
+      <c r="C209" s="1">
+        <v>8.5825791696943305</v>
+      </c>
+      <c r="D209" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A210" s="1">
+        <v>48417</v>
+      </c>
+      <c r="B210" s="1">
+        <v>0.4223354926284198</v>
+      </c>
+      <c r="C210" s="1">
+        <v>2.367785841953431</v>
+      </c>
+      <c r="D210" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A211" s="1">
+        <v>48419</v>
+      </c>
+      <c r="B211" s="1">
+        <v>1.0915649565831917</v>
+      </c>
+      <c r="C211" s="1">
+        <v>15.573970103632925</v>
+      </c>
+      <c r="D211" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A212" s="1">
+        <v>48421</v>
+      </c>
+      <c r="B212" s="1">
+        <v>1.3219144129668678</v>
+      </c>
+      <c r="C212" s="1">
+        <v>1.5129572537992499</v>
+      </c>
+      <c r="D212" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A213" s="1">
+        <v>48423</v>
+      </c>
+      <c r="B213" s="1">
+        <v>1.3066190794851011</v>
+      </c>
+      <c r="C213" s="1">
+        <v>127.81077715917758</v>
+      </c>
+      <c r="D213" s="1">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A214" s="1">
+        <v>48425</v>
+      </c>
+      <c r="B214" s="1">
+        <v>0.53462514209661449</v>
+      </c>
+      <c r="C214" s="1">
+        <v>5.6114083752871027</v>
+      </c>
+      <c r="D214" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A215" s="1">
+        <v>48427</v>
+      </c>
+      <c r="B215" s="1">
+        <v>0.90348504773143079</v>
+      </c>
+      <c r="C215" s="1">
+        <v>12.175076972906197</v>
+      </c>
+      <c r="D215" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A216" s="1">
+        <v>48429</v>
+      </c>
+      <c r="B216" s="1">
+        <v>1.2940028341875747</v>
+      </c>
+      <c r="C216" s="1">
+        <v>6.1823666754352296</v>
+      </c>
+      <c r="D216" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A217" s="1">
+        <v>48431</v>
+      </c>
+      <c r="B217" s="1">
+        <v>0</v>
+      </c>
+      <c r="C217" s="1">
+        <v>0.68875120479839025</v>
+      </c>
+      <c r="D217" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A218" s="1">
+        <v>48433</v>
+      </c>
+      <c r="B218" s="1">
+        <v>1.6689269544606142</v>
+      </c>
+      <c r="C218" s="1">
+        <v>1.1983747968444709</v>
+      </c>
+      <c r="D218" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A219" s="1">
+        <v>48435</v>
+      </c>
+      <c r="B219" s="1">
+        <v>0</v>
+      </c>
+      <c r="C219" s="1">
+        <v>1.7641863368738655</v>
+      </c>
+      <c r="D219" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A220" s="1">
+        <v>48437</v>
+      </c>
+      <c r="B220" s="1">
+        <v>0.47568343339018482</v>
+      </c>
+      <c r="C220" s="1">
+        <v>4.2044768844398179</v>
+      </c>
+      <c r="D220" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A221" s="1">
+        <v>48439</v>
+      </c>
+      <c r="B221" s="1">
+        <v>1.1178575926935794</v>
+      </c>
+      <c r="C221" s="1">
+        <v>814.05718040280283</v>
+      </c>
+      <c r="D221" s="1">
+        <v>910.00000000000011</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A222" s="1">
+        <v>48441</v>
+      </c>
+      <c r="B222" s="1">
+        <v>0.91363996849098617</v>
+      </c>
+      <c r="C222" s="1">
+        <v>67.860428766489193</v>
+      </c>
+      <c r="D222" s="1">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A223" s="1">
+        <v>48443</v>
+      </c>
+      <c r="B223" s="1">
+        <v>0</v>
+      </c>
+      <c r="C223" s="1">
+        <v>0.5200353097581536</v>
+      </c>
+      <c r="D223" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A224" s="1">
+        <v>48445</v>
+      </c>
+      <c r="B224" s="1">
+        <v>1.5813899045253892</v>
+      </c>
+      <c r="C224" s="1">
+        <v>5.6911960638202652</v>
+      </c>
+      <c r="D224" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A225" s="1">
+        <v>48447</v>
+      </c>
+      <c r="B225" s="1">
+        <v>2.220118073840287</v>
+      </c>
+      <c r="C225" s="1">
+        <v>1.3512794816406763</v>
+      </c>
+      <c r="D225" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A226" s="1">
+        <v>48449</v>
+      </c>
+      <c r="B226" s="1">
+        <v>1.0355146161779141</v>
+      </c>
+      <c r="C226" s="1">
+        <v>15.45125462261076</v>
+      </c>
+      <c r="D226" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A227" s="1">
+        <v>48451</v>
+      </c>
+      <c r="B227" s="1">
+        <v>1.0307286955718336</v>
+      </c>
+      <c r="C227" s="1">
+        <v>56.270869579140246</v>
+      </c>
+      <c r="D227" s="1">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A228" s="1">
+        <v>48453</v>
+      </c>
+      <c r="B228" s="1">
+        <v>0.7763017531504719</v>
+      </c>
+      <c r="C228" s="1">
+        <v>413.49900176997284</v>
+      </c>
+      <c r="D228" s="1">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A229" s="1">
+        <v>48455</v>
+      </c>
+      <c r="B229" s="1">
+        <v>1.5101387082293192</v>
+      </c>
+      <c r="C229" s="1">
+        <v>12.581625711904335</v>
+      </c>
+      <c r="D229" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A230" s="1">
+        <v>48457</v>
+      </c>
+      <c r="B230" s="1">
+        <v>0.75161020217423835</v>
+      </c>
+      <c r="C230" s="1">
+        <v>15.965722611649912</v>
+      </c>
+      <c r="D230" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A231" s="1">
+        <v>48459</v>
+      </c>
+      <c r="B231" s="1">
+        <v>1.1616144836215718</v>
+      </c>
+      <c r="C231" s="1">
+        <v>26.686995072023493</v>
+      </c>
+      <c r="D231" s="1">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A232" s="1">
+        <v>48461</v>
+      </c>
+      <c r="B232" s="1">
+        <v>1.2616315179406474</v>
+      </c>
+      <c r="C232" s="1">
+        <v>1.5852489190065466</v>
+      </c>
+      <c r="D232" s="1">
+        <v>1.9999999999999998</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A233" s="1">
+        <v>48463</v>
+      </c>
+      <c r="B233" s="1">
+        <v>0.84683553988413129</v>
+      </c>
+      <c r="C233" s="1">
+        <v>10.627801475161789</v>
+      </c>
+      <c r="D233" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A234" s="1">
+        <v>48465</v>
+      </c>
+      <c r="B234" s="1">
+        <v>0.78960673076089838</v>
+      </c>
+      <c r="C234" s="1">
+        <v>13.93098560520113</v>
+      </c>
+      <c r="D234" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A235" s="1">
+        <v>48467</v>
+      </c>
+      <c r="B235" s="1">
+        <v>1.0466839229256868</v>
+      </c>
+      <c r="C235" s="1">
+        <v>38.215930448412884</v>
+      </c>
+      <c r="D235" s="1">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A236" s="1">
+        <v>48469</v>
+      </c>
+      <c r="B236" s="1">
+        <v>1.1750087188117113</v>
+      </c>
+      <c r="C236" s="1">
+        <v>43.403933250449754</v>
+      </c>
+      <c r="D236" s="1">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A237" s="1">
+        <v>48471</v>
+      </c>
+      <c r="B237" s="1">
+        <v>0.97423855925950731</v>
+      </c>
+      <c r="C237" s="1">
+        <v>33.872607162133285</v>
+      </c>
+      <c r="D237" s="1">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A238" s="1">
+        <v>48473</v>
+      </c>
+      <c r="B238" s="1">
+        <v>1.0434634423671294</v>
+      </c>
+      <c r="C238" s="1">
+        <v>21.083632743368867</v>
+      </c>
+      <c r="D238" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A239" s="1">
+        <v>48475</v>
+      </c>
+      <c r="B239" s="1">
+        <v>0.62331011942453496</v>
+      </c>
+      <c r="C239" s="1">
+        <v>4.8130134687524739</v>
+      </c>
+      <c r="D239" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A240" s="1">
+        <v>48477</v>
+      </c>
+      <c r="B240" s="1">
+        <v>0.59334519774463379</v>
+      </c>
+      <c r="C240" s="1">
+        <v>25.280393364632502</v>
+      </c>
+      <c r="D240" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A241" s="1">
+        <v>48479</v>
+      </c>
+      <c r="B241" s="1">
+        <v>1.0688187875822861</v>
+      </c>
+      <c r="C241" s="1">
+        <v>43.973777918253113</v>
+      </c>
+      <c r="D241" s="1">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A242" s="1">
+        <v>48481</v>
+      </c>
+      <c r="B242" s="1">
+        <v>0.53905543146691048</v>
+      </c>
+      <c r="C242" s="1">
+        <v>22.261161467838043</v>
+      </c>
+      <c r="D242" s="1">
+        <v>11.999999999999998</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A243" s="1">
+        <v>48483</v>
+      </c>
+      <c r="B243" s="1">
+        <v>0.86503743107979147</v>
+      </c>
+      <c r="C243" s="1">
+        <v>3.4680580194723141</v>
+      </c>
+      <c r="D243" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="244" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A244" s="1">
+        <v>48485</v>
+      </c>
+      <c r="B244" s="1">
+        <v>0.88101865898243115</v>
+      </c>
+      <c r="C244" s="1">
+        <v>69.238034152936635</v>
+      </c>
+      <c r="D244" s="1">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="245" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A245" s="1">
+        <v>48487</v>
+      </c>
+      <c r="B245" s="1">
+        <v>1.1522905441464473</v>
+      </c>
+      <c r="C245" s="1">
+        <v>7.8105301182235243</v>
+      </c>
+      <c r="D245" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="246" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A246" s="1">
+        <v>48489</v>
+      </c>
+      <c r="B246" s="1">
+        <v>1.5709985507336655</v>
+      </c>
+      <c r="C246" s="1">
+        <v>5.7288404217794779</v>
+      </c>
+      <c r="D246" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="247" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A247" s="1">
+        <v>48491</v>
+      </c>
+      <c r="B247" s="1">
+        <v>0.97231298534551069</v>
+      </c>
+      <c r="C247" s="1">
+        <v>211.86593525416927</v>
+      </c>
+      <c r="D247" s="1">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="248" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A248" s="1">
+        <v>48493</v>
+      </c>
+      <c r="B248" s="1">
+        <v>1.0283150529711209</v>
+      </c>
+      <c r="C248" s="1">
+        <v>23.339150711308331</v>
+      </c>
+      <c r="D248" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="249" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A249" s="1">
+        <v>48495</v>
+      </c>
+      <c r="B249" s="1">
+        <v>0.73261934878410495</v>
+      </c>
+      <c r="C249" s="1">
+        <v>2.7299306294862524</v>
+      </c>
+      <c r="D249" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="250" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A250" s="1">
+        <v>48497</v>
+      </c>
+      <c r="B250" s="1">
+        <v>1.4458724380939783</v>
+      </c>
+      <c r="C250" s="1">
+        <v>35.272821209062371</v>
+      </c>
+      <c r="D250" s="1">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="251" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A251" s="1">
+        <v>48499</v>
+      </c>
+      <c r="B251" s="1">
+        <v>1.3014166320551201</v>
+      </c>
+      <c r="C251" s="1">
+        <v>37.651278455402938</v>
+      </c>
+      <c r="D251" s="1">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="252" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A252" s="1">
+        <v>48501</v>
+      </c>
+      <c r="B252" s="1">
+        <v>1.3265545481834056</v>
+      </c>
+      <c r="C252" s="1">
+        <v>3.0153302067205847</v>
+      </c>
+      <c r="D252" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="253" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A253" s="1">
+        <v>48503</v>
+      </c>
+      <c r="B253" s="1">
+        <v>1.0223542393499174</v>
+      </c>
+      <c r="C253" s="1">
+        <v>12.715749101080938</v>
+      </c>
+      <c r="D253" s="1">
+        <v>12.999999999999998</v>
+      </c>
+    </row>
+    <row r="254" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A254" s="1">
+        <v>48505</v>
+      </c>
+      <c r="B254" s="1">
+        <v>0.59765621555241644</v>
+      </c>
+      <c r="C254" s="1">
+        <v>3.3464054216375723</v>
+      </c>
+      <c r="D254" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="255" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A255" s="1">
+        <v>48507</v>
+      </c>
+      <c r="B255" s="1">
+        <v>1.398607311305359</v>
+      </c>
+      <c r="C255" s="1">
+        <v>2.8599879091627867</v>
+      </c>
+      <c r="D255" s="1">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Visualizations/dashboard_1/covid_dashboard_data.xlsx
+++ b/Visualizations/dashboard_1/covid_dashboard_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dilek\Documents\GitHub\cprit_2020\Visualizations\dashboard_1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78826486-A64E-4E76-90E1-B363C7AA1EE2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DB92F85-53BB-4856-90DA-EA0E207768EE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="15375" windowHeight="7875" firstSheet="3" activeTab="4" xr2:uid="{AC486988-8AA8-48CB-864F-5A6EEC02CF10}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{AC486988-8AA8-48CB-864F-5A6EEC02CF10}"/>
   </bookViews>
   <sheets>
     <sheet name="Covid Cases" sheetId="3" r:id="rId1"/>
@@ -888,39 +888,39 @@
       <sheetData sheetId="2">
         <row r="2">
           <cell r="E2">
-            <v>3795.5978625062289</v>
+            <v>4151.2740768741733</v>
           </cell>
           <cell r="G2">
-            <v>3.6215482118605704E-3</v>
+            <v>7.036423841059603E-3</v>
           </cell>
         </row>
         <row r="3">
           <cell r="E3">
-            <v>1145.0895864205847</v>
+            <v>1571.6915892047239</v>
           </cell>
           <cell r="G3">
-            <v>2.3529411764705882E-2</v>
+            <v>0.02</v>
           </cell>
         </row>
         <row r="4">
           <cell r="E4">
-            <v>1821.1572697015604</v>
+            <v>2159.5143580614131</v>
           </cell>
           <cell r="G4">
-            <v>2.1250758955676987E-2</v>
+            <v>2.8161802355350742E-2</v>
           </cell>
         </row>
         <row r="5">
           <cell r="E5">
-            <v>552.36651142640528</v>
+            <v>685.94534098703923</v>
           </cell>
           <cell r="G5">
-            <v>7.8431372549019607E-2</v>
+            <v>8.4210526315789472E-2</v>
           </cell>
         </row>
         <row r="6">
           <cell r="E6">
-            <v>239.69319271332697</v>
+            <v>395.49376797698943</v>
           </cell>
           <cell r="G6">
             <v>0</v>
@@ -928,7 +928,7 @@
         </row>
         <row r="7">
           <cell r="E7">
-            <v>410.6776180698152</v>
+            <v>462.0123203285421</v>
           </cell>
           <cell r="G7">
             <v>0</v>
@@ -936,47 +936,47 @@
         </row>
         <row r="8">
           <cell r="E8">
-            <v>781.38565723215834</v>
+            <v>1001.3312496382473</v>
           </cell>
           <cell r="G8">
-            <v>3.7037037037037035E-2</v>
+            <v>4.046242774566474E-2</v>
           </cell>
         </row>
         <row r="9">
           <cell r="E9">
-            <v>700.61180185514104</v>
+            <v>1157.8185645681206</v>
           </cell>
           <cell r="G9">
-            <v>1.4084507042253521E-2</v>
+            <v>1.1363636363636364E-2</v>
           </cell>
         </row>
         <row r="10">
           <cell r="E10">
-            <v>2054.0821632865313</v>
+            <v>2548.1019240769629</v>
           </cell>
           <cell r="G10">
-            <v>2.5316455696202531E-2</v>
+            <v>2.0408163265306121E-2</v>
           </cell>
         </row>
         <row r="11">
           <cell r="E11">
-            <v>390.6617716276005</v>
+            <v>484.79713828485365</v>
           </cell>
           <cell r="G11">
-            <v>3.614457831325301E-2</v>
+            <v>2.9126213592233011E-2</v>
           </cell>
         </row>
         <row r="12">
           <cell r="E12">
-            <v>1505.139074385924</v>
+            <v>1743.2204866151792</v>
           </cell>
           <cell r="G12">
-            <v>1.3888888888888888E-2</v>
+            <v>1.6655562958027982E-2</v>
           </cell>
         </row>
         <row r="13">
           <cell r="E13">
-            <v>193.15673289183223</v>
+            <v>358.71964679911702</v>
           </cell>
           <cell r="G13">
             <v>0</v>
@@ -984,34 +984,34 @@
         </row>
         <row r="14">
           <cell r="E14">
-            <v>1483.5244592829147</v>
+            <v>4174.7713746552481</v>
           </cell>
           <cell r="G14">
-            <v>1.7612524461839529E-2</v>
+            <v>1.2517385257301807E-2</v>
           </cell>
         </row>
         <row r="15">
           <cell r="E15">
-            <v>988.60670363573126</v>
+            <v>1258.9465230509943</v>
           </cell>
           <cell r="G15">
-            <v>8.8672768878718528E-3</v>
+            <v>1.1455525606469003E-2</v>
           </cell>
         </row>
         <row r="16">
           <cell r="E16">
-            <v>1620.9681194477005</v>
+            <v>1729.9720754983753</v>
           </cell>
           <cell r="G16">
-            <v>1.8005009577132754E-2</v>
+            <v>2.6424055001794736E-2</v>
           </cell>
         </row>
         <row r="17">
           <cell r="E17">
-            <v>851.87760778859536</v>
+            <v>1112.6564673157163</v>
           </cell>
           <cell r="G17">
-            <v>4.0816326530612242E-2</v>
+            <v>3.90625E-2</v>
           </cell>
         </row>
         <row r="18">
@@ -1024,127 +1024,127 @@
         </row>
         <row r="19">
           <cell r="E19">
-            <v>703.6307345904869</v>
+            <v>1086.4058542077119</v>
           </cell>
           <cell r="G19">
-            <v>1.6E-2</v>
+            <v>1.5544041450777202E-2</v>
           </cell>
         </row>
         <row r="20">
           <cell r="E20">
-            <v>764.82661769471747</v>
+            <v>877.17403046343304</v>
           </cell>
           <cell r="G20">
-            <v>4.2372881355932202E-2</v>
+            <v>4.9261083743842367E-2</v>
           </cell>
         </row>
         <row r="21">
           <cell r="E21">
-            <v>1738.3716135142829</v>
+            <v>2244.9310797112826</v>
           </cell>
           <cell r="G21">
-            <v>1.1019283746556474E-2</v>
+            <v>1.4339890969424033E-2</v>
           </cell>
         </row>
         <row r="22">
           <cell r="E22">
-            <v>1689.9873588771195</v>
+            <v>1841.6808334423085</v>
           </cell>
           <cell r="G22">
-            <v>1.0833118390508125E-2</v>
+            <v>1.2307692307692308E-2</v>
           </cell>
         </row>
         <row r="23">
           <cell r="E23">
-            <v>1981.8241541662105</v>
+            <v>2047.5199824811125</v>
           </cell>
           <cell r="G23">
-            <v>1.1049723756906077E-2</v>
+            <v>1.06951871657754E-2</v>
           </cell>
         </row>
         <row r="24">
           <cell r="E24">
-            <v>701.53061224489795</v>
+            <v>765.30612244897952</v>
           </cell>
           <cell r="G24">
-            <v>9.0909090909090912E-2</v>
+            <v>8.3333333333333329E-2</v>
           </cell>
         </row>
         <row r="25">
           <cell r="E25">
-            <v>1184.6689895470383</v>
+            <v>2327.5261324041812</v>
           </cell>
           <cell r="G25">
-            <v>1.1764705882352941E-2</v>
+            <v>5.3892215568862277E-2</v>
           </cell>
         </row>
         <row r="26">
           <cell r="E26">
-            <v>901.7804383012616</v>
+            <v>1097.0377411813067</v>
           </cell>
           <cell r="G26">
-            <v>3.9886039886039885E-2</v>
+            <v>4.449648711943794E-2</v>
           </cell>
         </row>
         <row r="27">
           <cell r="E27">
-            <v>1303.758889265154</v>
+            <v>1501.2981149113896</v>
           </cell>
           <cell r="G27">
-            <v>2.1645021645021644E-2</v>
+            <v>2.2556390977443608E-2</v>
           </cell>
         </row>
         <row r="28">
           <cell r="E28">
-            <v>1124.5746534982156</v>
+            <v>1234.5422856668602</v>
           </cell>
           <cell r="G28">
-            <v>1.2915129151291513E-2</v>
+            <v>1.8487394957983194E-2</v>
           </cell>
         </row>
         <row r="29">
           <cell r="E29">
-            <v>2416.2225634540691</v>
+            <v>2698.4915545117874</v>
           </cell>
           <cell r="G29">
-            <v>2.1495327102803739E-2</v>
+            <v>2.5104602510460251E-2</v>
           </cell>
         </row>
         <row r="30">
           <cell r="E30">
-            <v>1983.3625218914185</v>
+            <v>2473.7302977232926</v>
           </cell>
           <cell r="G30">
-            <v>6.6225165562913907E-3</v>
+            <v>1.2389380530973451E-2</v>
           </cell>
         </row>
         <row r="31">
           <cell r="E31">
-            <v>304.69678953626635</v>
+            <v>416.17122473246138</v>
           </cell>
           <cell r="G31">
-            <v>7.3170731707317069E-2</v>
+            <v>5.3571428571428568E-2</v>
           </cell>
         </row>
         <row r="32">
           <cell r="E32">
-            <v>2564.0306533825992</v>
+            <v>4337.4209184329284</v>
           </cell>
           <cell r="G32">
-            <v>3.1537690274359674E-2</v>
+            <v>3.2922032437092519E-2</v>
           </cell>
         </row>
         <row r="33">
           <cell r="E33">
-            <v>1606.3654105990092</v>
+            <v>2026.7227143071611</v>
           </cell>
           <cell r="G33">
-            <v>1.8691588785046728E-2</v>
+            <v>2.5925925925925925E-2</v>
           </cell>
         </row>
         <row r="34">
           <cell r="E34">
-            <v>224.17658216933953</v>
+            <v>293.15399206759787</v>
           </cell>
           <cell r="G34">
             <v>0</v>
@@ -1152,39 +1152,39 @@
         </row>
         <row r="35">
           <cell r="E35">
-            <v>504.50093975665243</v>
+            <v>718.83140435915186</v>
           </cell>
           <cell r="G35">
-            <v>4.5751633986928102E-2</v>
+            <v>4.1284403669724773E-2</v>
           </cell>
         </row>
         <row r="36">
           <cell r="E36">
-            <v>2393.3549204561455</v>
+            <v>2942.4186963254965</v>
           </cell>
           <cell r="G36">
-            <v>1.7647058823529412E-2</v>
+            <v>1.9138755980861243E-2</v>
           </cell>
         </row>
         <row r="37">
           <cell r="E37">
-            <v>2095.93572778828</v>
+            <v>2551.9848771266543</v>
           </cell>
           <cell r="G37">
-            <v>2.2547914317925591E-3</v>
+            <v>4.6296296296296294E-3</v>
           </cell>
         </row>
         <row r="38">
           <cell r="E38">
-            <v>1500.6324504580475</v>
+            <v>2504.887117175821</v>
           </cell>
           <cell r="G38">
-            <v>5.108556832694764E-3</v>
+            <v>9.9464422341239474E-3</v>
           </cell>
         </row>
         <row r="39">
           <cell r="E39">
-            <v>481.45001416029459</v>
+            <v>750.49561030869449</v>
           </cell>
           <cell r="G39">
             <v>0</v>
@@ -1192,15 +1192,15 @@
         </row>
         <row r="40">
           <cell r="E40">
-            <v>347.39961172984567</v>
+            <v>521.09941759476851</v>
           </cell>
           <cell r="G40">
-            <v>2.9411764705882353E-2</v>
+            <v>1.9607843137254902E-2</v>
           </cell>
         </row>
         <row r="41">
           <cell r="E41">
-            <v>627.2401433691756</v>
+            <v>1045.4002389486259</v>
           </cell>
           <cell r="G41">
             <v>0</v>
@@ -1208,31 +1208,31 @@
         </row>
         <row r="42">
           <cell r="E42">
-            <v>1213.0637636080871</v>
+            <v>1368.5847589424573</v>
           </cell>
           <cell r="G42">
-            <v>2.564102564102564E-2</v>
+            <v>4.5454545454545456E-2</v>
           </cell>
         </row>
         <row r="43">
           <cell r="E43">
-            <v>129.74758197688135</v>
+            <v>436.4236848313281</v>
           </cell>
           <cell r="G43">
-            <v>0</v>
+            <v>2.7027027027027029E-2</v>
           </cell>
         </row>
         <row r="44">
           <cell r="E44">
-            <v>611.2362404497344</v>
+            <v>1001.7616457677688</v>
           </cell>
           <cell r="G44">
-            <v>1.133322839603337E-2</v>
+            <v>9.5082597003457552E-3</v>
           </cell>
         </row>
         <row r="45">
           <cell r="E45">
-            <v>218.06853582554518</v>
+            <v>498.44236760124613</v>
           </cell>
           <cell r="G45">
             <v>0</v>
@@ -1240,31 +1240,31 @@
         </row>
         <row r="46">
           <cell r="E46">
-            <v>1137.5922530907724</v>
+            <v>1776.9002961500494</v>
           </cell>
           <cell r="G46">
-            <v>8.2644628099173556E-3</v>
+            <v>7.9365079365079361E-3</v>
           </cell>
         </row>
         <row r="47">
           <cell r="E47">
-            <v>1132.8310595262337</v>
+            <v>1531.2563632661372</v>
           </cell>
           <cell r="G47">
-            <v>3.6548831635710009E-2</v>
+            <v>4.0336879432624116E-2</v>
           </cell>
         </row>
         <row r="48">
           <cell r="E48">
-            <v>818.3556405353728</v>
+            <v>1399.6175908221799</v>
           </cell>
           <cell r="G48">
-            <v>2.8037383177570093E-2</v>
+            <v>1.6393442622950821E-2</v>
           </cell>
         </row>
         <row r="49">
           <cell r="E49">
-            <v>626.95924764890276</v>
+            <v>868.09741982155765</v>
           </cell>
           <cell r="G49">
             <v>0</v>
@@ -1272,95 +1272,95 @@
         </row>
         <row r="50">
           <cell r="E50">
-            <v>503.4359503612153</v>
+            <v>712.36186976111958</v>
           </cell>
           <cell r="G50">
-            <v>0.01</v>
+            <v>1.0600706713780919E-2</v>
           </cell>
         </row>
         <row r="51">
           <cell r="E51">
-            <v>781.43953420074831</v>
+            <v>974.24569378295905</v>
           </cell>
           <cell r="G51">
-            <v>8.1699346405228763E-3</v>
+            <v>7.8636959370904317E-3</v>
           </cell>
         </row>
         <row r="52">
           <cell r="E52">
-            <v>927.15231788079484</v>
+            <v>1192.0529801324503</v>
           </cell>
           <cell r="G52">
-            <v>0.14285714285714285</v>
+            <v>0.1111111111111111</v>
           </cell>
         </row>
         <row r="53">
           <cell r="E53">
-            <v>1207.9239813174424</v>
+            <v>1143.5013689805121</v>
           </cell>
           <cell r="G53">
-            <v>2.6666666666666668E-2</v>
+            <v>2.8169014084507043E-2</v>
           </cell>
         </row>
         <row r="54">
           <cell r="E54">
-            <v>3787.128712871287</v>
+            <v>3886.1386138613861</v>
           </cell>
           <cell r="G54">
-            <v>1.9607843137254902E-2</v>
+            <v>2.5477707006369428E-2</v>
           </cell>
         </row>
         <row r="55">
           <cell r="E55">
-            <v>804.45544554455444</v>
+            <v>1113.8613861386139</v>
           </cell>
           <cell r="G55">
-            <v>1.9230769230769232E-2</v>
+            <v>1.3888888888888888E-2</v>
           </cell>
         </row>
         <row r="56">
           <cell r="E56">
-            <v>668.15144766147</v>
+            <v>979.95545657015589</v>
           </cell>
           <cell r="G56">
-            <v>0.13333333333333333</v>
+            <v>9.0909090909090912E-2</v>
           </cell>
         </row>
         <row r="57">
           <cell r="E57">
-            <v>2473.400580350974</v>
+            <v>2749.7581870940999</v>
           </cell>
           <cell r="G57">
-            <v>2.7932960893854747E-2</v>
+            <v>3.015075376884422E-2</v>
           </cell>
         </row>
         <row r="58">
           <cell r="E58">
-            <v>1827.870192541561</v>
+            <v>2430.9181302441634</v>
           </cell>
           <cell r="G58">
-            <v>1.282615655514647E-2</v>
+            <v>1.2849061145883486E-2</v>
           </cell>
         </row>
         <row r="59">
           <cell r="E59">
-            <v>1007.9458505002943</v>
+            <v>1331.6656856974691</v>
           </cell>
           <cell r="G59">
-            <v>2.9197080291970802E-2</v>
+            <v>3.8674033149171269E-2</v>
           </cell>
         </row>
         <row r="60">
           <cell r="E60">
-            <v>3290.5252714545559</v>
+            <v>4194.4551617703792</v>
           </cell>
           <cell r="G60">
-            <v>2.8475711892797319E-2</v>
+            <v>2.4967148488830485E-2</v>
           </cell>
         </row>
         <row r="61">
           <cell r="E61">
-            <v>260.85336314514626</v>
+            <v>335.38289547233092</v>
           </cell>
           <cell r="G61">
             <v>0</v>
@@ -1368,71 +1368,71 @@
         </row>
         <row r="62">
           <cell r="E62">
-            <v>757.61203537378901</v>
+            <v>967.75666432430194</v>
           </cell>
           <cell r="G62">
-            <v>1.0877554020285169E-2</v>
+            <v>1.2543153049482163E-2</v>
           </cell>
         </row>
         <row r="63">
           <cell r="E63">
-            <v>2442.8393982610296</v>
+            <v>3574.5503059299813</v>
           </cell>
           <cell r="G63">
-            <v>2.8248587570621469E-2</v>
+            <v>2.9601029601029602E-2</v>
           </cell>
         </row>
         <row r="64">
           <cell r="E64">
-            <v>183.99264029438822</v>
+            <v>229.99080036798526</v>
           </cell>
           <cell r="G64">
-            <v>0.25</v>
+            <v>0.2</v>
           </cell>
         </row>
         <row r="65">
           <cell r="E65">
-            <v>1055.9482244741548</v>
+            <v>1439.1552414204207</v>
           </cell>
           <cell r="G65">
-            <v>8.0645161290322578E-3</v>
+            <v>2.3668639053254437E-2</v>
           </cell>
         </row>
         <row r="66">
           <cell r="E66">
-            <v>1260.9970674486804</v>
+            <v>1466.2756598240469</v>
           </cell>
           <cell r="G66">
-            <v>0</v>
+            <v>0.02</v>
           </cell>
         </row>
         <row r="67">
           <cell r="E67">
-            <v>1271.617497456765</v>
+            <v>1797.2193964055612</v>
           </cell>
           <cell r="G67">
-            <v>0.02</v>
+            <v>3.3018867924528301E-2</v>
           </cell>
         </row>
         <row r="68">
           <cell r="E68">
-            <v>280.14281790716836</v>
+            <v>549.29964295523212</v>
           </cell>
           <cell r="G68">
-            <v>1.9607843137254902E-2</v>
+            <v>0.01</v>
           </cell>
         </row>
         <row r="69">
           <cell r="E69">
-            <v>1231.3285472378964</v>
+            <v>1429.877570452443</v>
           </cell>
           <cell r="G69">
-            <v>1.5377855887521968E-2</v>
+            <v>2.1188043889519486E-2</v>
           </cell>
         </row>
         <row r="70">
           <cell r="E70">
-            <v>1205.4244098442994</v>
+            <v>1506.7805123053743</v>
           </cell>
           <cell r="G70">
             <v>0</v>
@@ -1440,71 +1440,71 @@
         </row>
         <row r="71">
           <cell r="E71">
-            <v>1390.9442328143552</v>
+            <v>1938.4315865879666</v>
           </cell>
           <cell r="G71">
-            <v>0.10032362459546926</v>
+            <v>1.5674891146589261E-2</v>
           </cell>
         </row>
         <row r="72">
           <cell r="E72">
-            <v>1644.751860475734</v>
+            <v>2175.1586540656531</v>
           </cell>
           <cell r="G72">
-            <v>2.3594725884802221E-3</v>
+            <v>1.999265361809309E-2</v>
           </cell>
         </row>
         <row r="73">
           <cell r="E73">
-            <v>1112.5559890189279</v>
+            <v>1449.6941675095122</v>
           </cell>
           <cell r="G73">
-            <v>1.0822510822510822E-2</v>
+            <v>1.1627906976744186E-2</v>
           </cell>
         </row>
         <row r="74">
           <cell r="E74">
-            <v>662.53086791543694</v>
+            <v>909.47419141119076</v>
           </cell>
           <cell r="G74">
-            <v>1.8181818181818181E-2</v>
+            <v>1.9867549668874173E-2</v>
           </cell>
         </row>
         <row r="75">
           <cell r="E75">
-            <v>618.55074139376245</v>
+            <v>1072.3473133508685</v>
           </cell>
           <cell r="G75">
-            <v>3.7383177570093455E-2</v>
+            <v>2.6954177897574125E-2</v>
           </cell>
         </row>
         <row r="76">
           <cell r="E76">
-            <v>1150.0421682128344</v>
+            <v>1303.3811239745457</v>
           </cell>
           <cell r="G76">
-            <v>4.3333333333333335E-2</v>
+            <v>4.4117647058823532E-2</v>
           </cell>
         </row>
         <row r="77">
           <cell r="E77">
-            <v>602.25846925972405</v>
+            <v>1129.2346298619825</v>
           </cell>
           <cell r="G77">
-            <v>4.1666666666666664E-2</v>
+            <v>2.2222222222222223E-2</v>
           </cell>
         </row>
         <row r="78">
           <cell r="E78">
-            <v>1434.4970618734878</v>
+            <v>1676.46042170757</v>
           </cell>
           <cell r="G78">
-            <v>6.0240963855421686E-2</v>
+            <v>7.2164948453608241E-2</v>
           </cell>
         </row>
         <row r="79">
           <cell r="E79">
-            <v>161.29032258064515</v>
+            <v>241.93548387096774</v>
           </cell>
           <cell r="G79">
             <v>0</v>
@@ -1512,23 +1512,23 @@
         </row>
         <row r="80">
           <cell r="E80">
-            <v>842.71100200741796</v>
+            <v>1618.904713684118</v>
           </cell>
           <cell r="G80">
-            <v>2.0474442247952557E-2</v>
+            <v>1.4994487320837926E-2</v>
           </cell>
         </row>
         <row r="81">
           <cell r="E81">
-            <v>768.94910289271331</v>
+            <v>915.4155986818015</v>
           </cell>
           <cell r="G81">
-            <v>1.1904761904761904E-2</v>
+            <v>0.04</v>
           </cell>
         </row>
         <row r="82">
           <cell r="E82">
-            <v>694.86404833836866</v>
+            <v>1002.0140986908359</v>
           </cell>
           <cell r="G82">
             <v>0</v>
@@ -1536,42 +1536,42 @@
         </row>
         <row r="83">
           <cell r="E83">
-            <v>2372.2718873295712</v>
+            <v>3016.5309893622334</v>
           </cell>
           <cell r="G83">
-            <v>1.0526315789473684E-2</v>
+            <v>1.1589403973509934E-2</v>
           </cell>
         </row>
         <row r="84">
           <cell r="E84">
-            <v>596.71805072103427</v>
+            <v>976.44771936169252</v>
           </cell>
           <cell r="G84">
-            <v>0</v>
+            <v>1.8518518518518517E-2</v>
           </cell>
         </row>
         <row r="85">
           <cell r="E85">
-            <v>2455.264135857386</v>
+            <v>2875.0323764907262</v>
           </cell>
           <cell r="G85">
-            <v>1.1122577686045179E-2</v>
+            <v>1.2632197414806111E-2</v>
           </cell>
         </row>
         <row r="86">
           <cell r="E86">
-            <v>1429.8349056603774</v>
+            <v>1488.7971698113208</v>
           </cell>
           <cell r="G86">
-            <v>2.0618556701030927E-2</v>
+            <v>2.9702970297029702E-2</v>
           </cell>
         </row>
         <row r="87">
           <cell r="E87">
-            <v>652.8960329884311</v>
+            <v>733.07624756595783</v>
           </cell>
           <cell r="G87">
-            <v>2.3391812865497075E-2</v>
+            <v>3.125E-2</v>
           </cell>
         </row>
         <row r="88">
@@ -1584,95 +1584,95 @@
         </row>
         <row r="89">
           <cell r="E89">
-            <v>997.79707140080347</v>
+            <v>1567.966826486977</v>
           </cell>
           <cell r="G89">
-            <v>3.896103896103896E-2</v>
+            <v>4.9586776859504134E-2</v>
           </cell>
         </row>
         <row r="90">
           <cell r="E90">
-            <v>2890.3358785777859</v>
+            <v>3508.6897456317047</v>
           </cell>
           <cell r="G90">
-            <v>1.1345218800648298E-2</v>
+            <v>1.4686248331108143E-2</v>
           </cell>
         </row>
         <row r="91">
           <cell r="E91">
-            <v>754.57694210786735</v>
+            <v>968.99224806201551</v>
           </cell>
           <cell r="G91">
-            <v>1.092896174863388E-2</v>
+            <v>1.276595744680851E-2</v>
           </cell>
         </row>
         <row r="92">
           <cell r="E92">
-            <v>763.04001214790071</v>
+            <v>1020.4236580365955</v>
           </cell>
           <cell r="G92">
-            <v>1.0945273631840797E-2</v>
+            <v>1.2648809523809524E-2</v>
           </cell>
         </row>
         <row r="93">
           <cell r="E93">
-            <v>1044.3012805217529</v>
+            <v>1374.3736578382247</v>
           </cell>
           <cell r="G93">
-            <v>1.4470677837014471E-2</v>
+            <v>2.1990740740740741E-2</v>
           </cell>
         </row>
         <row r="94">
           <cell r="E94">
-            <v>2900.1036985827859</v>
+            <v>3290.7016937435187</v>
           </cell>
           <cell r="G94">
-            <v>2.3837902264600714E-2</v>
+            <v>3.0462184873949579E-2</v>
           </cell>
         </row>
         <row r="95">
           <cell r="E95">
-            <v>937.94415796459657</v>
+            <v>1080.6620229523216</v>
           </cell>
           <cell r="G95">
-            <v>2.6925485284909206E-2</v>
+            <v>3.4782608695652174E-2</v>
           </cell>
         </row>
         <row r="96">
           <cell r="E96">
-            <v>3569.0621046924884</v>
+            <v>4614.1798686826096</v>
           </cell>
           <cell r="G96">
-            <v>1.8565400843881856E-2</v>
+            <v>2.3498694516971279E-2</v>
           </cell>
         </row>
         <row r="97">
           <cell r="E97">
-            <v>242.0574886535552</v>
+            <v>453.85779122541607</v>
           </cell>
           <cell r="G97">
-            <v>0.125</v>
+            <v>6.6666666666666666E-2</v>
           </cell>
         </row>
         <row r="98">
           <cell r="E98">
-            <v>669.09975669099754</v>
+            <v>1180.0486618004866</v>
           </cell>
           <cell r="G98">
-            <v>3.6363636363636362E-2</v>
+            <v>3.0927835051546393E-2</v>
           </cell>
         </row>
         <row r="99">
           <cell r="E99">
-            <v>1013.745704467354</v>
+            <v>1701.0309278350514</v>
           </cell>
           <cell r="G99">
-            <v>3.3898305084745763E-2</v>
+            <v>2.0202020202020204E-2</v>
           </cell>
         </row>
         <row r="100">
           <cell r="E100">
-            <v>387.59689922480618</v>
+            <v>568.47545219638243</v>
           </cell>
           <cell r="G100">
             <v>0</v>
@@ -1680,31 +1680,31 @@
         </row>
         <row r="101">
           <cell r="E101">
-            <v>1435.7539921396453</v>
+            <v>2083.7021562865134</v>
           </cell>
           <cell r="G101">
-            <v>1.3563501849568433E-2</v>
+            <v>1.5293118096856415E-2</v>
           </cell>
         </row>
         <row r="102">
           <cell r="E102">
-            <v>1465.480447774534</v>
+            <v>1901.5655237309054</v>
           </cell>
           <cell r="G102">
-            <v>1.7652540979112986E-2</v>
+            <v>2.0628247919219231E-2</v>
           </cell>
         </row>
         <row r="103">
           <cell r="E103">
-            <v>908.46484094538948</v>
+            <v>1113.6020630943485</v>
           </cell>
           <cell r="G103">
-            <v>3.5483870967741936E-2</v>
+            <v>3.4210526315789476E-2</v>
           </cell>
         </row>
         <row r="104">
           <cell r="E104">
-            <v>1351.5740893357508</v>
+            <v>1598.8132520191198</v>
           </cell>
           <cell r="G104">
             <v>0</v>
@@ -1712,7 +1712,7 @@
         </row>
         <row r="105">
           <cell r="E105">
-            <v>564.78941423269316</v>
+            <v>822.97886073906727</v>
           </cell>
           <cell r="G105">
             <v>0</v>
@@ -1720,15 +1720,15 @@
         </row>
         <row r="106">
           <cell r="E106">
-            <v>1829.3202097949729</v>
+            <v>2218.0028608405419</v>
           </cell>
           <cell r="G106">
-            <v>7.4470560856411449E-3</v>
+            <v>9.0211132437619957E-3</v>
           </cell>
         </row>
         <row r="107">
           <cell r="E107">
-            <v>882.85960378983646</v>
+            <v>1012.0585701981051</v>
           </cell>
           <cell r="G107">
             <v>0</v>
@@ -1736,90 +1736,90 @@
         </row>
         <row r="108">
           <cell r="E108">
-            <v>710.77495411374866</v>
+            <v>912.79764471107057</v>
           </cell>
           <cell r="G108">
-            <v>1.5597920277296361E-2</v>
+            <v>1.7543859649122806E-2</v>
           </cell>
         </row>
         <row r="109">
           <cell r="E109">
-            <v>1953.8906620892822</v>
+            <v>2655.8941870431522</v>
           </cell>
           <cell r="G109">
-            <v>2.422674350229331E-2</v>
+            <v>3.8977331718290362E-2</v>
           </cell>
         </row>
         <row r="110">
           <cell r="E110">
-            <v>863.39808818994766</v>
+            <v>961.51150730244171</v>
           </cell>
           <cell r="G110">
-            <v>9.74025974025974E-3</v>
+            <v>2.0408163265306121E-2</v>
           </cell>
         </row>
         <row r="111">
           <cell r="E111">
-            <v>734.69719110245171</v>
+            <v>941.71131677220319</v>
           </cell>
           <cell r="G111">
-            <v>2.2099447513812154E-2</v>
+            <v>2.1551724137931036E-2</v>
           </cell>
         </row>
         <row r="112">
           <cell r="E112">
-            <v>745.18697883805396</v>
+            <v>1139.0958852718993</v>
           </cell>
           <cell r="G112">
-            <v>1.8306636155606407E-2</v>
+            <v>2.2455089820359281E-2</v>
           </cell>
         </row>
         <row r="113">
           <cell r="E113">
-            <v>456.26349892008636</v>
+            <v>612.85097192224623</v>
           </cell>
           <cell r="G113">
-            <v>5.9171597633136093E-3</v>
+            <v>1.3215859030837005E-2</v>
           </cell>
         </row>
         <row r="114">
           <cell r="E114">
-            <v>1096.3748894783378</v>
+            <v>1436.7816091954023</v>
           </cell>
           <cell r="G114">
-            <v>2.4193548387096774E-2</v>
+            <v>2.4615384615384615E-2</v>
           </cell>
         </row>
         <row r="115">
           <cell r="E115">
-            <v>380.735279852556</v>
+            <v>555.33999417984285</v>
           </cell>
           <cell r="G115">
-            <v>1.9108280254777069E-2</v>
+            <v>3.4934497816593885E-2</v>
           </cell>
         </row>
         <row r="116">
           <cell r="E116">
-            <v>647.05882352941182</v>
+            <v>1058.8235294117646</v>
           </cell>
           <cell r="G116">
-            <v>9.0909090909090912E-2</v>
+            <v>5.5555555555555552E-2</v>
           </cell>
         </row>
         <row r="117">
           <cell r="E117">
-            <v>1100.4573874365324</v>
+            <v>1374.2604171037724</v>
           </cell>
           <cell r="G117">
-            <v>1.9065776930409915E-2</v>
+            <v>1.7557251908396947E-2</v>
           </cell>
         </row>
         <row r="118">
           <cell r="E118">
-            <v>531.19612320022361</v>
+            <v>638.36727086342671</v>
           </cell>
           <cell r="G118">
-            <v>1.7543859649122806E-2</v>
+            <v>2.1897810218978103E-2</v>
           </cell>
         </row>
         <row r="119">
@@ -1832,7 +1832,7 @@
         </row>
         <row r="120">
           <cell r="E120">
-            <v>452.43750706933605</v>
+            <v>1165.0265807035403</v>
           </cell>
           <cell r="G120">
             <v>0</v>
@@ -1840,18 +1840,18 @@
         </row>
         <row r="121">
           <cell r="E121">
-            <v>2012.7052015850054</v>
+            <v>2912.1328385433044</v>
           </cell>
           <cell r="G121">
-            <v>1.2500000000000001E-2</v>
+            <v>2.8077753779697623E-2</v>
           </cell>
         </row>
         <row r="122">
           <cell r="E122">
-            <v>819.14144968332164</v>
+            <v>1061.2244897959183</v>
           </cell>
           <cell r="G122">
-            <v>1.7182130584192441E-2</v>
+            <v>4.2440318302387266E-2</v>
           </cell>
         </row>
         <row r="123">
@@ -1864,39 +1864,39 @@
         </row>
         <row r="124">
           <cell r="E124">
-            <v>2122.7162727406276</v>
+            <v>2469.4794300249732</v>
           </cell>
           <cell r="G124">
-            <v>1.2201784738663268E-2</v>
+            <v>1.5184721352536006E-2</v>
           </cell>
         </row>
         <row r="125">
           <cell r="E125">
-            <v>1043.9235769155011</v>
+            <v>1359.0703171164073</v>
           </cell>
           <cell r="G125">
-            <v>1.8867924528301886E-2</v>
+            <v>2.8985507246376812E-2</v>
           </cell>
         </row>
         <row r="126">
           <cell r="E126">
-            <v>1377.9435765912799</v>
+            <v>2096.0596875728611</v>
           </cell>
           <cell r="G126">
-            <v>1.015228426395939E-2</v>
+            <v>2.224694104560623E-2</v>
           </cell>
         </row>
         <row r="127">
           <cell r="E127">
-            <v>897.49040483165504</v>
+            <v>1366.3286760123704</v>
           </cell>
           <cell r="G127">
-            <v>1.5574302401038288E-2</v>
+            <v>1.5345268542199489E-2</v>
           </cell>
         </row>
         <row r="128">
           <cell r="E128">
-            <v>3151.760831010894</v>
+            <v>3075.7537370154546</v>
           </cell>
           <cell r="G128">
             <v>0</v>
@@ -1904,39 +1904,39 @@
         </row>
         <row r="129">
           <cell r="E129">
-            <v>1935.944910024037</v>
+            <v>4508.542844149938</v>
           </cell>
           <cell r="G129">
-            <v>1.3422818791946308E-2</v>
+            <v>1.4409221902017291E-2</v>
           </cell>
         </row>
         <row r="130">
           <cell r="E130">
-            <v>1451.2442661466907</v>
+            <v>2093.7554941103135</v>
           </cell>
           <cell r="G130">
-            <v>1.0462555066079295E-2</v>
+            <v>1.2213740458015267E-2</v>
           </cell>
         </row>
         <row r="131">
           <cell r="E131">
-            <v>313.3238255758676</v>
+            <v>395.4362764164398</v>
           </cell>
           <cell r="G131">
-            <v>1.3793103448275862E-2</v>
+            <v>2.185792349726776E-2</v>
           </cell>
         </row>
         <row r="132">
           <cell r="E132">
-            <v>1260.5042016806724</v>
+            <v>1470.5882352941176</v>
           </cell>
           <cell r="G132">
-            <v>0.16666666666666666</v>
+            <v>0.14285714285714285</v>
           </cell>
         </row>
         <row r="133">
           <cell r="E133">
-            <v>251.57232704402514</v>
+            <v>503.14465408805029</v>
           </cell>
           <cell r="G133">
             <v>0</v>
@@ -1944,18 +1944,18 @@
         </row>
         <row r="134">
           <cell r="E134">
-            <v>665.8120802801003</v>
+            <v>807.39280999483424</v>
           </cell>
           <cell r="G134">
-            <v>1.7241379310344827E-2</v>
+            <v>1.6587677725118485E-2</v>
           </cell>
         </row>
         <row r="135">
           <cell r="E135">
-            <v>299.26335174953959</v>
+            <v>368.32412523020258</v>
           </cell>
           <cell r="G135">
-            <v>0</v>
+            <v>6.25E-2</v>
           </cell>
         </row>
         <row r="136">
@@ -1968,7 +1968,7 @@
         </row>
         <row r="137">
           <cell r="E137">
-            <v>491.04563835932981</v>
+            <v>635.47082611207395</v>
           </cell>
           <cell r="G137">
             <v>0</v>
@@ -1976,95 +1976,95 @@
         </row>
         <row r="138">
           <cell r="E138">
-            <v>1116.5972827314681</v>
+            <v>1745.8934391841738</v>
           </cell>
           <cell r="G138">
-            <v>1.4450867052023121E-2</v>
+            <v>3.6968576709796676E-2</v>
           </cell>
         </row>
         <row r="139">
           <cell r="E139">
-            <v>1168.4023368046735</v>
+            <v>1574.8031496062993</v>
           </cell>
           <cell r="G139">
-            <v>0</v>
+            <v>8.0645161290322578E-2</v>
           </cell>
         </row>
         <row r="140">
           <cell r="E140">
-            <v>1239.6528971887872</v>
+            <v>1531.571160075179</v>
           </cell>
           <cell r="G140">
-            <v>1.6129032258064516E-3</v>
+            <v>2.6109660574412531E-2</v>
           </cell>
         </row>
         <row r="141">
           <cell r="E141">
-            <v>1588.9167188478395</v>
+            <v>2003.7570444583594</v>
           </cell>
           <cell r="G141">
-            <v>7.8817733990147784E-2</v>
+            <v>7.03125E-2</v>
           </cell>
         </row>
         <row r="142">
           <cell r="E142">
-            <v>399.29647763464374</v>
+            <v>651.23354090412136</v>
           </cell>
           <cell r="G142">
-            <v>8.3333333333333329E-2</v>
+            <v>3.6496350364963501E-2</v>
           </cell>
         </row>
         <row r="143">
           <cell r="E143">
-            <v>4296.5459140690818</v>
+            <v>4428.9324828499221</v>
           </cell>
           <cell r="G143">
-            <v>2.8011204481792717E-3</v>
+            <v>5.434782608695652E-3</v>
           </cell>
         </row>
         <row r="144">
           <cell r="E144">
-            <v>2859.8987219676874</v>
+            <v>3163.7328189052328</v>
           </cell>
           <cell r="G144">
-            <v>2.3608768971332208E-2</v>
+            <v>4.1158536585365856E-2</v>
           </cell>
         </row>
         <row r="145">
           <cell r="E145">
-            <v>863.88178459789708</v>
+            <v>1062.8019323671499</v>
           </cell>
           <cell r="G145">
-            <v>5.2631578947368418E-2</v>
+            <v>6.9518716577540107E-2</v>
           </cell>
         </row>
         <row r="146">
           <cell r="E146">
-            <v>779.35279832834476</v>
+            <v>909.24493138306877</v>
           </cell>
           <cell r="G146">
-            <v>7.246376811594203E-3</v>
+            <v>1.8633540372670808E-2</v>
           </cell>
         </row>
         <row r="147">
           <cell r="E147">
-            <v>987.28952675765686</v>
+            <v>1414.098775854791</v>
           </cell>
           <cell r="G147">
-            <v>2.9691211401425176E-2</v>
+            <v>3.2338308457711441E-2</v>
           </cell>
         </row>
         <row r="148">
           <cell r="E148">
-            <v>845.225959904859</v>
+            <v>1431.3625552157662</v>
           </cell>
           <cell r="G148">
-            <v>1.507537688442211E-2</v>
+            <v>1.483679525222552E-2</v>
           </cell>
         </row>
         <row r="149">
           <cell r="E149">
-            <v>410.84634346754314</v>
+            <v>602.57463708572993</v>
           </cell>
           <cell r="G149">
             <v>0</v>
@@ -2072,18 +2072,18 @@
         </row>
         <row r="150">
           <cell r="E150">
-            <v>1720.69825436409</v>
+            <v>2119.700748129676</v>
           </cell>
           <cell r="G150">
-            <v>4.830917874396135E-3</v>
+            <v>1.9607843137254902E-2</v>
           </cell>
         </row>
         <row r="151">
           <cell r="E151">
-            <v>442.11392144766603</v>
+            <v>488.38165741311951</v>
           </cell>
           <cell r="G151">
-            <v>1.1627906976744186E-2</v>
+            <v>1.0526315789473684E-2</v>
           </cell>
         </row>
         <row r="152">
@@ -2096,39 +2096,39 @@
         </row>
         <row r="153">
           <cell r="E153">
-            <v>1737.6501371331294</v>
+            <v>2114.0569338923742</v>
           </cell>
           <cell r="G153">
-            <v>1.1611030478955007E-2</v>
+            <v>1.2227855651655234E-2</v>
           </cell>
         </row>
         <row r="154">
           <cell r="E154">
-            <v>1163.2068718682892</v>
+            <v>1360.0572655690767</v>
           </cell>
           <cell r="G154">
-            <v>6.1538461538461542E-2</v>
+            <v>5.2631578947368418E-2</v>
           </cell>
         </row>
         <row r="155">
           <cell r="E155">
-            <v>473.44110854503464</v>
+            <v>819.86143187066978</v>
           </cell>
           <cell r="G155">
-            <v>2.4390243902439025E-2</v>
+            <v>1.4084507042253521E-2</v>
           </cell>
         </row>
         <row r="156">
           <cell r="E156">
-            <v>1709.4354832336228</v>
+            <v>2191.9183137995619</v>
           </cell>
           <cell r="G156">
-            <v>9.0152565880721215E-3</v>
+            <v>1.2439156300703082E-2</v>
           </cell>
         </row>
         <row r="157">
           <cell r="E157">
-            <v>1021.7113665389528</v>
+            <v>1277.139208173691</v>
           </cell>
           <cell r="G157">
             <v>0</v>
@@ -2136,31 +2136,31 @@
         </row>
         <row r="158">
           <cell r="E158">
-            <v>4440.0082604804848</v>
+            <v>4715.3576099676466</v>
           </cell>
           <cell r="G158">
-            <v>3.1007751937984496E-3</v>
+            <v>4.3795620437956208E-3</v>
           </cell>
         </row>
         <row r="159">
           <cell r="E159">
-            <v>1194.8707985234118</v>
+            <v>1321.1579560909267</v>
           </cell>
           <cell r="G159">
-            <v>5.6910569105691054E-2</v>
+            <v>7.3529411764705885E-2</v>
           </cell>
         </row>
         <row r="160">
           <cell r="E160">
-            <v>744.54003970880206</v>
+            <v>1125.0827266710787</v>
           </cell>
           <cell r="G160">
-            <v>6.6666666666666666E-2</v>
+            <v>7.3529411764705885E-2</v>
           </cell>
         </row>
         <row r="161">
           <cell r="E161">
-            <v>1025.9040779687098</v>
+            <v>1641.4465247499356</v>
           </cell>
           <cell r="G161">
             <v>0</v>
@@ -2168,31 +2168,31 @@
         </row>
         <row r="162">
           <cell r="E162">
-            <v>1815.7781135333478</v>
+            <v>2287.9343837686165</v>
           </cell>
           <cell r="G162">
-            <v>3.1203566121842496E-2</v>
+            <v>4.363207547169811E-2</v>
           </cell>
         </row>
         <row r="163">
           <cell r="E163">
-            <v>3089.8595215055557</v>
+            <v>4331.1421802529285</v>
           </cell>
           <cell r="G163">
-            <v>1.5658747300215981E-2</v>
+            <v>2.1956856702619414E-2</v>
           </cell>
         </row>
         <row r="164">
           <cell r="E164">
-            <v>1174.0522591611655</v>
+            <v>2101.0396489702334</v>
           </cell>
           <cell r="G164">
-            <v>4.0404040404040407E-2</v>
+            <v>3.1044214487300093E-2</v>
           </cell>
         </row>
         <row r="165">
           <cell r="E165">
-            <v>731.26142595978058</v>
+            <v>868.37294332723945</v>
           </cell>
           <cell r="G165">
             <v>0</v>
@@ -2200,23 +2200,23 @@
         </row>
         <row r="166">
           <cell r="E166">
-            <v>1162.9768792297345</v>
+            <v>1589.4195256292564</v>
           </cell>
           <cell r="G166">
-            <v>1.1932078935291418E-2</v>
+            <v>1.4439220953660174E-2</v>
           </cell>
         </row>
         <row r="167">
           <cell r="E167">
-            <v>1242.1351735335904</v>
+            <v>1607.4690481022935</v>
           </cell>
           <cell r="G167">
-            <v>9.8039215686274508E-3</v>
+            <v>1.0101010101010102E-2</v>
           </cell>
         </row>
         <row r="168">
           <cell r="E168">
-            <v>308.00821355236138</v>
+            <v>616.01642710472277</v>
           </cell>
           <cell r="G168">
             <v>0</v>
@@ -2224,47 +2224,47 @@
         </row>
         <row r="169">
           <cell r="E169">
-            <v>527.11606690319309</v>
+            <v>729.85301571211357</v>
           </cell>
           <cell r="G169">
-            <v>0</v>
+            <v>1.3888888888888888E-2</v>
           </cell>
         </row>
         <row r="170">
           <cell r="E170">
-            <v>296.89046304495025</v>
+            <v>500.02604302307412</v>
           </cell>
           <cell r="G170">
-            <v>1.7543859649122806E-2</v>
+            <v>2.0833333333333332E-2</v>
           </cell>
         </row>
         <row r="171">
           <cell r="E171">
-            <v>1009.2010600194478</v>
+            <v>1226.9708820410749</v>
           </cell>
           <cell r="G171">
-            <v>1.1620400258231117E-2</v>
+            <v>1.4602416036107792E-2</v>
           </cell>
         </row>
         <row r="172">
           <cell r="E172">
-            <v>4695.2491309385859</v>
+            <v>5098.4936268829661</v>
           </cell>
           <cell r="G172">
-            <v>1.1846001974333662E-2</v>
+            <v>1.3636363636363636E-2</v>
           </cell>
         </row>
         <row r="173">
           <cell r="E173">
-            <v>771.20822622107971</v>
+            <v>1100.5784061696659</v>
           </cell>
           <cell r="G173">
-            <v>1.0416666666666666E-2</v>
+            <v>2.1897810218978103E-2</v>
           </cell>
         </row>
         <row r="174">
           <cell r="E174">
-            <v>341.29692832764505</v>
+            <v>511.94539249146754</v>
           </cell>
           <cell r="G174">
             <v>0</v>
@@ -2272,191 +2272,191 @@
         </row>
         <row r="175">
           <cell r="E175">
-            <v>1595.7944654166536</v>
+            <v>1940.5359872710824</v>
           </cell>
           <cell r="G175">
-            <v>3.519061583577713E-2</v>
+            <v>3.5369774919614148E-2</v>
           </cell>
         </row>
         <row r="176">
           <cell r="E176">
-            <v>1598.4161717203294</v>
+            <v>2090.2365322496612</v>
           </cell>
           <cell r="G176">
-            <v>1.0430247718383311E-2</v>
+            <v>1.2961116650049851E-2</v>
           </cell>
         </row>
         <row r="177">
           <cell r="E177">
-            <v>626.63946371320321</v>
+            <v>1143.9813465461964</v>
           </cell>
           <cell r="G177">
-            <v>4.6511627906976744E-2</v>
+            <v>3.8216560509554139E-2</v>
           </cell>
         </row>
         <row r="178">
           <cell r="E178">
-            <v>837.48881217235635</v>
+            <v>914.20534458509144</v>
           </cell>
           <cell r="G178">
-            <v>2.2900763358778626E-2</v>
+            <v>2.7972027972027972E-2</v>
           </cell>
         </row>
         <row r="179">
           <cell r="E179">
-            <v>2568.5529477376617</v>
+            <v>3667.7977056067216</v>
           </cell>
           <cell r="G179">
-            <v>1.0349025974025974E-2</v>
+            <v>1.5915873241438113E-2</v>
           </cell>
         </row>
         <row r="180">
           <cell r="E180">
-            <v>742.77124414183402</v>
+            <v>893.09399593244314</v>
           </cell>
           <cell r="G180">
-            <v>2.3809523809523808E-2</v>
+            <v>1.9801980198019802E-2</v>
           </cell>
         </row>
         <row r="181">
           <cell r="E181">
-            <v>590.90909090909088</v>
+            <v>636.36363636363637</v>
           </cell>
           <cell r="G181">
-            <v>7.6923076923076927E-2</v>
+            <v>7.1428571428571425E-2</v>
           </cell>
         </row>
         <row r="182">
           <cell r="E182">
-            <v>1185.0734141953455</v>
+            <v>1916.3136207997213</v>
           </cell>
           <cell r="G182">
-            <v>1.5670910871694418E-2</v>
+            <v>1.877649909145972E-2</v>
           </cell>
         </row>
         <row r="183">
           <cell r="E183">
-            <v>696.3638321547794</v>
+            <v>1407.0856814673893</v>
           </cell>
           <cell r="G183">
-            <v>3.0927835051546393E-2</v>
+            <v>2.5510204081632654E-2</v>
           </cell>
         </row>
         <row r="184">
           <cell r="E184">
-            <v>1094.5638020833335</v>
+            <v>1228.8411458333335</v>
           </cell>
           <cell r="G184">
-            <v>6.3197026022304828E-2</v>
+            <v>5.9602649006622516E-2</v>
           </cell>
         </row>
         <row r="185">
           <cell r="E185">
-            <v>788.96336113138818</v>
+            <v>1128.8812204599583</v>
           </cell>
           <cell r="G185">
-            <v>1.1214953271028037E-2</v>
+            <v>1.3063357282821686E-2</v>
           </cell>
         </row>
         <row r="186">
           <cell r="E186">
-            <v>3380.4347826086955</v>
+            <v>3978.260869565217</v>
           </cell>
           <cell r="G186">
-            <v>2.2508038585209004E-2</v>
+            <v>1.912568306010929E-2</v>
           </cell>
         </row>
         <row r="187">
           <cell r="E187">
-            <v>1264.1383898868928</v>
+            <v>1621.0004233956331</v>
           </cell>
           <cell r="G187">
-            <v>4.7846889952153108E-3</v>
+            <v>7.462686567164179E-3</v>
           </cell>
         </row>
         <row r="188">
           <cell r="E188">
-            <v>1342.7057864710678</v>
+            <v>1574.9796251018745</v>
           </cell>
           <cell r="G188">
-            <v>1.3657056145675266E-2</v>
+            <v>1.9404915912031046E-2</v>
           </cell>
         </row>
         <row r="189">
           <cell r="E189">
-            <v>2856.4210389060031</v>
+            <v>3166.9193030495653</v>
           </cell>
           <cell r="G189">
-            <v>1.1126961483594865E-2</v>
+            <v>1.1322696860524962E-2</v>
           </cell>
         </row>
         <row r="190">
           <cell r="E190">
-            <v>745.00507958008802</v>
+            <v>846.59668134100912</v>
           </cell>
           <cell r="G190">
-            <v>0</v>
+            <v>0.08</v>
           </cell>
         </row>
         <row r="191">
           <cell r="E191">
-            <v>395.50008788890841</v>
+            <v>483.38899630866581</v>
           </cell>
           <cell r="G191">
-            <v>2.2222222222222223E-2</v>
+            <v>1.8181818181818181E-2</v>
           </cell>
         </row>
         <row r="192">
           <cell r="E192">
-            <v>1148.4098939929329</v>
+            <v>1442.3912413833054</v>
           </cell>
           <cell r="G192">
-            <v>1.0718789407313998E-2</v>
+            <v>1.2550200803212851E-2</v>
           </cell>
         </row>
         <row r="193">
           <cell r="E193">
-            <v>1372.4562233790818</v>
+            <v>1656.4126833885471</v>
           </cell>
           <cell r="G193">
-            <v>5.1724137931034482E-2</v>
+            <v>7.1428571428571425E-2</v>
           </cell>
         </row>
         <row r="194">
           <cell r="E194">
-            <v>2230.7014969181096</v>
+            <v>2670.9715292045789</v>
           </cell>
           <cell r="G194">
-            <v>0</v>
+            <v>5.4945054945054944E-2</v>
           </cell>
         </row>
         <row r="195">
           <cell r="E195">
-            <v>1062.6486915146709</v>
+            <v>1110.2299762093578</v>
           </cell>
           <cell r="G195">
-            <v>8.2089552238805971E-2</v>
+            <v>9.285714285714286E-2</v>
           </cell>
         </row>
         <row r="196">
           <cell r="E196">
-            <v>859.48939963073792</v>
+            <v>1005.920926975234</v>
           </cell>
           <cell r="G196">
-            <v>2.2222222222222223E-2</v>
+            <v>3.1645569620253167E-2</v>
           </cell>
         </row>
         <row r="197">
           <cell r="E197">
-            <v>2574.9372771688895</v>
+            <v>3261.5872177472602</v>
           </cell>
           <cell r="G197">
-            <v>0</v>
+            <v>3.643724696356275E-2</v>
           </cell>
         </row>
         <row r="198">
           <cell r="E198">
-            <v>712.10579857578841</v>
+            <v>610.37639877924721</v>
           </cell>
           <cell r="G198">
             <v>0</v>
@@ -2464,71 +2464,71 @@
         </row>
         <row r="199">
           <cell r="E199">
-            <v>1267.1719564187588</v>
+            <v>1427.0487920416865</v>
           </cell>
           <cell r="G199">
-            <v>4.6728971962616819E-3</v>
+            <v>1.2448132780082987E-2</v>
           </cell>
         </row>
         <row r="200">
           <cell r="E200">
-            <v>704.20468882955311</v>
+            <v>1218.6653365022544</v>
           </cell>
           <cell r="G200">
-            <v>1.5277777777777777E-2</v>
+            <v>1.4446227929373997E-2</v>
           </cell>
         </row>
         <row r="201">
           <cell r="E201">
-            <v>971.93205559088017</v>
+            <v>1544.1911163593425</v>
           </cell>
           <cell r="G201">
-            <v>9.3457943925233638E-3</v>
+            <v>1.7647058823529412E-2</v>
           </cell>
         </row>
         <row r="202">
           <cell r="E202">
-            <v>629.181116985995</v>
+            <v>820.58862546667433</v>
           </cell>
           <cell r="G202">
-            <v>6.024096385542169E-3</v>
+            <v>6.9284064665127024E-3</v>
           </cell>
         </row>
         <row r="203">
           <cell r="E203">
-            <v>442.83413848631238</v>
+            <v>694.44444444444446</v>
           </cell>
           <cell r="G203">
-            <v>0.13636363636363635</v>
+            <v>8.6956521739130432E-2</v>
           </cell>
         </row>
         <row r="204">
           <cell r="E204">
-            <v>1844.1403926234384</v>
+            <v>2201.0707911957165</v>
           </cell>
           <cell r="G204">
-            <v>7.0967741935483872E-2</v>
+            <v>6.4864864864864868E-2</v>
           </cell>
         </row>
         <row r="205">
           <cell r="E205">
-            <v>502.70420191374291</v>
+            <v>662.18277631396484</v>
           </cell>
           <cell r="G205">
-            <v>5.5172413793103448E-2</v>
+            <v>4.1884816753926704E-2</v>
           </cell>
         </row>
         <row r="206">
           <cell r="E206">
-            <v>1117.4202593760954</v>
+            <v>1637.5744830003505</v>
           </cell>
           <cell r="G206">
-            <v>2.0075282308657464E-2</v>
+            <v>4.1095890410958902E-2</v>
           </cell>
         </row>
         <row r="207">
           <cell r="E207">
-            <v>374.59560701515409</v>
+            <v>527.83926443044436</v>
           </cell>
           <cell r="G207">
             <v>0</v>
@@ -2536,23 +2536,23 @@
         </row>
         <row r="208">
           <cell r="E208">
-            <v>1056.7632850241546</v>
+            <v>1086.9565217391305</v>
           </cell>
           <cell r="G208">
-            <v>2.8571428571428571E-2</v>
+            <v>2.7777777777777776E-2</v>
           </cell>
         </row>
         <row r="209">
           <cell r="E209">
-            <v>2357.3606271777003</v>
+            <v>2760.2351916376306</v>
           </cell>
           <cell r="G209">
-            <v>2.3094688221709007E-3</v>
+            <v>3.9447731755424065E-3</v>
           </cell>
         </row>
         <row r="210">
           <cell r="E210">
-            <v>499.26578560939799</v>
+            <v>587.37151248164457</v>
           </cell>
           <cell r="G210">
             <v>0</v>
@@ -2560,15 +2560,15 @@
         </row>
         <row r="211">
           <cell r="E211">
-            <v>1483.6562928165981</v>
+            <v>1640.2427089449989</v>
           </cell>
           <cell r="G211">
-            <v>4.221635883905013E-2</v>
+            <v>4.2959427207637228E-2</v>
           </cell>
         </row>
         <row r="212">
           <cell r="E212">
-            <v>1129.4261294261294</v>
+            <v>1434.6764346764346</v>
           </cell>
           <cell r="G212">
             <v>0</v>
@@ -2576,15 +2576,15 @@
         </row>
         <row r="213">
           <cell r="E213">
-            <v>981.95566102329212</v>
+            <v>1245.1997295262884</v>
           </cell>
           <cell r="G213">
-            <v>7.3624945864010395E-3</v>
+            <v>1.4002732240437158E-2</v>
           </cell>
         </row>
         <row r="214">
           <cell r="E214">
-            <v>624.05853238648592</v>
+            <v>1140.5207660856468</v>
           </cell>
           <cell r="G214">
             <v>0</v>
@@ -2592,23 +2592,23 @@
         </row>
         <row r="215">
           <cell r="E215">
-            <v>2790.0078787597904</v>
+            <v>3868.3165716580925</v>
           </cell>
           <cell r="G215">
-            <v>2.768549280177187E-2</v>
+            <v>3.9536741214057508E-2</v>
           </cell>
         </row>
         <row r="216">
           <cell r="E216">
-            <v>303.030303030303</v>
+            <v>1253.9184952978055</v>
           </cell>
           <cell r="G216">
-            <v>6.8965517241379309E-2</v>
+            <v>2.5000000000000001E-2</v>
           </cell>
         </row>
         <row r="217">
           <cell r="E217">
-            <v>0</v>
+            <v>79.87220447284345</v>
           </cell>
           <cell r="G217">
             <v>0</v>
@@ -2616,7 +2616,7 @@
         </row>
         <row r="218">
           <cell r="E218">
-            <v>262.63952724885092</v>
+            <v>459.61917268548916</v>
           </cell>
           <cell r="G218">
             <v>0</v>
@@ -2624,39 +2624,39 @@
         </row>
         <row r="219">
           <cell r="E219">
-            <v>1323.898653275508</v>
+            <v>1643.4603971695958</v>
           </cell>
           <cell r="G219">
-            <v>1.7241379310344827E-2</v>
+            <v>2.7777777777777776E-2</v>
           </cell>
         </row>
         <row r="220">
           <cell r="E220">
-            <v>1011.5996762881036</v>
+            <v>1173.4556244942</v>
           </cell>
           <cell r="G220">
-            <v>2.6666666666666668E-2</v>
+            <v>3.4482758620689655E-2</v>
           </cell>
         </row>
         <row r="221">
           <cell r="E221">
-            <v>1325.2447224612888</v>
+            <v>1726.8764387721544</v>
           </cell>
           <cell r="G221">
-            <v>1.3305174234424498E-2</v>
+            <v>1.4505672609400324E-2</v>
           </cell>
         </row>
         <row r="222">
           <cell r="E222">
-            <v>772.28106154585294</v>
+            <v>859.76322450647865</v>
           </cell>
           <cell r="G222">
-            <v>1.7641597028783658E-2</v>
+            <v>2.585487906588824E-2</v>
           </cell>
         </row>
         <row r="223">
           <cell r="E223">
-            <v>189.75332068311195</v>
+            <v>284.62998102466793</v>
           </cell>
           <cell r="G223">
             <v>0</v>
@@ -2664,10 +2664,10 @@
         </row>
         <row r="224">
           <cell r="E224">
-            <v>889.57055214723937</v>
+            <v>1441.717791411043</v>
           </cell>
           <cell r="G224">
-            <v>8.6206896551724137E-3</v>
+            <v>1.0638297872340425E-2</v>
           </cell>
         </row>
         <row r="225">
@@ -2675,148 +2675,148 @@
             <v>263.33113890717578</v>
           </cell>
           <cell r="G225">
-            <v>0</v>
+            <v>0.5</v>
           </cell>
         </row>
         <row r="226">
           <cell r="E226">
-            <v>3541.4074591084268</v>
+            <v>3899.4932176129641</v>
           </cell>
           <cell r="G226">
-            <v>1.1996572407883462E-2</v>
+            <v>1.4007782101167316E-2</v>
           </cell>
         </row>
         <row r="227">
           <cell r="E227">
-            <v>1277.6209481164217</v>
+            <v>1541.2570167753659</v>
           </cell>
           <cell r="G227">
-            <v>1.2698412698412698E-2</v>
+            <v>2.1578947368421052E-2</v>
           </cell>
         </row>
         <row r="228">
           <cell r="E228">
-            <v>1606.2692895558814</v>
+            <v>1940.5312574041698</v>
           </cell>
           <cell r="G228">
-            <v>1.1279826464208243E-2</v>
+            <v>1.2927938711994253E-2</v>
           </cell>
         </row>
         <row r="229">
           <cell r="E229">
-            <v>948.49996487037163</v>
+            <v>1180.3555118386848</v>
           </cell>
           <cell r="G229">
-            <v>1.4814814814814815E-2</v>
+            <v>2.3809523809523808E-2</v>
           </cell>
         </row>
         <row r="230">
           <cell r="E230">
-            <v>538.81834793609141</v>
+            <v>777.77257180340155</v>
           </cell>
           <cell r="G230">
-            <v>8.6956521739130436E-3</v>
+            <v>1.8072289156626505E-2</v>
           </cell>
         </row>
         <row r="231">
           <cell r="E231">
-            <v>458.52838794862561</v>
+            <v>696.1949345816829</v>
           </cell>
           <cell r="G231">
-            <v>1.0471204188481676E-2</v>
+            <v>1.0344827586206896E-2</v>
           </cell>
         </row>
         <row r="232">
           <cell r="E232">
-            <v>401.70725583730854</v>
+            <v>426.81395932714031</v>
           </cell>
           <cell r="G232">
-            <v>6.25E-2</v>
+            <v>5.8823529411764705E-2</v>
           </cell>
         </row>
         <row r="233">
           <cell r="E233">
-            <v>1725.3105200987936</v>
+            <v>2237.1765042774814</v>
           </cell>
           <cell r="G233">
-            <v>1.4522821576763486E-2</v>
+            <v>2.4E-2</v>
           </cell>
         </row>
         <row r="234">
           <cell r="E234">
-            <v>2760.4501274532154</v>
+            <v>3678.5277599320252</v>
           </cell>
           <cell r="G234">
-            <v>1.3513513513513514E-2</v>
+            <v>3.2112676056338031E-2</v>
           </cell>
         </row>
         <row r="235">
           <cell r="E235">
-            <v>598.53251365627648</v>
+            <v>858.13697741080603</v>
           </cell>
           <cell r="G235">
-            <v>9.0361445783132526E-3</v>
+            <v>1.8907563025210083E-2</v>
           </cell>
         </row>
         <row r="236">
           <cell r="E236">
-            <v>3276.9274840399412</v>
+            <v>3742.4292028155178</v>
           </cell>
           <cell r="G236">
-            <v>8.7418045582266617E-3</v>
+            <v>1.7769272826681247E-2</v>
           </cell>
         </row>
         <row r="237">
           <cell r="E237">
-            <v>3802.8568725759151</v>
+            <v>4355.5819830533674</v>
           </cell>
           <cell r="G237">
-            <v>1.3503909026297086E-2</v>
+            <v>1.3651877133105802E-2</v>
           </cell>
         </row>
         <row r="238">
           <cell r="E238">
-            <v>786.50135025921043</v>
+            <v>1135.4004454869805</v>
           </cell>
           <cell r="G238">
-            <v>7.5187969924812026E-3</v>
+            <v>8.6805555555555559E-3</v>
           </cell>
         </row>
         <row r="239">
           <cell r="E239">
-            <v>610.65332548557978</v>
+            <v>735.72689817539731</v>
           </cell>
           <cell r="G239">
-            <v>1.2048192771084338E-2</v>
+            <v>0.01</v>
           </cell>
         </row>
         <row r="240">
           <cell r="E240">
-            <v>1356.848243493102</v>
+            <v>1561.6555255297965</v>
           </cell>
           <cell r="G240">
-            <v>7.9664570230607967E-2</v>
+            <v>7.650273224043716E-2</v>
           </cell>
         </row>
         <row r="241">
           <cell r="E241">
-            <v>2219.9049181158866</v>
+            <v>3605.2182791844534</v>
           </cell>
           <cell r="G241">
-            <v>1.2559125754363073E-2</v>
+            <v>1.4160891834890027E-2</v>
           </cell>
         </row>
         <row r="242">
           <cell r="E242">
-            <v>1487.8042965117666</v>
+            <v>2522.5912591497581</v>
           </cell>
           <cell r="G242">
-            <v>3.3653846153846152E-2</v>
+            <v>3.2136105860113423E-2</v>
           </cell>
         </row>
         <row r="243">
           <cell r="E243">
-            <v>536.05395123638255</v>
+            <v>691.68251772436452</v>
           </cell>
           <cell r="G243">
             <v>0</v>
@@ -2824,98 +2824,98 @@
         </row>
         <row r="244">
           <cell r="E244">
-            <v>677.49252655139787</v>
+            <v>890.05392900599384</v>
           </cell>
           <cell r="G244">
-            <v>9.9778270509977823E-3</v>
+            <v>1.0970464135021098E-2</v>
           </cell>
         </row>
         <row r="245">
           <cell r="E245">
-            <v>383.49440098174568</v>
+            <v>682.62003374750736</v>
           </cell>
           <cell r="G245">
-            <v>0.02</v>
+            <v>2.247191011235955E-2</v>
           </cell>
         </row>
         <row r="246">
           <cell r="E246">
-            <v>2647.5106171500856</v>
+            <v>3609.8310291858679</v>
           </cell>
           <cell r="G246">
-            <v>3.0716723549488054E-2</v>
+            <v>4.3804755944931162E-2</v>
           </cell>
         </row>
         <row r="247">
           <cell r="E247">
-            <v>968.78528056631978</v>
+            <v>1292.3917723600389</v>
           </cell>
           <cell r="G247">
-            <v>1.3648293963254593E-2</v>
+            <v>1.4690451206715634E-2</v>
           </cell>
         </row>
         <row r="248">
           <cell r="E248">
-            <v>799.1969422030038</v>
+            <v>992.23968186556499</v>
           </cell>
           <cell r="G248">
-            <v>3.864734299516908E-2</v>
+            <v>4.2801556420233464E-2</v>
           </cell>
         </row>
         <row r="249">
           <cell r="E249">
-            <v>731.57611619150077</v>
+            <v>946.74556213017752</v>
           </cell>
           <cell r="G249">
-            <v>1.4705882352941176E-2</v>
+            <v>1.1363636363636364E-2</v>
           </cell>
         </row>
         <row r="250">
           <cell r="E250">
-            <v>472.59410093151183</v>
+            <v>890.48277538863658</v>
           </cell>
           <cell r="G250">
-            <v>1.607717041800643E-2</v>
+            <v>1.877133105802048E-2</v>
           </cell>
         </row>
         <row r="251">
           <cell r="E251">
-            <v>642.49757131502247</v>
+            <v>825.75289234301863</v>
           </cell>
           <cell r="G251">
-            <v>1.7182130584192441E-2</v>
+            <v>3.2085561497326207E-2</v>
           </cell>
         </row>
         <row r="252">
           <cell r="E252">
-            <v>921.40921409214104</v>
+            <v>1430.8943089430895</v>
           </cell>
           <cell r="G252">
-            <v>1.1764705882352941E-2</v>
+            <v>2.2727272727272728E-2</v>
           </cell>
         </row>
         <row r="253">
           <cell r="E253">
-            <v>742.83882000855067</v>
+            <v>1100.8978195810175</v>
           </cell>
           <cell r="G253">
-            <v>2.8776978417266189E-2</v>
+            <v>2.9126213592233011E-2</v>
           </cell>
         </row>
         <row r="254">
           <cell r="E254">
-            <v>1082.6566729127628</v>
+            <v>1617.0449024914983</v>
           </cell>
           <cell r="G254">
-            <v>1.282051282051282E-2</v>
+            <v>1.2875536480686695E-2</v>
           </cell>
         </row>
         <row r="255">
           <cell r="E255">
-            <v>1379.9085317773222</v>
+            <v>1963.4127109288756</v>
           </cell>
           <cell r="G255">
-            <v>2.8571428571428571E-2</v>
+            <v>3.2128514056224897E-2</v>
           </cell>
         </row>
       </sheetData>
@@ -3224,7 +3224,7 @@
   <dimension ref="A1:B255"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3243,7 +3243,7 @@
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2">
         <f>'[1]Info and Calculations'!E2</f>
-        <v>3795.5978625062289</v>
+        <v>4151.2740768741733</v>
       </c>
       <c r="B2">
         <v>48001</v>
@@ -3252,7 +3252,7 @@
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3">
         <f>'[1]Info and Calculations'!E3</f>
-        <v>1145.0895864205847</v>
+        <v>1571.6915892047239</v>
       </c>
       <c r="B3">
         <v>48003</v>
@@ -3261,7 +3261,7 @@
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4">
         <f>'[1]Info and Calculations'!E4</f>
-        <v>1821.1572697015604</v>
+        <v>2159.5143580614131</v>
       </c>
       <c r="B4">
         <v>48005</v>
@@ -3270,7 +3270,7 @@
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5">
         <f>'[1]Info and Calculations'!E5</f>
-        <v>552.36651142640528</v>
+        <v>685.94534098703923</v>
       </c>
       <c r="B5">
         <v>48007</v>
@@ -3279,7 +3279,7 @@
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6">
         <f>'[1]Info and Calculations'!E6</f>
-        <v>239.69319271332697</v>
+        <v>395.49376797698943</v>
       </c>
       <c r="B6">
         <v>48009</v>
@@ -3288,7 +3288,7 @@
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7">
         <f>'[1]Info and Calculations'!E7</f>
-        <v>410.6776180698152</v>
+        <v>462.0123203285421</v>
       </c>
       <c r="B7">
         <v>48011</v>
@@ -3297,7 +3297,7 @@
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8">
         <f>'[1]Info and Calculations'!E8</f>
-        <v>781.38565723215834</v>
+        <v>1001.3312496382473</v>
       </c>
       <c r="B8">
         <v>48013</v>
@@ -3306,7 +3306,7 @@
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9">
         <f>'[1]Info and Calculations'!E9</f>
-        <v>700.61180185514104</v>
+        <v>1157.8185645681206</v>
       </c>
       <c r="B9">
         <v>48015</v>
@@ -3315,7 +3315,7 @@
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10">
         <f>'[1]Info and Calculations'!E10</f>
-        <v>2054.0821632865313</v>
+        <v>2548.1019240769629</v>
       </c>
       <c r="B10">
         <v>48017</v>
@@ -3324,7 +3324,7 @@
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11">
         <f>'[1]Info and Calculations'!E11</f>
-        <v>390.6617716276005</v>
+        <v>484.79713828485365</v>
       </c>
       <c r="B11">
         <v>48019</v>
@@ -3333,7 +3333,7 @@
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12">
         <f>'[1]Info and Calculations'!E12</f>
-        <v>1505.139074385924</v>
+        <v>1743.2204866151792</v>
       </c>
       <c r="B12">
         <v>48021</v>
@@ -3342,7 +3342,7 @@
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13">
         <f>'[1]Info and Calculations'!E13</f>
-        <v>193.15673289183223</v>
+        <v>358.71964679911702</v>
       </c>
       <c r="B13">
         <v>48023</v>
@@ -3351,7 +3351,7 @@
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14">
         <f>'[1]Info and Calculations'!E14</f>
-        <v>1483.5244592829147</v>
+        <v>4174.7713746552481</v>
       </c>
       <c r="B14">
         <v>48025</v>
@@ -3360,7 +3360,7 @@
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15">
         <f>'[1]Info and Calculations'!E15</f>
-        <v>988.60670363573126</v>
+        <v>1258.9465230509943</v>
       </c>
       <c r="B15">
         <v>48027</v>
@@ -3369,7 +3369,7 @@
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16">
         <f>'[1]Info and Calculations'!E16</f>
-        <v>1620.9681194477005</v>
+        <v>1729.9720754983753</v>
       </c>
       <c r="B16">
         <v>48029</v>
@@ -3378,7 +3378,7 @@
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17">
         <f>'[1]Info and Calculations'!E17</f>
-        <v>851.87760778859536</v>
+        <v>1112.6564673157163</v>
       </c>
       <c r="B17">
         <v>48031</v>
@@ -3396,7 +3396,7 @@
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19">
         <f>'[1]Info and Calculations'!E19</f>
-        <v>703.6307345904869</v>
+        <v>1086.4058542077119</v>
       </c>
       <c r="B19">
         <v>48035</v>
@@ -3405,7 +3405,7 @@
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20">
         <f>'[1]Info and Calculations'!E20</f>
-        <v>764.82661769471747</v>
+        <v>877.17403046343304</v>
       </c>
       <c r="B20">
         <v>48037</v>
@@ -3414,7 +3414,7 @@
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21">
         <f>'[1]Info and Calculations'!E21</f>
-        <v>1738.3716135142829</v>
+        <v>2244.9310797112826</v>
       </c>
       <c r="B21">
         <v>48039</v>
@@ -3423,7 +3423,7 @@
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22">
         <f>'[1]Info and Calculations'!E22</f>
-        <v>1689.9873588771195</v>
+        <v>1841.6808334423085</v>
       </c>
       <c r="B22">
         <v>48041</v>
@@ -3432,7 +3432,7 @@
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23">
         <f>'[1]Info and Calculations'!E23</f>
-        <v>1981.8241541662105</v>
+        <v>2047.5199824811125</v>
       </c>
       <c r="B23">
         <v>48043</v>
@@ -3441,7 +3441,7 @@
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24">
         <f>'[1]Info and Calculations'!E24</f>
-        <v>701.53061224489795</v>
+        <v>765.30612244897952</v>
       </c>
       <c r="B24">
         <v>48045</v>
@@ -3450,7 +3450,7 @@
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25">
         <f>'[1]Info and Calculations'!E25</f>
-        <v>1184.6689895470383</v>
+        <v>2327.5261324041812</v>
       </c>
       <c r="B25">
         <v>48047</v>
@@ -3459,7 +3459,7 @@
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26">
         <f>'[1]Info and Calculations'!E26</f>
-        <v>901.7804383012616</v>
+        <v>1097.0377411813067</v>
       </c>
       <c r="B26">
         <v>48049</v>
@@ -3468,7 +3468,7 @@
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27">
         <f>'[1]Info and Calculations'!E27</f>
-        <v>1303.758889265154</v>
+        <v>1501.2981149113896</v>
       </c>
       <c r="B27">
         <v>48051</v>
@@ -3477,7 +3477,7 @@
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28">
         <f>'[1]Info and Calculations'!E28</f>
-        <v>1124.5746534982156</v>
+        <v>1234.5422856668602</v>
       </c>
       <c r="B28">
         <v>48053</v>
@@ -3486,7 +3486,7 @@
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29">
         <f>'[1]Info and Calculations'!E29</f>
-        <v>2416.2225634540691</v>
+        <v>2698.4915545117874</v>
       </c>
       <c r="B29">
         <v>48055</v>
@@ -3495,7 +3495,7 @@
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30">
         <f>'[1]Info and Calculations'!E30</f>
-        <v>1983.3625218914185</v>
+        <v>2473.7302977232926</v>
       </c>
       <c r="B30">
         <v>48057</v>
@@ -3504,7 +3504,7 @@
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31">
         <f>'[1]Info and Calculations'!E31</f>
-        <v>304.69678953626635</v>
+        <v>416.17122473246138</v>
       </c>
       <c r="B31">
         <v>48059</v>
@@ -3513,7 +3513,7 @@
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32">
         <f>'[1]Info and Calculations'!E32</f>
-        <v>2564.0306533825992</v>
+        <v>4337.4209184329284</v>
       </c>
       <c r="B32">
         <v>48061</v>
@@ -3522,7 +3522,7 @@
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33">
         <f>'[1]Info and Calculations'!E33</f>
-        <v>1606.3654105990092</v>
+        <v>2026.7227143071611</v>
       </c>
       <c r="B33">
         <v>48063</v>
@@ -3531,7 +3531,7 @@
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34">
         <f>'[1]Info and Calculations'!E34</f>
-        <v>224.17658216933953</v>
+        <v>293.15399206759787</v>
       </c>
       <c r="B34">
         <v>48065</v>
@@ -3540,7 +3540,7 @@
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35">
         <f>'[1]Info and Calculations'!E35</f>
-        <v>504.50093975665243</v>
+        <v>718.83140435915186</v>
       </c>
       <c r="B35">
         <v>48067</v>
@@ -3549,7 +3549,7 @@
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36">
         <f>'[1]Info and Calculations'!E36</f>
-        <v>2393.3549204561455</v>
+        <v>2942.4186963254965</v>
       </c>
       <c r="B36">
         <v>48069</v>
@@ -3558,7 +3558,7 @@
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37">
         <f>'[1]Info and Calculations'!E37</f>
-        <v>2095.93572778828</v>
+        <v>2551.9848771266543</v>
       </c>
       <c r="B37">
         <v>48071</v>
@@ -3567,7 +3567,7 @@
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38">
         <f>'[1]Info and Calculations'!E38</f>
-        <v>1500.6324504580475</v>
+        <v>2504.887117175821</v>
       </c>
       <c r="B38">
         <v>48073</v>
@@ -3576,7 +3576,7 @@
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39">
         <f>'[1]Info and Calculations'!E39</f>
-        <v>481.45001416029459</v>
+        <v>750.49561030869449</v>
       </c>
       <c r="B39">
         <v>48075</v>
@@ -3585,7 +3585,7 @@
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40">
         <f>'[1]Info and Calculations'!E40</f>
-        <v>347.39961172984567</v>
+        <v>521.09941759476851</v>
       </c>
       <c r="B40">
         <v>48077</v>
@@ -3594,7 +3594,7 @@
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41">
         <f>'[1]Info and Calculations'!E41</f>
-        <v>627.2401433691756</v>
+        <v>1045.4002389486259</v>
       </c>
       <c r="B41">
         <v>48079</v>
@@ -3603,7 +3603,7 @@
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42">
         <f>'[1]Info and Calculations'!E42</f>
-        <v>1213.0637636080871</v>
+        <v>1368.5847589424573</v>
       </c>
       <c r="B42">
         <v>48081</v>
@@ -3612,7 +3612,7 @@
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43">
         <f>'[1]Info and Calculations'!E43</f>
-        <v>129.74758197688135</v>
+        <v>436.4236848313281</v>
       </c>
       <c r="B43">
         <v>48083</v>
@@ -3621,7 +3621,7 @@
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44">
         <f>'[1]Info and Calculations'!E44</f>
-        <v>611.2362404497344</v>
+        <v>1001.7616457677688</v>
       </c>
       <c r="B44">
         <v>48085</v>
@@ -3630,7 +3630,7 @@
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45">
         <f>'[1]Info and Calculations'!E45</f>
-        <v>218.06853582554518</v>
+        <v>498.44236760124613</v>
       </c>
       <c r="B45">
         <v>48087</v>
@@ -3639,7 +3639,7 @@
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46">
         <f>'[1]Info and Calculations'!E46</f>
-        <v>1137.5922530907724</v>
+        <v>1776.9002961500494</v>
       </c>
       <c r="B46">
         <v>48089</v>
@@ -3648,7 +3648,7 @@
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47">
         <f>'[1]Info and Calculations'!E47</f>
-        <v>1132.8310595262337</v>
+        <v>1531.2563632661372</v>
       </c>
       <c r="B47">
         <v>48091</v>
@@ -3657,7 +3657,7 @@
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48">
         <f>'[1]Info and Calculations'!E48</f>
-        <v>818.3556405353728</v>
+        <v>1399.6175908221799</v>
       </c>
       <c r="B48">
         <v>48093</v>
@@ -3666,7 +3666,7 @@
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49">
         <f>'[1]Info and Calculations'!E49</f>
-        <v>626.95924764890276</v>
+        <v>868.09741982155765</v>
       </c>
       <c r="B49">
         <v>48095</v>
@@ -3675,7 +3675,7 @@
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50">
         <f>'[1]Info and Calculations'!E50</f>
-        <v>503.4359503612153</v>
+        <v>712.36186976111958</v>
       </c>
       <c r="B50">
         <v>48097</v>
@@ -3684,7 +3684,7 @@
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51">
         <f>'[1]Info and Calculations'!E51</f>
-        <v>781.43953420074831</v>
+        <v>974.24569378295905</v>
       </c>
       <c r="B51">
         <v>48099</v>
@@ -3693,7 +3693,7 @@
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52">
         <f>'[1]Info and Calculations'!E52</f>
-        <v>927.15231788079484</v>
+        <v>1192.0529801324503</v>
       </c>
       <c r="B52">
         <v>48101</v>
@@ -3702,7 +3702,7 @@
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53">
         <f>'[1]Info and Calculations'!E53</f>
-        <v>1207.9239813174424</v>
+        <v>1143.5013689805121</v>
       </c>
       <c r="B53">
         <v>48103</v>
@@ -3711,7 +3711,7 @@
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54">
         <f>'[1]Info and Calculations'!E54</f>
-        <v>3787.128712871287</v>
+        <v>3886.1386138613861</v>
       </c>
       <c r="B54">
         <v>48105</v>
@@ -3720,7 +3720,7 @@
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55">
         <f>'[1]Info and Calculations'!E55</f>
-        <v>804.45544554455444</v>
+        <v>1113.8613861386139</v>
       </c>
       <c r="B55">
         <v>48107</v>
@@ -3729,7 +3729,7 @@
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56">
         <f>'[1]Info and Calculations'!E56</f>
-        <v>668.15144766147</v>
+        <v>979.95545657015589</v>
       </c>
       <c r="B56">
         <v>48109</v>
@@ -3738,7 +3738,7 @@
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57">
         <f>'[1]Info and Calculations'!E57</f>
-        <v>2473.400580350974</v>
+        <v>2749.7581870940999</v>
       </c>
       <c r="B57">
         <v>48111</v>
@@ -3747,7 +3747,7 @@
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58">
         <f>'[1]Info and Calculations'!E58</f>
-        <v>1827.870192541561</v>
+        <v>2430.9181302441634</v>
       </c>
       <c r="B58">
         <v>48113</v>
@@ -3756,7 +3756,7 @@
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59">
         <f>'[1]Info and Calculations'!E59</f>
-        <v>1007.9458505002943</v>
+        <v>1331.6656856974691</v>
       </c>
       <c r="B59">
         <v>48115</v>
@@ -3765,7 +3765,7 @@
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60">
         <f>'[1]Info and Calculations'!E60</f>
-        <v>3290.5252714545559</v>
+        <v>4194.4551617703792</v>
       </c>
       <c r="B60">
         <v>48117</v>
@@ -3774,7 +3774,7 @@
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61">
         <f>'[1]Info and Calculations'!E61</f>
-        <v>260.85336314514626</v>
+        <v>335.38289547233092</v>
       </c>
       <c r="B61">
         <v>48119</v>
@@ -3783,7 +3783,7 @@
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62">
         <f>'[1]Info and Calculations'!E62</f>
-        <v>757.61203537378901</v>
+        <v>967.75666432430194</v>
       </c>
       <c r="B62">
         <v>48121</v>
@@ -3792,7 +3792,7 @@
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63">
         <f>'[1]Info and Calculations'!E63</f>
-        <v>2442.8393982610296</v>
+        <v>3574.5503059299813</v>
       </c>
       <c r="B63">
         <v>48123</v>
@@ -3801,7 +3801,7 @@
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64">
         <f>'[1]Info and Calculations'!E64</f>
-        <v>183.99264029438822</v>
+        <v>229.99080036798526</v>
       </c>
       <c r="B64">
         <v>48125</v>
@@ -3810,7 +3810,7 @@
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65">
         <f>'[1]Info and Calculations'!E65</f>
-        <v>1055.9482244741548</v>
+        <v>1439.1552414204207</v>
       </c>
       <c r="B65">
         <v>48127</v>
@@ -3819,7 +3819,7 @@
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66">
         <f>'[1]Info and Calculations'!E66</f>
-        <v>1260.9970674486804</v>
+        <v>1466.2756598240469</v>
       </c>
       <c r="B66">
         <v>48129</v>
@@ -3828,7 +3828,7 @@
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67">
         <f>'[1]Info and Calculations'!E67</f>
-        <v>1271.617497456765</v>
+        <v>1797.2193964055612</v>
       </c>
       <c r="B67">
         <v>48131</v>
@@ -3837,7 +3837,7 @@
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68">
         <f>'[1]Info and Calculations'!E68</f>
-        <v>280.14281790716836</v>
+        <v>549.29964295523212</v>
       </c>
       <c r="B68">
         <v>48133</v>
@@ -3846,7 +3846,7 @@
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69">
         <f>'[1]Info and Calculations'!E69</f>
-        <v>1231.3285472378964</v>
+        <v>1429.877570452443</v>
       </c>
       <c r="B69">
         <v>48135</v>
@@ -3855,7 +3855,7 @@
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70">
         <f>'[1]Info and Calculations'!E70</f>
-        <v>1205.4244098442994</v>
+        <v>1506.7805123053743</v>
       </c>
       <c r="B70">
         <v>48137</v>
@@ -3864,7 +3864,7 @@
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71">
         <f>'[1]Info and Calculations'!E71</f>
-        <v>1390.9442328143552</v>
+        <v>1938.4315865879666</v>
       </c>
       <c r="B71">
         <v>48139</v>
@@ -3873,7 +3873,7 @@
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72">
         <f>'[1]Info and Calculations'!E72</f>
-        <v>1644.751860475734</v>
+        <v>2175.1586540656531</v>
       </c>
       <c r="B72">
         <v>48141</v>
@@ -3882,7 +3882,7 @@
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73">
         <f>'[1]Info and Calculations'!E73</f>
-        <v>1112.5559890189279</v>
+        <v>1449.6941675095122</v>
       </c>
       <c r="B73">
         <v>48143</v>
@@ -3891,7 +3891,7 @@
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74">
         <f>'[1]Info and Calculations'!E74</f>
-        <v>662.53086791543694</v>
+        <v>909.47419141119076</v>
       </c>
       <c r="B74">
         <v>48145</v>
@@ -3900,7 +3900,7 @@
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75">
         <f>'[1]Info and Calculations'!E75</f>
-        <v>618.55074139376245</v>
+        <v>1072.3473133508685</v>
       </c>
       <c r="B75">
         <v>48147</v>
@@ -3909,7 +3909,7 @@
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76">
         <f>'[1]Info and Calculations'!E76</f>
-        <v>1150.0421682128344</v>
+        <v>1303.3811239745457</v>
       </c>
       <c r="B76">
         <v>48149</v>
@@ -3918,7 +3918,7 @@
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77">
         <f>'[1]Info and Calculations'!E77</f>
-        <v>602.25846925972405</v>
+        <v>1129.2346298619825</v>
       </c>
       <c r="B77">
         <v>48151</v>
@@ -3927,7 +3927,7 @@
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78">
         <f>'[1]Info and Calculations'!E78</f>
-        <v>1434.4970618734878</v>
+        <v>1676.46042170757</v>
       </c>
       <c r="B78">
         <v>48153</v>
@@ -3936,7 +3936,7 @@
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79">
         <f>'[1]Info and Calculations'!E79</f>
-        <v>161.29032258064515</v>
+        <v>241.93548387096774</v>
       </c>
       <c r="B79">
         <v>48155</v>
@@ -3945,7 +3945,7 @@
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80">
         <f>'[1]Info and Calculations'!E80</f>
-        <v>842.71100200741796</v>
+        <v>1618.904713684118</v>
       </c>
       <c r="B80">
         <v>48157</v>
@@ -3954,7 +3954,7 @@
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81">
         <f>'[1]Info and Calculations'!E81</f>
-        <v>768.94910289271331</v>
+        <v>915.4155986818015</v>
       </c>
       <c r="B81">
         <v>48159</v>
@@ -3963,7 +3963,7 @@
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82">
         <f>'[1]Info and Calculations'!E82</f>
-        <v>694.86404833836866</v>
+        <v>1002.0140986908359</v>
       </c>
       <c r="B82">
         <v>48161</v>
@@ -3972,7 +3972,7 @@
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83">
         <f>'[1]Info and Calculations'!E83</f>
-        <v>2372.2718873295712</v>
+        <v>3016.5309893622334</v>
       </c>
       <c r="B83">
         <v>48163</v>
@@ -3981,7 +3981,7 @@
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84">
         <f>'[1]Info and Calculations'!E84</f>
-        <v>596.71805072103427</v>
+        <v>976.44771936169252</v>
       </c>
       <c r="B84">
         <v>48165</v>
@@ -3990,7 +3990,7 @@
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85">
         <f>'[1]Info and Calculations'!E85</f>
-        <v>2455.264135857386</v>
+        <v>2875.0323764907262</v>
       </c>
       <c r="B85">
         <v>48167</v>
@@ -3999,7 +3999,7 @@
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86">
         <f>'[1]Info and Calculations'!E86</f>
-        <v>1429.8349056603774</v>
+        <v>1488.7971698113208</v>
       </c>
       <c r="B86">
         <v>48169</v>
@@ -4008,7 +4008,7 @@
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87">
         <f>'[1]Info and Calculations'!E87</f>
-        <v>652.8960329884311</v>
+        <v>733.07624756595783</v>
       </c>
       <c r="B87">
         <v>48171</v>
@@ -4026,7 +4026,7 @@
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89">
         <f>'[1]Info and Calculations'!E89</f>
-        <v>997.79707140080347</v>
+        <v>1567.966826486977</v>
       </c>
       <c r="B89">
         <v>48175</v>
@@ -4035,7 +4035,7 @@
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90">
         <f>'[1]Info and Calculations'!E90</f>
-        <v>2890.3358785777859</v>
+        <v>3508.6897456317047</v>
       </c>
       <c r="B90">
         <v>48177</v>
@@ -4044,7 +4044,7 @@
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91">
         <f>'[1]Info and Calculations'!E91</f>
-        <v>754.57694210786735</v>
+        <v>968.99224806201551</v>
       </c>
       <c r="B91">
         <v>48179</v>
@@ -4053,7 +4053,7 @@
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92">
         <f>'[1]Info and Calculations'!E92</f>
-        <v>763.04001214790071</v>
+        <v>1020.4236580365955</v>
       </c>
       <c r="B92">
         <v>48181</v>
@@ -4062,7 +4062,7 @@
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93">
         <f>'[1]Info and Calculations'!E93</f>
-        <v>1044.3012805217529</v>
+        <v>1374.3736578382247</v>
       </c>
       <c r="B93">
         <v>48183</v>
@@ -4071,7 +4071,7 @@
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94">
         <f>'[1]Info and Calculations'!E94</f>
-        <v>2900.1036985827859</v>
+        <v>3290.7016937435187</v>
       </c>
       <c r="B94">
         <v>48185</v>
@@ -4080,7 +4080,7 @@
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95">
         <f>'[1]Info and Calculations'!E95</f>
-        <v>937.94415796459657</v>
+        <v>1080.6620229523216</v>
       </c>
       <c r="B95">
         <v>48187</v>
@@ -4089,7 +4089,7 @@
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96">
         <f>'[1]Info and Calculations'!E96</f>
-        <v>3569.0621046924884</v>
+        <v>4614.1798686826096</v>
       </c>
       <c r="B96">
         <v>48189</v>
@@ -4098,7 +4098,7 @@
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97">
         <f>'[1]Info and Calculations'!E97</f>
-        <v>242.0574886535552</v>
+        <v>453.85779122541607</v>
       </c>
       <c r="B97">
         <v>48191</v>
@@ -4107,7 +4107,7 @@
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98">
         <f>'[1]Info and Calculations'!E98</f>
-        <v>669.09975669099754</v>
+        <v>1180.0486618004866</v>
       </c>
       <c r="B98">
         <v>48193</v>
@@ -4116,7 +4116,7 @@
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99">
         <f>'[1]Info and Calculations'!E99</f>
-        <v>1013.745704467354</v>
+        <v>1701.0309278350514</v>
       </c>
       <c r="B99">
         <v>48195</v>
@@ -4125,7 +4125,7 @@
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100">
         <f>'[1]Info and Calculations'!E100</f>
-        <v>387.59689922480618</v>
+        <v>568.47545219638243</v>
       </c>
       <c r="B100">
         <v>48197</v>
@@ -4134,7 +4134,7 @@
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101">
         <f>'[1]Info and Calculations'!E101</f>
-        <v>1435.7539921396453</v>
+        <v>2083.7021562865134</v>
       </c>
       <c r="B101">
         <v>48199</v>
@@ -4143,7 +4143,7 @@
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102">
         <f>'[1]Info and Calculations'!E102</f>
-        <v>1465.480447774534</v>
+        <v>1901.5655237309054</v>
       </c>
       <c r="B102">
         <v>48201</v>
@@ -4152,7 +4152,7 @@
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103">
         <f>'[1]Info and Calculations'!E103</f>
-        <v>908.46484094538948</v>
+        <v>1113.6020630943485</v>
       </c>
       <c r="B103">
         <v>48203</v>
@@ -4161,7 +4161,7 @@
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104">
         <f>'[1]Info and Calculations'!E104</f>
-        <v>1351.5740893357508</v>
+        <v>1598.8132520191198</v>
       </c>
       <c r="B104">
         <v>48205</v>
@@ -4170,7 +4170,7 @@
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105">
         <f>'[1]Info and Calculations'!E105</f>
-        <v>564.78941423269316</v>
+        <v>822.97886073906727</v>
       </c>
       <c r="B105">
         <v>48207</v>
@@ -4179,7 +4179,7 @@
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106">
         <f>'[1]Info and Calculations'!E106</f>
-        <v>1829.3202097949729</v>
+        <v>2218.0028608405419</v>
       </c>
       <c r="B106">
         <v>48209</v>
@@ -4188,7 +4188,7 @@
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107">
         <f>'[1]Info and Calculations'!E107</f>
-        <v>882.85960378983646</v>
+        <v>1012.0585701981051</v>
       </c>
       <c r="B107">
         <v>48211</v>
@@ -4197,7 +4197,7 @@
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108">
         <f>'[1]Info and Calculations'!E108</f>
-        <v>710.77495411374866</v>
+        <v>912.79764471107057</v>
       </c>
       <c r="B108">
         <v>48213</v>
@@ -4206,7 +4206,7 @@
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109">
         <f>'[1]Info and Calculations'!E109</f>
-        <v>1953.8906620892822</v>
+        <v>2655.8941870431522</v>
       </c>
       <c r="B109">
         <v>48215</v>
@@ -4215,7 +4215,7 @@
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110">
         <f>'[1]Info and Calculations'!E110</f>
-        <v>863.39808818994766</v>
+        <v>961.51150730244171</v>
       </c>
       <c r="B110">
         <v>48217</v>
@@ -4224,7 +4224,7 @@
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111">
         <f>'[1]Info and Calculations'!E111</f>
-        <v>734.69719110245171</v>
+        <v>941.71131677220319</v>
       </c>
       <c r="B111">
         <v>48219</v>
@@ -4233,7 +4233,7 @@
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112">
         <f>'[1]Info and Calculations'!E112</f>
-        <v>745.18697883805396</v>
+        <v>1139.0958852718993</v>
       </c>
       <c r="B112">
         <v>48221</v>
@@ -4242,7 +4242,7 @@
     <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113">
         <f>'[1]Info and Calculations'!E113</f>
-        <v>456.26349892008636</v>
+        <v>612.85097192224623</v>
       </c>
       <c r="B113">
         <v>48223</v>
@@ -4251,7 +4251,7 @@
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114">
         <f>'[1]Info and Calculations'!E114</f>
-        <v>1096.3748894783378</v>
+        <v>1436.7816091954023</v>
       </c>
       <c r="B114">
         <v>48225</v>
@@ -4260,7 +4260,7 @@
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115">
         <f>'[1]Info and Calculations'!E115</f>
-        <v>380.735279852556</v>
+        <v>555.33999417984285</v>
       </c>
       <c r="B115">
         <v>48227</v>
@@ -4269,7 +4269,7 @@
     <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116">
         <f>'[1]Info and Calculations'!E116</f>
-        <v>647.05882352941182</v>
+        <v>1058.8235294117646</v>
       </c>
       <c r="B116">
         <v>48229</v>
@@ -4278,7 +4278,7 @@
     <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117">
         <f>'[1]Info and Calculations'!E117</f>
-        <v>1100.4573874365324</v>
+        <v>1374.2604171037724</v>
       </c>
       <c r="B117">
         <v>48231</v>
@@ -4287,7 +4287,7 @@
     <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118">
         <f>'[1]Info and Calculations'!E118</f>
-        <v>531.19612320022361</v>
+        <v>638.36727086342671</v>
       </c>
       <c r="B118">
         <v>48233</v>
@@ -4305,7 +4305,7 @@
     <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120">
         <f>'[1]Info and Calculations'!E120</f>
-        <v>452.43750706933605</v>
+        <v>1165.0265807035403</v>
       </c>
       <c r="B120">
         <v>48237</v>
@@ -4314,7 +4314,7 @@
     <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121">
         <f>'[1]Info and Calculations'!E121</f>
-        <v>2012.7052015850054</v>
+        <v>2912.1328385433044</v>
       </c>
       <c r="B121">
         <v>48239</v>
@@ -4323,7 +4323,7 @@
     <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122">
         <f>'[1]Info and Calculations'!E122</f>
-        <v>819.14144968332164</v>
+        <v>1061.2244897959183</v>
       </c>
       <c r="B122">
         <v>48241</v>
@@ -4341,7 +4341,7 @@
     <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124">
         <f>'[1]Info and Calculations'!E124</f>
-        <v>2122.7162727406276</v>
+        <v>2469.4794300249732</v>
       </c>
       <c r="B124">
         <v>48245</v>
@@ -4350,7 +4350,7 @@
     <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125">
         <f>'[1]Info and Calculations'!E125</f>
-        <v>1043.9235769155011</v>
+        <v>1359.0703171164073</v>
       </c>
       <c r="B125">
         <v>48247</v>
@@ -4359,7 +4359,7 @@
     <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A126">
         <f>'[1]Info and Calculations'!E126</f>
-        <v>1377.9435765912799</v>
+        <v>2096.0596875728611</v>
       </c>
       <c r="B126">
         <v>48249</v>
@@ -4368,7 +4368,7 @@
     <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A127">
         <f>'[1]Info and Calculations'!E127</f>
-        <v>897.49040483165504</v>
+        <v>1366.3286760123704</v>
       </c>
       <c r="B127">
         <v>48251</v>
@@ -4377,7 +4377,7 @@
     <row r="128" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A128">
         <f>'[1]Info and Calculations'!E128</f>
-        <v>3151.760831010894</v>
+        <v>3075.7537370154546</v>
       </c>
       <c r="B128">
         <v>48253</v>
@@ -4386,7 +4386,7 @@
     <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129">
         <f>'[1]Info and Calculations'!E129</f>
-        <v>1935.944910024037</v>
+        <v>4508.542844149938</v>
       </c>
       <c r="B129">
         <v>48255</v>
@@ -4395,7 +4395,7 @@
     <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130">
         <f>'[1]Info and Calculations'!E130</f>
-        <v>1451.2442661466907</v>
+        <v>2093.7554941103135</v>
       </c>
       <c r="B130">
         <v>48257</v>
@@ -4404,7 +4404,7 @@
     <row r="131" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A131">
         <f>'[1]Info and Calculations'!E131</f>
-        <v>313.3238255758676</v>
+        <v>395.4362764164398</v>
       </c>
       <c r="B131">
         <v>48259</v>
@@ -4413,7 +4413,7 @@
     <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A132">
         <f>'[1]Info and Calculations'!E132</f>
-        <v>1260.5042016806724</v>
+        <v>1470.5882352941176</v>
       </c>
       <c r="B132">
         <v>48261</v>
@@ -4422,7 +4422,7 @@
     <row r="133" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A133">
         <f>'[1]Info and Calculations'!E133</f>
-        <v>251.57232704402514</v>
+        <v>503.14465408805029</v>
       </c>
       <c r="B133">
         <v>48263</v>
@@ -4431,7 +4431,7 @@
     <row r="134" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A134">
         <f>'[1]Info and Calculations'!E134</f>
-        <v>665.8120802801003</v>
+        <v>807.39280999483424</v>
       </c>
       <c r="B134">
         <v>48265</v>
@@ -4440,7 +4440,7 @@
     <row r="135" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A135">
         <f>'[1]Info and Calculations'!E135</f>
-        <v>299.26335174953959</v>
+        <v>368.32412523020258</v>
       </c>
       <c r="B135">
         <v>48267</v>
@@ -4458,7 +4458,7 @@
     <row r="137" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A137">
         <f>'[1]Info and Calculations'!E137</f>
-        <v>491.04563835932981</v>
+        <v>635.47082611207395</v>
       </c>
       <c r="B137">
         <v>48271</v>
@@ -4467,7 +4467,7 @@
     <row r="138" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A138">
         <f>'[1]Info and Calculations'!E138</f>
-        <v>1116.5972827314681</v>
+        <v>1745.8934391841738</v>
       </c>
       <c r="B138">
         <v>48273</v>
@@ -4476,7 +4476,7 @@
     <row r="139" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A139">
         <f>'[1]Info and Calculations'!E139</f>
-        <v>1168.4023368046735</v>
+        <v>1574.8031496062993</v>
       </c>
       <c r="B139">
         <v>48275</v>
@@ -4485,7 +4485,7 @@
     <row r="140" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A140">
         <f>'[1]Info and Calculations'!E140</f>
-        <v>1239.6528971887872</v>
+        <v>1531.571160075179</v>
       </c>
       <c r="B140">
         <v>48277</v>
@@ -4494,7 +4494,7 @@
     <row r="141" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A141">
         <f>'[1]Info and Calculations'!E141</f>
-        <v>1588.9167188478395</v>
+        <v>2003.7570444583594</v>
       </c>
       <c r="B141">
         <v>48279</v>
@@ -4503,7 +4503,7 @@
     <row r="142" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A142">
         <f>'[1]Info and Calculations'!E142</f>
-        <v>399.29647763464374</v>
+        <v>651.23354090412136</v>
       </c>
       <c r="B142">
         <v>48281</v>
@@ -4512,7 +4512,7 @@
     <row r="143" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A143">
         <f>'[1]Info and Calculations'!E143</f>
-        <v>4296.5459140690818</v>
+        <v>4428.9324828499221</v>
       </c>
       <c r="B143">
         <v>48283</v>
@@ -4521,7 +4521,7 @@
     <row r="144" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A144">
         <f>'[1]Info and Calculations'!E144</f>
-        <v>2859.8987219676874</v>
+        <v>3163.7328189052328</v>
       </c>
       <c r="B144">
         <v>48285</v>
@@ -4530,7 +4530,7 @@
     <row r="145" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A145">
         <f>'[1]Info and Calculations'!E145</f>
-        <v>863.88178459789708</v>
+        <v>1062.8019323671499</v>
       </c>
       <c r="B145">
         <v>48287</v>
@@ -4539,7 +4539,7 @@
     <row r="146" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A146">
         <f>'[1]Info and Calculations'!E146</f>
-        <v>779.35279832834476</v>
+        <v>909.24493138306877</v>
       </c>
       <c r="B146">
         <v>48289</v>
@@ -4548,7 +4548,7 @@
     <row r="147" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A147">
         <f>'[1]Info and Calculations'!E147</f>
-        <v>987.28952675765686</v>
+        <v>1414.098775854791</v>
       </c>
       <c r="B147">
         <v>48291</v>
@@ -4557,7 +4557,7 @@
     <row r="148" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A148">
         <f>'[1]Info and Calculations'!E148</f>
-        <v>845.225959904859</v>
+        <v>1431.3625552157662</v>
       </c>
       <c r="B148">
         <v>48293</v>
@@ -4566,7 +4566,7 @@
     <row r="149" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A149">
         <f>'[1]Info and Calculations'!E149</f>
-        <v>410.84634346754314</v>
+        <v>602.57463708572993</v>
       </c>
       <c r="B149">
         <v>48295</v>
@@ -4575,7 +4575,7 @@
     <row r="150" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A150">
         <f>'[1]Info and Calculations'!E150</f>
-        <v>1720.69825436409</v>
+        <v>2119.700748129676</v>
       </c>
       <c r="B150">
         <v>48297</v>
@@ -4584,7 +4584,7 @@
     <row r="151" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A151">
         <f>'[1]Info and Calculations'!E151</f>
-        <v>442.11392144766603</v>
+        <v>488.38165741311951</v>
       </c>
       <c r="B151">
         <v>48299</v>
@@ -4602,7 +4602,7 @@
     <row r="153" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A153">
         <f>'[1]Info and Calculations'!E153</f>
-        <v>1737.6501371331294</v>
+        <v>2114.0569338923742</v>
       </c>
       <c r="B153">
         <v>48303</v>
@@ -4611,7 +4611,7 @@
     <row r="154" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A154">
         <f>'[1]Info and Calculations'!E154</f>
-        <v>1163.2068718682892</v>
+        <v>1360.0572655690767</v>
       </c>
       <c r="B154">
         <v>48305</v>
@@ -4620,7 +4620,7 @@
     <row r="155" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A155">
         <f>'[1]Info and Calculations'!E155</f>
-        <v>473.44110854503464</v>
+        <v>819.86143187066978</v>
       </c>
       <c r="B155">
         <v>48307</v>
@@ -4629,7 +4629,7 @@
     <row r="156" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A156">
         <f>'[1]Info and Calculations'!E156</f>
-        <v>1709.4354832336228</v>
+        <v>2191.9183137995619</v>
       </c>
       <c r="B156">
         <v>48309</v>
@@ -4638,7 +4638,7 @@
     <row r="157" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A157">
         <f>'[1]Info and Calculations'!E157</f>
-        <v>1021.7113665389528</v>
+        <v>1277.139208173691</v>
       </c>
       <c r="B157">
         <v>48311</v>
@@ -4647,7 +4647,7 @@
     <row r="158" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A158">
         <f>'[1]Info and Calculations'!E158</f>
-        <v>4440.0082604804848</v>
+        <v>4715.3576099676466</v>
       </c>
       <c r="B158">
         <v>48313</v>
@@ -4656,7 +4656,7 @@
     <row r="159" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A159">
         <f>'[1]Info and Calculations'!E159</f>
-        <v>1194.8707985234118</v>
+        <v>1321.1579560909267</v>
       </c>
       <c r="B159">
         <v>48315</v>
@@ -4665,7 +4665,7 @@
     <row r="160" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A160">
         <f>'[1]Info and Calculations'!E160</f>
-        <v>744.54003970880206</v>
+        <v>1125.0827266710787</v>
       </c>
       <c r="B160">
         <v>48317</v>
@@ -4674,7 +4674,7 @@
     <row r="161" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A161">
         <f>'[1]Info and Calculations'!E161</f>
-        <v>1025.9040779687098</v>
+        <v>1641.4465247499356</v>
       </c>
       <c r="B161">
         <v>48319</v>
@@ -4683,7 +4683,7 @@
     <row r="162" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A162">
         <f>'[1]Info and Calculations'!E162</f>
-        <v>1815.7781135333478</v>
+        <v>2287.9343837686165</v>
       </c>
       <c r="B162">
         <v>48321</v>
@@ -4692,7 +4692,7 @@
     <row r="163" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A163">
         <f>'[1]Info and Calculations'!E163</f>
-        <v>3089.8595215055557</v>
+        <v>4331.1421802529285</v>
       </c>
       <c r="B163">
         <v>48323</v>
@@ -4701,7 +4701,7 @@
     <row r="164" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A164">
         <f>'[1]Info and Calculations'!E164</f>
-        <v>1174.0522591611655</v>
+        <v>2101.0396489702334</v>
       </c>
       <c r="B164">
         <v>48325</v>
@@ -4710,7 +4710,7 @@
     <row r="165" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A165">
         <f>'[1]Info and Calculations'!E165</f>
-        <v>731.26142595978058</v>
+        <v>868.37294332723945</v>
       </c>
       <c r="B165">
         <v>48327</v>
@@ -4719,7 +4719,7 @@
     <row r="166" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A166">
         <f>'[1]Info and Calculations'!E166</f>
-        <v>1162.9768792297345</v>
+        <v>1589.4195256292564</v>
       </c>
       <c r="B166">
         <v>48329</v>
@@ -4728,7 +4728,7 @@
     <row r="167" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A167">
         <f>'[1]Info and Calculations'!E167</f>
-        <v>1242.1351735335904</v>
+        <v>1607.4690481022935</v>
       </c>
       <c r="B167">
         <v>48331</v>
@@ -4737,7 +4737,7 @@
     <row r="168" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A168">
         <f>'[1]Info and Calculations'!E168</f>
-        <v>308.00821355236138</v>
+        <v>616.01642710472277</v>
       </c>
       <c r="B168">
         <v>48333</v>
@@ -4746,7 +4746,7 @@
     <row r="169" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A169">
         <f>'[1]Info and Calculations'!E169</f>
-        <v>527.11606690319309</v>
+        <v>729.85301571211357</v>
       </c>
       <c r="B169">
         <v>48335</v>
@@ -4755,7 +4755,7 @@
     <row r="170" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A170">
         <f>'[1]Info and Calculations'!E170</f>
-        <v>296.89046304495025</v>
+        <v>500.02604302307412</v>
       </c>
       <c r="B170">
         <v>48337</v>
@@ -4764,7 +4764,7 @@
     <row r="171" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A171">
         <f>'[1]Info and Calculations'!E171</f>
-        <v>1009.2010600194478</v>
+        <v>1226.9708820410749</v>
       </c>
       <c r="B171">
         <v>48339</v>
@@ -4773,7 +4773,7 @@
     <row r="172" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A172">
         <f>'[1]Info and Calculations'!E172</f>
-        <v>4695.2491309385859</v>
+        <v>5098.4936268829661</v>
       </c>
       <c r="B172">
         <v>48341</v>
@@ -4782,7 +4782,7 @@
     <row r="173" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A173">
         <f>'[1]Info and Calculations'!E173</f>
-        <v>771.20822622107971</v>
+        <v>1100.5784061696659</v>
       </c>
       <c r="B173">
         <v>48343</v>
@@ -4791,7 +4791,7 @@
     <row r="174" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A174">
         <f>'[1]Info and Calculations'!E174</f>
-        <v>341.29692832764505</v>
+        <v>511.94539249146754</v>
       </c>
       <c r="B174">
         <v>48345</v>
@@ -4800,7 +4800,7 @@
     <row r="175" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A175">
         <f>'[1]Info and Calculations'!E175</f>
-        <v>1595.7944654166536</v>
+        <v>1940.5359872710824</v>
       </c>
       <c r="B175">
         <v>48347</v>
@@ -4809,7 +4809,7 @@
     <row r="176" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A176">
         <f>'[1]Info and Calculations'!E176</f>
-        <v>1598.4161717203294</v>
+        <v>2090.2365322496612</v>
       </c>
       <c r="B176">
         <v>48349</v>
@@ -4818,7 +4818,7 @@
     <row r="177" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A177">
         <f>'[1]Info and Calculations'!E177</f>
-        <v>626.63946371320321</v>
+        <v>1143.9813465461964</v>
       </c>
       <c r="B177">
         <v>48351</v>
@@ -4827,7 +4827,7 @@
     <row r="178" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A178">
         <f>'[1]Info and Calculations'!E178</f>
-        <v>837.48881217235635</v>
+        <v>914.20534458509144</v>
       </c>
       <c r="B178">
         <v>48353</v>
@@ -4836,7 +4836,7 @@
     <row r="179" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A179">
         <f>'[1]Info and Calculations'!E179</f>
-        <v>2568.5529477376617</v>
+        <v>3667.7977056067216</v>
       </c>
       <c r="B179">
         <v>48355</v>
@@ -4845,7 +4845,7 @@
     <row r="180" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A180">
         <f>'[1]Info and Calculations'!E180</f>
-        <v>742.77124414183402</v>
+        <v>893.09399593244314</v>
       </c>
       <c r="B180">
         <v>48357</v>
@@ -4854,7 +4854,7 @@
     <row r="181" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A181">
         <f>'[1]Info and Calculations'!E181</f>
-        <v>590.90909090909088</v>
+        <v>636.36363636363637</v>
       </c>
       <c r="B181">
         <v>48359</v>
@@ -4863,7 +4863,7 @@
     <row r="182" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A182">
         <f>'[1]Info and Calculations'!E182</f>
-        <v>1185.0734141953455</v>
+        <v>1916.3136207997213</v>
       </c>
       <c r="B182">
         <v>48361</v>
@@ -4872,7 +4872,7 @@
     <row r="183" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A183">
         <f>'[1]Info and Calculations'!E183</f>
-        <v>696.3638321547794</v>
+        <v>1407.0856814673893</v>
       </c>
       <c r="B183">
         <v>48363</v>
@@ -4881,7 +4881,7 @@
     <row r="184" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A184">
         <f>'[1]Info and Calculations'!E184</f>
-        <v>1094.5638020833335</v>
+        <v>1228.8411458333335</v>
       </c>
       <c r="B184">
         <v>48365</v>
@@ -4890,7 +4890,7 @@
     <row r="185" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A185">
         <f>'[1]Info and Calculations'!E185</f>
-        <v>788.96336113138818</v>
+        <v>1128.8812204599583</v>
       </c>
       <c r="B185">
         <v>48367</v>
@@ -4899,7 +4899,7 @@
     <row r="186" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A186">
         <f>'[1]Info and Calculations'!E186</f>
-        <v>3380.4347826086955</v>
+        <v>3978.260869565217</v>
       </c>
       <c r="B186">
         <v>48369</v>
@@ -4908,7 +4908,7 @@
     <row r="187" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A187">
         <f>'[1]Info and Calculations'!E187</f>
-        <v>1264.1383898868928</v>
+        <v>1621.0004233956331</v>
       </c>
       <c r="B187">
         <v>48371</v>
@@ -4917,7 +4917,7 @@
     <row r="188" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A188">
         <f>'[1]Info and Calculations'!E188</f>
-        <v>1342.7057864710678</v>
+        <v>1574.9796251018745</v>
       </c>
       <c r="B188">
         <v>48373</v>
@@ -4926,7 +4926,7 @@
     <row r="189" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A189">
         <f>'[1]Info and Calculations'!E189</f>
-        <v>2856.4210389060031</v>
+        <v>3166.9193030495653</v>
       </c>
       <c r="B189">
         <v>48375</v>
@@ -4935,7 +4935,7 @@
     <row r="190" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A190">
         <f>'[1]Info and Calculations'!E190</f>
-        <v>745.00507958008802</v>
+        <v>846.59668134100912</v>
       </c>
       <c r="B190">
         <v>48377</v>
@@ -4944,7 +4944,7 @@
     <row r="191" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A191">
         <f>'[1]Info and Calculations'!E191</f>
-        <v>395.50008788890841</v>
+        <v>483.38899630866581</v>
       </c>
       <c r="B191">
         <v>48379</v>
@@ -4953,7 +4953,7 @@
     <row r="192" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A192">
         <f>'[1]Info and Calculations'!E192</f>
-        <v>1148.4098939929329</v>
+        <v>1442.3912413833054</v>
       </c>
       <c r="B192">
         <v>48381</v>
@@ -4962,7 +4962,7 @@
     <row r="193" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A193">
         <f>'[1]Info and Calculations'!E193</f>
-        <v>1372.4562233790818</v>
+        <v>1656.4126833885471</v>
       </c>
       <c r="B193">
         <v>48383</v>
@@ -4971,7 +4971,7 @@
     <row r="194" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A194">
         <f>'[1]Info and Calculations'!E194</f>
-        <v>2230.7014969181096</v>
+        <v>2670.9715292045789</v>
       </c>
       <c r="B194">
         <v>48385</v>
@@ -4980,7 +4980,7 @@
     <row r="195" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A195">
         <f>'[1]Info and Calculations'!E195</f>
-        <v>1062.6486915146709</v>
+        <v>1110.2299762093578</v>
       </c>
       <c r="B195">
         <v>48387</v>
@@ -4989,7 +4989,7 @@
     <row r="196" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A196">
         <f>'[1]Info and Calculations'!E196</f>
-        <v>859.48939963073792</v>
+        <v>1005.920926975234</v>
       </c>
       <c r="B196">
         <v>48389</v>
@@ -4998,7 +4998,7 @@
     <row r="197" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A197">
         <f>'[1]Info and Calculations'!E197</f>
-        <v>2574.9372771688895</v>
+        <v>3261.5872177472602</v>
       </c>
       <c r="B197">
         <v>48391</v>
@@ -5007,7 +5007,7 @@
     <row r="198" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A198">
         <f>'[1]Info and Calculations'!E198</f>
-        <v>712.10579857578841</v>
+        <v>610.37639877924721</v>
       </c>
       <c r="B198">
         <v>48393</v>
@@ -5016,7 +5016,7 @@
     <row r="199" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A199">
         <f>'[1]Info and Calculations'!E199</f>
-        <v>1267.1719564187588</v>
+        <v>1427.0487920416865</v>
       </c>
       <c r="B199">
         <v>48395</v>
@@ -5025,7 +5025,7 @@
     <row r="200" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A200">
         <f>'[1]Info and Calculations'!E200</f>
-        <v>704.20468882955311</v>
+        <v>1218.6653365022544</v>
       </c>
       <c r="B200">
         <v>48397</v>
@@ -5034,7 +5034,7 @@
     <row r="201" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A201">
         <f>'[1]Info and Calculations'!E201</f>
-        <v>971.93205559088017</v>
+        <v>1544.1911163593425</v>
       </c>
       <c r="B201">
         <v>48399</v>
@@ -5043,7 +5043,7 @@
     <row r="202" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A202">
         <f>'[1]Info and Calculations'!E202</f>
-        <v>629.181116985995</v>
+        <v>820.58862546667433</v>
       </c>
       <c r="B202">
         <v>48401</v>
@@ -5052,7 +5052,7 @@
     <row r="203" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A203">
         <f>'[1]Info and Calculations'!E203</f>
-        <v>442.83413848631238</v>
+        <v>694.44444444444446</v>
       </c>
       <c r="B203">
         <v>48403</v>
@@ -5061,7 +5061,7 @@
     <row r="204" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A204">
         <f>'[1]Info and Calculations'!E204</f>
-        <v>1844.1403926234384</v>
+        <v>2201.0707911957165</v>
       </c>
       <c r="B204">
         <v>48405</v>
@@ -5070,7 +5070,7 @@
     <row r="205" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A205">
         <f>'[1]Info and Calculations'!E205</f>
-        <v>502.70420191374291</v>
+        <v>662.18277631396484</v>
       </c>
       <c r="B205">
         <v>48407</v>
@@ -5079,7 +5079,7 @@
     <row r="206" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A206">
         <f>'[1]Info and Calculations'!E206</f>
-        <v>1117.4202593760954</v>
+        <v>1637.5744830003505</v>
       </c>
       <c r="B206">
         <v>48409</v>
@@ -5088,7 +5088,7 @@
     <row r="207" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A207">
         <f>'[1]Info and Calculations'!E207</f>
-        <v>374.59560701515409</v>
+        <v>527.83926443044436</v>
       </c>
       <c r="B207">
         <v>48411</v>
@@ -5097,7 +5097,7 @@
     <row r="208" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A208">
         <f>'[1]Info and Calculations'!E208</f>
-        <v>1056.7632850241546</v>
+        <v>1086.9565217391305</v>
       </c>
       <c r="B208">
         <v>48413</v>
@@ -5106,7 +5106,7 @@
     <row r="209" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A209">
         <f>'[1]Info and Calculations'!E209</f>
-        <v>2357.3606271777003</v>
+        <v>2760.2351916376306</v>
       </c>
       <c r="B209">
         <v>48415</v>
@@ -5115,7 +5115,7 @@
     <row r="210" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A210">
         <f>'[1]Info and Calculations'!E210</f>
-        <v>499.26578560939799</v>
+        <v>587.37151248164457</v>
       </c>
       <c r="B210">
         <v>48417</v>
@@ -5124,7 +5124,7 @@
     <row r="211" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A211">
         <f>'[1]Info and Calculations'!E211</f>
-        <v>1483.6562928165981</v>
+        <v>1640.2427089449989</v>
       </c>
       <c r="B211">
         <v>48419</v>
@@ -5133,7 +5133,7 @@
     <row r="212" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A212">
         <f>'[1]Info and Calculations'!E212</f>
-        <v>1129.4261294261294</v>
+        <v>1434.6764346764346</v>
       </c>
       <c r="B212">
         <v>48421</v>
@@ -5142,7 +5142,7 @@
     <row r="213" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A213">
         <f>'[1]Info and Calculations'!E213</f>
-        <v>981.95566102329212</v>
+        <v>1245.1997295262884</v>
       </c>
       <c r="B213">
         <v>48423</v>
@@ -5151,7 +5151,7 @@
     <row r="214" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A214">
         <f>'[1]Info and Calculations'!E214</f>
-        <v>624.05853238648592</v>
+        <v>1140.5207660856468</v>
       </c>
       <c r="B214">
         <v>48425</v>
@@ -5160,7 +5160,7 @@
     <row r="215" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A215">
         <f>'[1]Info and Calculations'!E215</f>
-        <v>2790.0078787597904</v>
+        <v>3868.3165716580925</v>
       </c>
       <c r="B215">
         <v>48427</v>
@@ -5169,7 +5169,7 @@
     <row r="216" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A216">
         <f>'[1]Info and Calculations'!E216</f>
-        <v>303.030303030303</v>
+        <v>1253.9184952978055</v>
       </c>
       <c r="B216">
         <v>48429</v>
@@ -5178,7 +5178,7 @@
     <row r="217" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A217">
         <f>'[1]Info and Calculations'!E217</f>
-        <v>0</v>
+        <v>79.87220447284345</v>
       </c>
       <c r="B217">
         <v>48431</v>
@@ -5187,7 +5187,7 @@
     <row r="218" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A218">
         <f>'[1]Info and Calculations'!E218</f>
-        <v>262.63952724885092</v>
+        <v>459.61917268548916</v>
       </c>
       <c r="B218">
         <v>48433</v>
@@ -5196,7 +5196,7 @@
     <row r="219" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A219">
         <f>'[1]Info and Calculations'!E219</f>
-        <v>1323.898653275508</v>
+        <v>1643.4603971695958</v>
       </c>
       <c r="B219">
         <v>48435</v>
@@ -5205,7 +5205,7 @@
     <row r="220" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A220">
         <f>'[1]Info and Calculations'!E220</f>
-        <v>1011.5996762881036</v>
+        <v>1173.4556244942</v>
       </c>
       <c r="B220">
         <v>48437</v>
@@ -5214,7 +5214,7 @@
     <row r="221" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A221">
         <f>'[1]Info and Calculations'!E221</f>
-        <v>1325.2447224612888</v>
+        <v>1726.8764387721544</v>
       </c>
       <c r="B221">
         <v>48439</v>
@@ -5223,7 +5223,7 @@
     <row r="222" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A222">
         <f>'[1]Info and Calculations'!E222</f>
-        <v>772.28106154585294</v>
+        <v>859.76322450647865</v>
       </c>
       <c r="B222">
         <v>48441</v>
@@ -5232,7 +5232,7 @@
     <row r="223" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A223">
         <f>'[1]Info and Calculations'!E223</f>
-        <v>189.75332068311195</v>
+        <v>284.62998102466793</v>
       </c>
       <c r="B223">
         <v>48443</v>
@@ -5241,7 +5241,7 @@
     <row r="224" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A224">
         <f>'[1]Info and Calculations'!E224</f>
-        <v>889.57055214723937</v>
+        <v>1441.717791411043</v>
       </c>
       <c r="B224">
         <v>48445</v>
@@ -5259,7 +5259,7 @@
     <row r="226" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A226">
         <f>'[1]Info and Calculations'!E226</f>
-        <v>3541.4074591084268</v>
+        <v>3899.4932176129641</v>
       </c>
       <c r="B226">
         <v>48449</v>
@@ -5268,7 +5268,7 @@
     <row r="227" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A227">
         <f>'[1]Info and Calculations'!E227</f>
-        <v>1277.6209481164217</v>
+        <v>1541.2570167753659</v>
       </c>
       <c r="B227">
         <v>48451</v>
@@ -5277,7 +5277,7 @@
     <row r="228" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A228">
         <f>'[1]Info and Calculations'!E228</f>
-        <v>1606.2692895558814</v>
+        <v>1940.5312574041698</v>
       </c>
       <c r="B228">
         <v>48453</v>
@@ -5286,7 +5286,7 @@
     <row r="229" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A229">
         <f>'[1]Info and Calculations'!E229</f>
-        <v>948.49996487037163</v>
+        <v>1180.3555118386848</v>
       </c>
       <c r="B229">
         <v>48455</v>
@@ -5295,7 +5295,7 @@
     <row r="230" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A230">
         <f>'[1]Info and Calculations'!E230</f>
-        <v>538.81834793609141</v>
+        <v>777.77257180340155</v>
       </c>
       <c r="B230">
         <v>48457</v>
@@ -5304,7 +5304,7 @@
     <row r="231" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A231">
         <f>'[1]Info and Calculations'!E231</f>
-        <v>458.52838794862561</v>
+        <v>696.1949345816829</v>
       </c>
       <c r="B231">
         <v>48459</v>
@@ -5313,7 +5313,7 @@
     <row r="232" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A232">
         <f>'[1]Info and Calculations'!E232</f>
-        <v>401.70725583730854</v>
+        <v>426.81395932714031</v>
       </c>
       <c r="B232">
         <v>48461</v>
@@ -5322,7 +5322,7 @@
     <row r="233" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A233">
         <f>'[1]Info and Calculations'!E233</f>
-        <v>1725.3105200987936</v>
+        <v>2237.1765042774814</v>
       </c>
       <c r="B233">
         <v>48463</v>
@@ -5331,7 +5331,7 @@
     <row r="234" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A234">
         <f>'[1]Info and Calculations'!E234</f>
-        <v>2760.4501274532154</v>
+        <v>3678.5277599320252</v>
       </c>
       <c r="B234">
         <v>48465</v>
@@ -5340,7 +5340,7 @@
     <row r="235" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A235">
         <f>'[1]Info and Calculations'!E235</f>
-        <v>598.53251365627648</v>
+        <v>858.13697741080603</v>
       </c>
       <c r="B235">
         <v>48467</v>
@@ -5349,7 +5349,7 @@
     <row r="236" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A236">
         <f>'[1]Info and Calculations'!E236</f>
-        <v>3276.9274840399412</v>
+        <v>3742.4292028155178</v>
       </c>
       <c r="B236">
         <v>48469</v>
@@ -5358,7 +5358,7 @@
     <row r="237" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A237">
         <f>'[1]Info and Calculations'!E237</f>
-        <v>3802.8568725759151</v>
+        <v>4355.5819830533674</v>
       </c>
       <c r="B237">
         <v>48471</v>
@@ -5367,7 +5367,7 @@
     <row r="238" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A238">
         <f>'[1]Info and Calculations'!E238</f>
-        <v>786.50135025921043</v>
+        <v>1135.4004454869805</v>
       </c>
       <c r="B238">
         <v>48473</v>
@@ -5376,7 +5376,7 @@
     <row r="239" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A239">
         <f>'[1]Info and Calculations'!E239</f>
-        <v>610.65332548557978</v>
+        <v>735.72689817539731</v>
       </c>
       <c r="B239">
         <v>48475</v>
@@ -5385,7 +5385,7 @@
     <row r="240" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A240">
         <f>'[1]Info and Calculations'!E240</f>
-        <v>1356.848243493102</v>
+        <v>1561.6555255297965</v>
       </c>
       <c r="B240">
         <v>48477</v>
@@ -5394,7 +5394,7 @@
     <row r="241" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A241">
         <f>'[1]Info and Calculations'!E241</f>
-        <v>2219.9049181158866</v>
+        <v>3605.2182791844534</v>
       </c>
       <c r="B241">
         <v>48479</v>
@@ -5403,7 +5403,7 @@
     <row r="242" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A242">
         <f>'[1]Info and Calculations'!E242</f>
-        <v>1487.8042965117666</v>
+        <v>2522.5912591497581</v>
       </c>
       <c r="B242">
         <v>48481</v>
@@ -5412,7 +5412,7 @@
     <row r="243" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A243">
         <f>'[1]Info and Calculations'!E243</f>
-        <v>536.05395123638255</v>
+        <v>691.68251772436452</v>
       </c>
       <c r="B243">
         <v>48483</v>
@@ -5421,7 +5421,7 @@
     <row r="244" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A244">
         <f>'[1]Info and Calculations'!E244</f>
-        <v>677.49252655139787</v>
+        <v>890.05392900599384</v>
       </c>
       <c r="B244">
         <v>48485</v>
@@ -5430,7 +5430,7 @@
     <row r="245" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A245">
         <f>'[1]Info and Calculations'!E245</f>
-        <v>383.49440098174568</v>
+        <v>682.62003374750736</v>
       </c>
       <c r="B245">
         <v>48487</v>
@@ -5439,7 +5439,7 @@
     <row r="246" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A246">
         <f>'[1]Info and Calculations'!E246</f>
-        <v>2647.5106171500856</v>
+        <v>3609.8310291858679</v>
       </c>
       <c r="B246">
         <v>48489</v>
@@ -5448,7 +5448,7 @@
     <row r="247" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A247">
         <f>'[1]Info and Calculations'!E247</f>
-        <v>968.78528056631978</v>
+        <v>1292.3917723600389</v>
       </c>
       <c r="B247">
         <v>48491</v>
@@ -5457,7 +5457,7 @@
     <row r="248" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A248">
         <f>'[1]Info and Calculations'!E248</f>
-        <v>799.1969422030038</v>
+        <v>992.23968186556499</v>
       </c>
       <c r="B248">
         <v>48493</v>
@@ -5466,7 +5466,7 @@
     <row r="249" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A249">
         <f>'[1]Info and Calculations'!E249</f>
-        <v>731.57611619150077</v>
+        <v>946.74556213017752</v>
       </c>
       <c r="B249">
         <v>48495</v>
@@ -5475,7 +5475,7 @@
     <row r="250" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A250">
         <f>'[1]Info and Calculations'!E250</f>
-        <v>472.59410093151183</v>
+        <v>890.48277538863658</v>
       </c>
       <c r="B250">
         <v>48497</v>
@@ -5484,7 +5484,7 @@
     <row r="251" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A251">
         <f>'[1]Info and Calculations'!E251</f>
-        <v>642.49757131502247</v>
+        <v>825.75289234301863</v>
       </c>
       <c r="B251">
         <v>48499</v>
@@ -5493,7 +5493,7 @@
     <row r="252" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A252">
         <f>'[1]Info and Calculations'!E252</f>
-        <v>921.40921409214104</v>
+        <v>1430.8943089430895</v>
       </c>
       <c r="B252">
         <v>48501</v>
@@ -5502,7 +5502,7 @@
     <row r="253" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A253">
         <f>'[1]Info and Calculations'!E253</f>
-        <v>742.83882000855067</v>
+        <v>1100.8978195810175</v>
       </c>
       <c r="B253">
         <v>48503</v>
@@ -5511,7 +5511,7 @@
     <row r="254" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A254">
         <f>'[1]Info and Calculations'!E254</f>
-        <v>1082.6566729127628</v>
+        <v>1617.0449024914983</v>
       </c>
       <c r="B254">
         <v>48505</v>
@@ -5520,7 +5520,7 @@
     <row r="255" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A255">
         <f>'[1]Info and Calculations'!E255</f>
-        <v>1379.9085317773222</v>
+        <v>1963.4127109288756</v>
       </c>
       <c r="B255">
         <v>48507</v>
@@ -5535,8 +5535,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8AF3B7B-66A5-4473-938A-A8E9F2FCB422}">
   <dimension ref="A1:B255"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5552,7 +5552,7 @@
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2">
         <f>'[1]Info and Calculations'!G2</f>
-        <v>3.6215482118605704E-3</v>
+        <v>7.036423841059603E-3</v>
       </c>
       <c r="B2">
         <v>48001</v>
@@ -5561,7 +5561,7 @@
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3">
         <f>'[1]Info and Calculations'!G3</f>
-        <v>2.3529411764705882E-2</v>
+        <v>0.02</v>
       </c>
       <c r="B3">
         <v>48003</v>
@@ -5570,7 +5570,7 @@
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4">
         <f>'[1]Info and Calculations'!G4</f>
-        <v>2.1250758955676987E-2</v>
+        <v>2.8161802355350742E-2</v>
       </c>
       <c r="B4">
         <v>48005</v>
@@ -5579,7 +5579,7 @@
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5">
         <f>'[1]Info and Calculations'!G5</f>
-        <v>7.8431372549019607E-2</v>
+        <v>8.4210526315789472E-2</v>
       </c>
       <c r="B5">
         <v>48007</v>
@@ -5606,7 +5606,7 @@
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8">
         <f>'[1]Info and Calculations'!G8</f>
-        <v>3.7037037037037035E-2</v>
+        <v>4.046242774566474E-2</v>
       </c>
       <c r="B8">
         <v>48013</v>
@@ -5615,7 +5615,7 @@
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9">
         <f>'[1]Info and Calculations'!G9</f>
-        <v>1.4084507042253521E-2</v>
+        <v>1.1363636363636364E-2</v>
       </c>
       <c r="B9">
         <v>48015</v>
@@ -5624,7 +5624,7 @@
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10">
         <f>'[1]Info and Calculations'!G10</f>
-        <v>2.5316455696202531E-2</v>
+        <v>2.0408163265306121E-2</v>
       </c>
       <c r="B10">
         <v>48017</v>
@@ -5633,7 +5633,7 @@
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11">
         <f>'[1]Info and Calculations'!G11</f>
-        <v>3.614457831325301E-2</v>
+        <v>2.9126213592233011E-2</v>
       </c>
       <c r="B11">
         <v>48019</v>
@@ -5642,7 +5642,7 @@
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12">
         <f>'[1]Info and Calculations'!G12</f>
-        <v>1.3888888888888888E-2</v>
+        <v>1.6655562958027982E-2</v>
       </c>
       <c r="B12">
         <v>48021</v>
@@ -5660,7 +5660,7 @@
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14">
         <f>'[1]Info and Calculations'!G14</f>
-        <v>1.7612524461839529E-2</v>
+        <v>1.2517385257301807E-2</v>
       </c>
       <c r="B14">
         <v>48025</v>
@@ -5669,7 +5669,7 @@
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15">
         <f>'[1]Info and Calculations'!G15</f>
-        <v>8.8672768878718528E-3</v>
+        <v>1.1455525606469003E-2</v>
       </c>
       <c r="B15">
         <v>48027</v>
@@ -5678,7 +5678,7 @@
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16">
         <f>'[1]Info and Calculations'!G16</f>
-        <v>1.8005009577132754E-2</v>
+        <v>2.6424055001794736E-2</v>
       </c>
       <c r="B16">
         <v>48029</v>
@@ -5687,7 +5687,7 @@
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17">
         <f>'[1]Info and Calculations'!G17</f>
-        <v>4.0816326530612242E-2</v>
+        <v>3.90625E-2</v>
       </c>
       <c r="B17">
         <v>48031</v>
@@ -5705,7 +5705,7 @@
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19">
         <f>'[1]Info and Calculations'!G19</f>
-        <v>1.6E-2</v>
+        <v>1.5544041450777202E-2</v>
       </c>
       <c r="B19">
         <v>48035</v>
@@ -5714,7 +5714,7 @@
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20">
         <f>'[1]Info and Calculations'!G20</f>
-        <v>4.2372881355932202E-2</v>
+        <v>4.9261083743842367E-2</v>
       </c>
       <c r="B20">
         <v>48037</v>
@@ -5723,7 +5723,7 @@
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21">
         <f>'[1]Info and Calculations'!G21</f>
-        <v>1.1019283746556474E-2</v>
+        <v>1.4339890969424033E-2</v>
       </c>
       <c r="B21">
         <v>48039</v>
@@ -5732,7 +5732,7 @@
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22">
         <f>'[1]Info and Calculations'!G22</f>
-        <v>1.0833118390508125E-2</v>
+        <v>1.2307692307692308E-2</v>
       </c>
       <c r="B22">
         <v>48041</v>
@@ -5741,7 +5741,7 @@
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23">
         <f>'[1]Info and Calculations'!G23</f>
-        <v>1.1049723756906077E-2</v>
+        <v>1.06951871657754E-2</v>
       </c>
       <c r="B23">
         <v>48043</v>
@@ -5750,7 +5750,7 @@
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24">
         <f>'[1]Info and Calculations'!G24</f>
-        <v>9.0909090909090912E-2</v>
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="B24">
         <v>48045</v>
@@ -5759,7 +5759,7 @@
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25">
         <f>'[1]Info and Calculations'!G25</f>
-        <v>1.1764705882352941E-2</v>
+        <v>5.3892215568862277E-2</v>
       </c>
       <c r="B25">
         <v>48047</v>
@@ -5768,7 +5768,7 @@
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26">
         <f>'[1]Info and Calculations'!G26</f>
-        <v>3.9886039886039885E-2</v>
+        <v>4.449648711943794E-2</v>
       </c>
       <c r="B26">
         <v>48049</v>
@@ -5777,7 +5777,7 @@
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27">
         <f>'[1]Info and Calculations'!G27</f>
-        <v>2.1645021645021644E-2</v>
+        <v>2.2556390977443608E-2</v>
       </c>
       <c r="B27">
         <v>48051</v>
@@ -5786,7 +5786,7 @@
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28">
         <f>'[1]Info and Calculations'!G28</f>
-        <v>1.2915129151291513E-2</v>
+        <v>1.8487394957983194E-2</v>
       </c>
       <c r="B28">
         <v>48053</v>
@@ -5795,7 +5795,7 @@
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29">
         <f>'[1]Info and Calculations'!G29</f>
-        <v>2.1495327102803739E-2</v>
+        <v>2.5104602510460251E-2</v>
       </c>
       <c r="B29">
         <v>48055</v>
@@ -5804,7 +5804,7 @@
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30">
         <f>'[1]Info and Calculations'!G30</f>
-        <v>6.6225165562913907E-3</v>
+        <v>1.2389380530973451E-2</v>
       </c>
       <c r="B30">
         <v>48057</v>
@@ -5813,7 +5813,7 @@
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31">
         <f>'[1]Info and Calculations'!G31</f>
-        <v>7.3170731707317069E-2</v>
+        <v>5.3571428571428568E-2</v>
       </c>
       <c r="B31">
         <v>48059</v>
@@ -5822,7 +5822,7 @@
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32">
         <f>'[1]Info and Calculations'!G32</f>
-        <v>3.1537690274359674E-2</v>
+        <v>3.2922032437092519E-2</v>
       </c>
       <c r="B32">
         <v>48061</v>
@@ -5831,7 +5831,7 @@
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33">
         <f>'[1]Info and Calculations'!G33</f>
-        <v>1.8691588785046728E-2</v>
+        <v>2.5925925925925925E-2</v>
       </c>
       <c r="B33">
         <v>48063</v>
@@ -5849,7 +5849,7 @@
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35">
         <f>'[1]Info and Calculations'!G35</f>
-        <v>4.5751633986928102E-2</v>
+        <v>4.1284403669724773E-2</v>
       </c>
       <c r="B35">
         <v>48067</v>
@@ -5858,7 +5858,7 @@
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36">
         <f>'[1]Info and Calculations'!G36</f>
-        <v>1.7647058823529412E-2</v>
+        <v>1.9138755980861243E-2</v>
       </c>
       <c r="B36">
         <v>48069</v>
@@ -5867,7 +5867,7 @@
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37">
         <f>'[1]Info and Calculations'!G37</f>
-        <v>2.2547914317925591E-3</v>
+        <v>4.6296296296296294E-3</v>
       </c>
       <c r="B37">
         <v>48071</v>
@@ -5876,7 +5876,7 @@
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38">
         <f>'[1]Info and Calculations'!G38</f>
-        <v>5.108556832694764E-3</v>
+        <v>9.9464422341239474E-3</v>
       </c>
       <c r="B38">
         <v>48073</v>
@@ -5894,7 +5894,7 @@
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40">
         <f>'[1]Info and Calculations'!G40</f>
-        <v>2.9411764705882353E-2</v>
+        <v>1.9607843137254902E-2</v>
       </c>
       <c r="B40">
         <v>48077</v>
@@ -5912,7 +5912,7 @@
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42">
         <f>'[1]Info and Calculations'!G42</f>
-        <v>2.564102564102564E-2</v>
+        <v>4.5454545454545456E-2</v>
       </c>
       <c r="B42">
         <v>48081</v>
@@ -5921,7 +5921,7 @@
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43">
         <f>'[1]Info and Calculations'!G43</f>
-        <v>0</v>
+        <v>2.7027027027027029E-2</v>
       </c>
       <c r="B43">
         <v>48083</v>
@@ -5930,7 +5930,7 @@
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44">
         <f>'[1]Info and Calculations'!G44</f>
-        <v>1.133322839603337E-2</v>
+        <v>9.5082597003457552E-3</v>
       </c>
       <c r="B44">
         <v>48085</v>
@@ -5948,7 +5948,7 @@
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46">
         <f>'[1]Info and Calculations'!G46</f>
-        <v>8.2644628099173556E-3</v>
+        <v>7.9365079365079361E-3</v>
       </c>
       <c r="B46">
         <v>48089</v>
@@ -5957,7 +5957,7 @@
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47">
         <f>'[1]Info and Calculations'!G47</f>
-        <v>3.6548831635710009E-2</v>
+        <v>4.0336879432624116E-2</v>
       </c>
       <c r="B47">
         <v>48091</v>
@@ -5966,7 +5966,7 @@
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48">
         <f>'[1]Info and Calculations'!G48</f>
-        <v>2.8037383177570093E-2</v>
+        <v>1.6393442622950821E-2</v>
       </c>
       <c r="B48">
         <v>48093</v>
@@ -5984,7 +5984,7 @@
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50">
         <f>'[1]Info and Calculations'!G50</f>
-        <v>0.01</v>
+        <v>1.0600706713780919E-2</v>
       </c>
       <c r="B50">
         <v>48097</v>
@@ -5993,7 +5993,7 @@
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51">
         <f>'[1]Info and Calculations'!G51</f>
-        <v>8.1699346405228763E-3</v>
+        <v>7.8636959370904317E-3</v>
       </c>
       <c r="B51">
         <v>48099</v>
@@ -6002,7 +6002,7 @@
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52">
         <f>'[1]Info and Calculations'!G52</f>
-        <v>0.14285714285714285</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="B52">
         <v>48101</v>
@@ -6011,7 +6011,7 @@
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53">
         <f>'[1]Info and Calculations'!G53</f>
-        <v>2.6666666666666668E-2</v>
+        <v>2.8169014084507043E-2</v>
       </c>
       <c r="B53">
         <v>48103</v>
@@ -6020,7 +6020,7 @@
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54">
         <f>'[1]Info and Calculations'!G54</f>
-        <v>1.9607843137254902E-2</v>
+        <v>2.5477707006369428E-2</v>
       </c>
       <c r="B54">
         <v>48105</v>
@@ -6029,7 +6029,7 @@
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55">
         <f>'[1]Info and Calculations'!G55</f>
-        <v>1.9230769230769232E-2</v>
+        <v>1.3888888888888888E-2</v>
       </c>
       <c r="B55">
         <v>48107</v>
@@ -6038,7 +6038,7 @@
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56">
         <f>'[1]Info and Calculations'!G56</f>
-        <v>0.13333333333333333</v>
+        <v>9.0909090909090912E-2</v>
       </c>
       <c r="B56">
         <v>48109</v>
@@ -6047,7 +6047,7 @@
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57">
         <f>'[1]Info and Calculations'!G57</f>
-        <v>2.7932960893854747E-2</v>
+        <v>3.015075376884422E-2</v>
       </c>
       <c r="B57">
         <v>48111</v>
@@ -6056,7 +6056,7 @@
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58">
         <f>'[1]Info and Calculations'!G58</f>
-        <v>1.282615655514647E-2</v>
+        <v>1.2849061145883486E-2</v>
       </c>
       <c r="B58">
         <v>48113</v>
@@ -6065,7 +6065,7 @@
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59">
         <f>'[1]Info and Calculations'!G59</f>
-        <v>2.9197080291970802E-2</v>
+        <v>3.8674033149171269E-2</v>
       </c>
       <c r="B59">
         <v>48115</v>
@@ -6074,7 +6074,7 @@
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60">
         <f>'[1]Info and Calculations'!G60</f>
-        <v>2.8475711892797319E-2</v>
+        <v>2.4967148488830485E-2</v>
       </c>
       <c r="B60">
         <v>48117</v>
@@ -6092,7 +6092,7 @@
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62">
         <f>'[1]Info and Calculations'!G62</f>
-        <v>1.0877554020285169E-2</v>
+        <v>1.2543153049482163E-2</v>
       </c>
       <c r="B62">
         <v>48121</v>
@@ -6101,7 +6101,7 @@
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63">
         <f>'[1]Info and Calculations'!G63</f>
-        <v>2.8248587570621469E-2</v>
+        <v>2.9601029601029602E-2</v>
       </c>
       <c r="B63">
         <v>48123</v>
@@ -6110,7 +6110,7 @@
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64">
         <f>'[1]Info and Calculations'!G64</f>
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="B64">
         <v>48125</v>
@@ -6119,7 +6119,7 @@
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65">
         <f>'[1]Info and Calculations'!G65</f>
-        <v>8.0645161290322578E-3</v>
+        <v>2.3668639053254437E-2</v>
       </c>
       <c r="B65">
         <v>48127</v>
@@ -6128,7 +6128,7 @@
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66">
         <f>'[1]Info and Calculations'!G66</f>
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="B66">
         <v>48129</v>
@@ -6137,7 +6137,7 @@
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67">
         <f>'[1]Info and Calculations'!G67</f>
-        <v>0.02</v>
+        <v>3.3018867924528301E-2</v>
       </c>
       <c r="B67">
         <v>48131</v>
@@ -6146,7 +6146,7 @@
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68">
         <f>'[1]Info and Calculations'!G68</f>
-        <v>1.9607843137254902E-2</v>
+        <v>0.01</v>
       </c>
       <c r="B68">
         <v>48133</v>
@@ -6155,7 +6155,7 @@
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69">
         <f>'[1]Info and Calculations'!G69</f>
-        <v>1.5377855887521968E-2</v>
+        <v>2.1188043889519486E-2</v>
       </c>
       <c r="B69">
         <v>48135</v>
@@ -6173,7 +6173,7 @@
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71">
         <f>'[1]Info and Calculations'!G71</f>
-        <v>0.10032362459546926</v>
+        <v>1.5674891146589261E-2</v>
       </c>
       <c r="B71">
         <v>48139</v>
@@ -6182,7 +6182,7 @@
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72">
         <f>'[1]Info and Calculations'!G72</f>
-        <v>2.3594725884802221E-3</v>
+        <v>1.999265361809309E-2</v>
       </c>
       <c r="B72">
         <v>48141</v>
@@ -6191,7 +6191,7 @@
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73">
         <f>'[1]Info and Calculations'!G73</f>
-        <v>1.0822510822510822E-2</v>
+        <v>1.1627906976744186E-2</v>
       </c>
       <c r="B73">
         <v>48143</v>
@@ -6200,7 +6200,7 @@
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74">
         <f>'[1]Info and Calculations'!G74</f>
-        <v>1.8181818181818181E-2</v>
+        <v>1.9867549668874173E-2</v>
       </c>
       <c r="B74">
         <v>48145</v>
@@ -6209,7 +6209,7 @@
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75">
         <f>'[1]Info and Calculations'!G75</f>
-        <v>3.7383177570093455E-2</v>
+        <v>2.6954177897574125E-2</v>
       </c>
       <c r="B75">
         <v>48147</v>
@@ -6218,7 +6218,7 @@
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76">
         <f>'[1]Info and Calculations'!G76</f>
-        <v>4.3333333333333335E-2</v>
+        <v>4.4117647058823532E-2</v>
       </c>
       <c r="B76">
         <v>48149</v>
@@ -6227,7 +6227,7 @@
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77">
         <f>'[1]Info and Calculations'!G77</f>
-        <v>4.1666666666666664E-2</v>
+        <v>2.2222222222222223E-2</v>
       </c>
       <c r="B77">
         <v>48151</v>
@@ -6236,7 +6236,7 @@
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78">
         <f>'[1]Info and Calculations'!G78</f>
-        <v>6.0240963855421686E-2</v>
+        <v>7.2164948453608241E-2</v>
       </c>
       <c r="B78">
         <v>48153</v>
@@ -6254,7 +6254,7 @@
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80">
         <f>'[1]Info and Calculations'!G80</f>
-        <v>2.0474442247952557E-2</v>
+        <v>1.4994487320837926E-2</v>
       </c>
       <c r="B80">
         <v>48157</v>
@@ -6263,7 +6263,7 @@
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81">
         <f>'[1]Info and Calculations'!G81</f>
-        <v>1.1904761904761904E-2</v>
+        <v>0.04</v>
       </c>
       <c r="B81">
         <v>48159</v>
@@ -6281,7 +6281,7 @@
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83">
         <f>'[1]Info and Calculations'!G83</f>
-        <v>1.0526315789473684E-2</v>
+        <v>1.1589403973509934E-2</v>
       </c>
       <c r="B83">
         <v>48163</v>
@@ -6290,7 +6290,7 @@
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84">
         <f>'[1]Info and Calculations'!G84</f>
-        <v>0</v>
+        <v>1.8518518518518517E-2</v>
       </c>
       <c r="B84">
         <v>48165</v>
@@ -6299,7 +6299,7 @@
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85">
         <f>'[1]Info and Calculations'!G85</f>
-        <v>1.1122577686045179E-2</v>
+        <v>1.2632197414806111E-2</v>
       </c>
       <c r="B85">
         <v>48167</v>
@@ -6308,7 +6308,7 @@
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86">
         <f>'[1]Info and Calculations'!G86</f>
-        <v>2.0618556701030927E-2</v>
+        <v>2.9702970297029702E-2</v>
       </c>
       <c r="B86">
         <v>48169</v>
@@ -6317,7 +6317,7 @@
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87">
         <f>'[1]Info and Calculations'!G87</f>
-        <v>2.3391812865497075E-2</v>
+        <v>3.125E-2</v>
       </c>
       <c r="B87">
         <v>48171</v>
@@ -6335,7 +6335,7 @@
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89">
         <f>'[1]Info and Calculations'!G89</f>
-        <v>3.896103896103896E-2</v>
+        <v>4.9586776859504134E-2</v>
       </c>
       <c r="B89">
         <v>48175</v>
@@ -6344,7 +6344,7 @@
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90">
         <f>'[1]Info and Calculations'!G90</f>
-        <v>1.1345218800648298E-2</v>
+        <v>1.4686248331108143E-2</v>
       </c>
       <c r="B90">
         <v>48177</v>
@@ -6353,7 +6353,7 @@
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91">
         <f>'[1]Info and Calculations'!G91</f>
-        <v>1.092896174863388E-2</v>
+        <v>1.276595744680851E-2</v>
       </c>
       <c r="B91">
         <v>48179</v>
@@ -6362,7 +6362,7 @@
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92">
         <f>'[1]Info and Calculations'!G92</f>
-        <v>1.0945273631840797E-2</v>
+        <v>1.2648809523809524E-2</v>
       </c>
       <c r="B92">
         <v>48181</v>
@@ -6371,7 +6371,7 @@
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93">
         <f>'[1]Info and Calculations'!G93</f>
-        <v>1.4470677837014471E-2</v>
+        <v>2.1990740740740741E-2</v>
       </c>
       <c r="B93">
         <v>48183</v>
@@ -6380,7 +6380,7 @@
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94">
         <f>'[1]Info and Calculations'!G94</f>
-        <v>2.3837902264600714E-2</v>
+        <v>3.0462184873949579E-2</v>
       </c>
       <c r="B94">
         <v>48185</v>
@@ -6389,7 +6389,7 @@
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95">
         <f>'[1]Info and Calculations'!G95</f>
-        <v>2.6925485284909206E-2</v>
+        <v>3.4782608695652174E-2</v>
       </c>
       <c r="B95">
         <v>48187</v>
@@ -6398,7 +6398,7 @@
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96">
         <f>'[1]Info and Calculations'!G96</f>
-        <v>1.8565400843881856E-2</v>
+        <v>2.3498694516971279E-2</v>
       </c>
       <c r="B96">
         <v>48189</v>
@@ -6407,7 +6407,7 @@
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97">
         <f>'[1]Info and Calculations'!G97</f>
-        <v>0.125</v>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="B97">
         <v>48191</v>
@@ -6416,7 +6416,7 @@
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98">
         <f>'[1]Info and Calculations'!G98</f>
-        <v>3.6363636363636362E-2</v>
+        <v>3.0927835051546393E-2</v>
       </c>
       <c r="B98">
         <v>48193</v>
@@ -6425,7 +6425,7 @@
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99">
         <f>'[1]Info and Calculations'!G99</f>
-        <v>3.3898305084745763E-2</v>
+        <v>2.0202020202020204E-2</v>
       </c>
       <c r="B99">
         <v>48195</v>
@@ -6443,7 +6443,7 @@
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101">
         <f>'[1]Info and Calculations'!G101</f>
-        <v>1.3563501849568433E-2</v>
+        <v>1.5293118096856415E-2</v>
       </c>
       <c r="B101">
         <v>48199</v>
@@ -6452,7 +6452,7 @@
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102">
         <f>'[1]Info and Calculations'!G102</f>
-        <v>1.7652540979112986E-2</v>
+        <v>2.0628247919219231E-2</v>
       </c>
       <c r="B102">
         <v>48201</v>
@@ -6461,7 +6461,7 @@
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103">
         <f>'[1]Info and Calculations'!G103</f>
-        <v>3.5483870967741936E-2</v>
+        <v>3.4210526315789476E-2</v>
       </c>
       <c r="B103">
         <v>48203</v>
@@ -6488,7 +6488,7 @@
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106">
         <f>'[1]Info and Calculations'!G106</f>
-        <v>7.4470560856411449E-3</v>
+        <v>9.0211132437619957E-3</v>
       </c>
       <c r="B106">
         <v>48209</v>
@@ -6506,7 +6506,7 @@
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108">
         <f>'[1]Info and Calculations'!G108</f>
-        <v>1.5597920277296361E-2</v>
+        <v>1.7543859649122806E-2</v>
       </c>
       <c r="B108">
         <v>48213</v>
@@ -6515,7 +6515,7 @@
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109">
         <f>'[1]Info and Calculations'!G109</f>
-        <v>2.422674350229331E-2</v>
+        <v>3.8977331718290362E-2</v>
       </c>
       <c r="B109">
         <v>48215</v>
@@ -6524,7 +6524,7 @@
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110">
         <f>'[1]Info and Calculations'!G110</f>
-        <v>9.74025974025974E-3</v>
+        <v>2.0408163265306121E-2</v>
       </c>
       <c r="B110">
         <v>48217</v>
@@ -6533,7 +6533,7 @@
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111">
         <f>'[1]Info and Calculations'!G111</f>
-        <v>2.2099447513812154E-2</v>
+        <v>2.1551724137931036E-2</v>
       </c>
       <c r="B111">
         <v>48219</v>
@@ -6542,7 +6542,7 @@
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112">
         <f>'[1]Info and Calculations'!G112</f>
-        <v>1.8306636155606407E-2</v>
+        <v>2.2455089820359281E-2</v>
       </c>
       <c r="B112">
         <v>48221</v>
@@ -6551,7 +6551,7 @@
     <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113">
         <f>'[1]Info and Calculations'!G113</f>
-        <v>5.9171597633136093E-3</v>
+        <v>1.3215859030837005E-2</v>
       </c>
       <c r="B113">
         <v>48223</v>
@@ -6560,7 +6560,7 @@
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114">
         <f>'[1]Info and Calculations'!G114</f>
-        <v>2.4193548387096774E-2</v>
+        <v>2.4615384615384615E-2</v>
       </c>
       <c r="B114">
         <v>48225</v>
@@ -6569,7 +6569,7 @@
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115">
         <f>'[1]Info and Calculations'!G115</f>
-        <v>1.9108280254777069E-2</v>
+        <v>3.4934497816593885E-2</v>
       </c>
       <c r="B115">
         <v>48227</v>
@@ -6578,7 +6578,7 @@
     <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116">
         <f>'[1]Info and Calculations'!G116</f>
-        <v>9.0909090909090912E-2</v>
+        <v>5.5555555555555552E-2</v>
       </c>
       <c r="B116">
         <v>48229</v>
@@ -6587,7 +6587,7 @@
     <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117">
         <f>'[1]Info and Calculations'!G117</f>
-        <v>1.9065776930409915E-2</v>
+        <v>1.7557251908396947E-2</v>
       </c>
       <c r="B117">
         <v>48231</v>
@@ -6596,7 +6596,7 @@
     <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118">
         <f>'[1]Info and Calculations'!G118</f>
-        <v>1.7543859649122806E-2</v>
+        <v>2.1897810218978103E-2</v>
       </c>
       <c r="B118">
         <v>48233</v>
@@ -6623,7 +6623,7 @@
     <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121">
         <f>'[1]Info and Calculations'!G121</f>
-        <v>1.2500000000000001E-2</v>
+        <v>2.8077753779697623E-2</v>
       </c>
       <c r="B121">
         <v>48239</v>
@@ -6632,7 +6632,7 @@
     <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122">
         <f>'[1]Info and Calculations'!G122</f>
-        <v>1.7182130584192441E-2</v>
+        <v>4.2440318302387266E-2</v>
       </c>
       <c r="B122">
         <v>48241</v>
@@ -6650,7 +6650,7 @@
     <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124">
         <f>'[1]Info and Calculations'!G124</f>
-        <v>1.2201784738663268E-2</v>
+        <v>1.5184721352536006E-2</v>
       </c>
       <c r="B124">
         <v>48245</v>
@@ -6659,7 +6659,7 @@
     <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125">
         <f>'[1]Info and Calculations'!G125</f>
-        <v>1.8867924528301886E-2</v>
+        <v>2.8985507246376812E-2</v>
       </c>
       <c r="B125">
         <v>48247</v>
@@ -6668,7 +6668,7 @@
     <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A126">
         <f>'[1]Info and Calculations'!G126</f>
-        <v>1.015228426395939E-2</v>
+        <v>2.224694104560623E-2</v>
       </c>
       <c r="B126">
         <v>48249</v>
@@ -6677,7 +6677,7 @@
     <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A127">
         <f>'[1]Info and Calculations'!G127</f>
-        <v>1.5574302401038288E-2</v>
+        <v>1.5345268542199489E-2</v>
       </c>
       <c r="B127">
         <v>48251</v>
@@ -6695,7 +6695,7 @@
     <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129">
         <f>'[1]Info and Calculations'!G129</f>
-        <v>1.3422818791946308E-2</v>
+        <v>1.4409221902017291E-2</v>
       </c>
       <c r="B129">
         <v>48255</v>
@@ -6704,7 +6704,7 @@
     <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130">
         <f>'[1]Info and Calculations'!G130</f>
-        <v>1.0462555066079295E-2</v>
+        <v>1.2213740458015267E-2</v>
       </c>
       <c r="B130">
         <v>48257</v>
@@ -6713,7 +6713,7 @@
     <row r="131" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A131">
         <f>'[1]Info and Calculations'!G131</f>
-        <v>1.3793103448275862E-2</v>
+        <v>2.185792349726776E-2</v>
       </c>
       <c r="B131">
         <v>48259</v>
@@ -6722,7 +6722,7 @@
     <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A132">
         <f>'[1]Info and Calculations'!G132</f>
-        <v>0.16666666666666666</v>
+        <v>0.14285714285714285</v>
       </c>
       <c r="B132">
         <v>48261</v>
@@ -6740,7 +6740,7 @@
     <row r="134" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A134">
         <f>'[1]Info and Calculations'!G134</f>
-        <v>1.7241379310344827E-2</v>
+        <v>1.6587677725118485E-2</v>
       </c>
       <c r="B134">
         <v>48265</v>
@@ -6749,7 +6749,7 @@
     <row r="135" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A135">
         <f>'[1]Info and Calculations'!G135</f>
-        <v>0</v>
+        <v>6.25E-2</v>
       </c>
       <c r="B135">
         <v>48267</v>
@@ -6776,7 +6776,7 @@
     <row r="138" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A138">
         <f>'[1]Info and Calculations'!G138</f>
-        <v>1.4450867052023121E-2</v>
+        <v>3.6968576709796676E-2</v>
       </c>
       <c r="B138">
         <v>48273</v>
@@ -6785,7 +6785,7 @@
     <row r="139" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A139">
         <f>'[1]Info and Calculations'!G139</f>
-        <v>0</v>
+        <v>8.0645161290322578E-2</v>
       </c>
       <c r="B139">
         <v>48275</v>
@@ -6794,7 +6794,7 @@
     <row r="140" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A140">
         <f>'[1]Info and Calculations'!G140</f>
-        <v>1.6129032258064516E-3</v>
+        <v>2.6109660574412531E-2</v>
       </c>
       <c r="B140">
         <v>48277</v>
@@ -6803,7 +6803,7 @@
     <row r="141" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A141">
         <f>'[1]Info and Calculations'!G141</f>
-        <v>7.8817733990147784E-2</v>
+        <v>7.03125E-2</v>
       </c>
       <c r="B141">
         <v>48279</v>
@@ -6812,7 +6812,7 @@
     <row r="142" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A142">
         <f>'[1]Info and Calculations'!G142</f>
-        <v>8.3333333333333329E-2</v>
+        <v>3.6496350364963501E-2</v>
       </c>
       <c r="B142">
         <v>48281</v>
@@ -6821,7 +6821,7 @@
     <row r="143" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A143">
         <f>'[1]Info and Calculations'!G143</f>
-        <v>2.8011204481792717E-3</v>
+        <v>5.434782608695652E-3</v>
       </c>
       <c r="B143">
         <v>48283</v>
@@ -6830,7 +6830,7 @@
     <row r="144" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A144">
         <f>'[1]Info and Calculations'!G144</f>
-        <v>2.3608768971332208E-2</v>
+        <v>4.1158536585365856E-2</v>
       </c>
       <c r="B144">
         <v>48285</v>
@@ -6839,7 +6839,7 @@
     <row r="145" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A145">
         <f>'[1]Info and Calculations'!G145</f>
-        <v>5.2631578947368418E-2</v>
+        <v>6.9518716577540107E-2</v>
       </c>
       <c r="B145">
         <v>48287</v>
@@ -6848,7 +6848,7 @@
     <row r="146" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A146">
         <f>'[1]Info and Calculations'!G146</f>
-        <v>7.246376811594203E-3</v>
+        <v>1.8633540372670808E-2</v>
       </c>
       <c r="B146">
         <v>48289</v>
@@ -6857,7 +6857,7 @@
     <row r="147" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A147">
         <f>'[1]Info and Calculations'!G147</f>
-        <v>2.9691211401425176E-2</v>
+        <v>3.2338308457711441E-2</v>
       </c>
       <c r="B147">
         <v>48291</v>
@@ -6866,7 +6866,7 @@
     <row r="148" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A148">
         <f>'[1]Info and Calculations'!G148</f>
-        <v>1.507537688442211E-2</v>
+        <v>1.483679525222552E-2</v>
       </c>
       <c r="B148">
         <v>48293</v>
@@ -6884,7 +6884,7 @@
     <row r="150" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A150">
         <f>'[1]Info and Calculations'!G150</f>
-        <v>4.830917874396135E-3</v>
+        <v>1.9607843137254902E-2</v>
       </c>
       <c r="B150">
         <v>48297</v>
@@ -6893,7 +6893,7 @@
     <row r="151" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A151">
         <f>'[1]Info and Calculations'!G151</f>
-        <v>1.1627906976744186E-2</v>
+        <v>1.0526315789473684E-2</v>
       </c>
       <c r="B151">
         <v>48299</v>
@@ -6911,7 +6911,7 @@
     <row r="153" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A153">
         <f>'[1]Info and Calculations'!G153</f>
-        <v>1.1611030478955007E-2</v>
+        <v>1.2227855651655234E-2</v>
       </c>
       <c r="B153">
         <v>48303</v>
@@ -6920,7 +6920,7 @@
     <row r="154" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A154">
         <f>'[1]Info and Calculations'!G154</f>
-        <v>6.1538461538461542E-2</v>
+        <v>5.2631578947368418E-2</v>
       </c>
       <c r="B154">
         <v>48305</v>
@@ -6929,7 +6929,7 @@
     <row r="155" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A155">
         <f>'[1]Info and Calculations'!G155</f>
-        <v>2.4390243902439025E-2</v>
+        <v>1.4084507042253521E-2</v>
       </c>
       <c r="B155">
         <v>48307</v>
@@ -6938,7 +6938,7 @@
     <row r="156" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A156">
         <f>'[1]Info and Calculations'!G156</f>
-        <v>9.0152565880721215E-3</v>
+        <v>1.2439156300703082E-2</v>
       </c>
       <c r="B156">
         <v>48309</v>
@@ -6956,7 +6956,7 @@
     <row r="158" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A158">
         <f>'[1]Info and Calculations'!G158</f>
-        <v>3.1007751937984496E-3</v>
+        <v>4.3795620437956208E-3</v>
       </c>
       <c r="B158">
         <v>48313</v>
@@ -6965,7 +6965,7 @@
     <row r="159" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A159">
         <f>'[1]Info and Calculations'!G159</f>
-        <v>5.6910569105691054E-2</v>
+        <v>7.3529411764705885E-2</v>
       </c>
       <c r="B159">
         <v>48315</v>
@@ -6974,7 +6974,7 @@
     <row r="160" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A160">
         <f>'[1]Info and Calculations'!G160</f>
-        <v>6.6666666666666666E-2</v>
+        <v>7.3529411764705885E-2</v>
       </c>
       <c r="B160">
         <v>48317</v>
@@ -6992,7 +6992,7 @@
     <row r="162" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A162">
         <f>'[1]Info and Calculations'!G162</f>
-        <v>3.1203566121842496E-2</v>
+        <v>4.363207547169811E-2</v>
       </c>
       <c r="B162">
         <v>48321</v>
@@ -7001,7 +7001,7 @@
     <row r="163" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A163">
         <f>'[1]Info and Calculations'!G163</f>
-        <v>1.5658747300215981E-2</v>
+        <v>2.1956856702619414E-2</v>
       </c>
       <c r="B163">
         <v>48323</v>
@@ -7010,7 +7010,7 @@
     <row r="164" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A164">
         <f>'[1]Info and Calculations'!G164</f>
-        <v>4.0404040404040407E-2</v>
+        <v>3.1044214487300093E-2</v>
       </c>
       <c r="B164">
         <v>48325</v>
@@ -7028,7 +7028,7 @@
     <row r="166" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A166">
         <f>'[1]Info and Calculations'!G166</f>
-        <v>1.1932078935291418E-2</v>
+        <v>1.4439220953660174E-2</v>
       </c>
       <c r="B166">
         <v>48329</v>
@@ -7037,7 +7037,7 @@
     <row r="167" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A167">
         <f>'[1]Info and Calculations'!G167</f>
-        <v>9.8039215686274508E-3</v>
+        <v>1.0101010101010102E-2</v>
       </c>
       <c r="B167">
         <v>48331</v>
@@ -7055,7 +7055,7 @@
     <row r="169" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A169">
         <f>'[1]Info and Calculations'!G169</f>
-        <v>0</v>
+        <v>1.3888888888888888E-2</v>
       </c>
       <c r="B169">
         <v>48335</v>
@@ -7064,7 +7064,7 @@
     <row r="170" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A170">
         <f>'[1]Info and Calculations'!G170</f>
-        <v>1.7543859649122806E-2</v>
+        <v>2.0833333333333332E-2</v>
       </c>
       <c r="B170">
         <v>48337</v>
@@ -7073,7 +7073,7 @@
     <row r="171" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A171">
         <f>'[1]Info and Calculations'!G171</f>
-        <v>1.1620400258231117E-2</v>
+        <v>1.4602416036107792E-2</v>
       </c>
       <c r="B171">
         <v>48339</v>
@@ -7082,7 +7082,7 @@
     <row r="172" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A172">
         <f>'[1]Info and Calculations'!G172</f>
-        <v>1.1846001974333662E-2</v>
+        <v>1.3636363636363636E-2</v>
       </c>
       <c r="B172">
         <v>48341</v>
@@ -7091,7 +7091,7 @@
     <row r="173" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A173">
         <f>'[1]Info and Calculations'!G173</f>
-        <v>1.0416666666666666E-2</v>
+        <v>2.1897810218978103E-2</v>
       </c>
       <c r="B173">
         <v>48343</v>
@@ -7109,7 +7109,7 @@
     <row r="175" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A175">
         <f>'[1]Info and Calculations'!G175</f>
-        <v>3.519061583577713E-2</v>
+        <v>3.5369774919614148E-2</v>
       </c>
       <c r="B175">
         <v>48347</v>
@@ -7118,7 +7118,7 @@
     <row r="176" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A176">
         <f>'[1]Info and Calculations'!G176</f>
-        <v>1.0430247718383311E-2</v>
+        <v>1.2961116650049851E-2</v>
       </c>
       <c r="B176">
         <v>48349</v>
@@ -7127,7 +7127,7 @@
     <row r="177" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A177">
         <f>'[1]Info and Calculations'!G177</f>
-        <v>4.6511627906976744E-2</v>
+        <v>3.8216560509554139E-2</v>
       </c>
       <c r="B177">
         <v>48351</v>
@@ -7136,7 +7136,7 @@
     <row r="178" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A178">
         <f>'[1]Info and Calculations'!G178</f>
-        <v>2.2900763358778626E-2</v>
+        <v>2.7972027972027972E-2</v>
       </c>
       <c r="B178">
         <v>48353</v>
@@ -7145,7 +7145,7 @@
     <row r="179" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A179">
         <f>'[1]Info and Calculations'!G179</f>
-        <v>1.0349025974025974E-2</v>
+        <v>1.5915873241438113E-2</v>
       </c>
       <c r="B179">
         <v>48355</v>
@@ -7154,7 +7154,7 @@
     <row r="180" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A180">
         <f>'[1]Info and Calculations'!G180</f>
-        <v>2.3809523809523808E-2</v>
+        <v>1.9801980198019802E-2</v>
       </c>
       <c r="B180">
         <v>48357</v>
@@ -7163,7 +7163,7 @@
     <row r="181" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A181">
         <f>'[1]Info and Calculations'!G181</f>
-        <v>7.6923076923076927E-2</v>
+        <v>7.1428571428571425E-2</v>
       </c>
       <c r="B181">
         <v>48359</v>
@@ -7172,7 +7172,7 @@
     <row r="182" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A182">
         <f>'[1]Info and Calculations'!G182</f>
-        <v>1.5670910871694418E-2</v>
+        <v>1.877649909145972E-2</v>
       </c>
       <c r="B182">
         <v>48361</v>
@@ -7181,7 +7181,7 @@
     <row r="183" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A183">
         <f>'[1]Info and Calculations'!G183</f>
-        <v>3.0927835051546393E-2</v>
+        <v>2.5510204081632654E-2</v>
       </c>
       <c r="B183">
         <v>48363</v>
@@ -7190,7 +7190,7 @@
     <row r="184" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A184">
         <f>'[1]Info and Calculations'!G184</f>
-        <v>6.3197026022304828E-2</v>
+        <v>5.9602649006622516E-2</v>
       </c>
       <c r="B184">
         <v>48365</v>
@@ -7199,7 +7199,7 @@
     <row r="185" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A185">
         <f>'[1]Info and Calculations'!G185</f>
-        <v>1.1214953271028037E-2</v>
+        <v>1.3063357282821686E-2</v>
       </c>
       <c r="B185">
         <v>48367</v>
@@ -7208,7 +7208,7 @@
     <row r="186" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A186">
         <f>'[1]Info and Calculations'!G186</f>
-        <v>2.2508038585209004E-2</v>
+        <v>1.912568306010929E-2</v>
       </c>
       <c r="B186">
         <v>48369</v>
@@ -7217,7 +7217,7 @@
     <row r="187" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A187">
         <f>'[1]Info and Calculations'!G187</f>
-        <v>4.7846889952153108E-3</v>
+        <v>7.462686567164179E-3</v>
       </c>
       <c r="B187">
         <v>48371</v>
@@ -7226,7 +7226,7 @@
     <row r="188" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A188">
         <f>'[1]Info and Calculations'!G188</f>
-        <v>1.3657056145675266E-2</v>
+        <v>1.9404915912031046E-2</v>
       </c>
       <c r="B188">
         <v>48373</v>
@@ -7235,7 +7235,7 @@
     <row r="189" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A189">
         <f>'[1]Info and Calculations'!G189</f>
-        <v>1.1126961483594865E-2</v>
+        <v>1.1322696860524962E-2</v>
       </c>
       <c r="B189">
         <v>48375</v>
@@ -7244,7 +7244,7 @@
     <row r="190" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A190">
         <f>'[1]Info and Calculations'!G190</f>
-        <v>0</v>
+        <v>0.08</v>
       </c>
       <c r="B190">
         <v>48377</v>
@@ -7253,7 +7253,7 @@
     <row r="191" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A191">
         <f>'[1]Info and Calculations'!G191</f>
-        <v>2.2222222222222223E-2</v>
+        <v>1.8181818181818181E-2</v>
       </c>
       <c r="B191">
         <v>48379</v>
@@ -7262,7 +7262,7 @@
     <row r="192" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A192">
         <f>'[1]Info and Calculations'!G192</f>
-        <v>1.0718789407313998E-2</v>
+        <v>1.2550200803212851E-2</v>
       </c>
       <c r="B192">
         <v>48381</v>
@@ -7271,7 +7271,7 @@
     <row r="193" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A193">
         <f>'[1]Info and Calculations'!G193</f>
-        <v>5.1724137931034482E-2</v>
+        <v>7.1428571428571425E-2</v>
       </c>
       <c r="B193">
         <v>48383</v>
@@ -7280,7 +7280,7 @@
     <row r="194" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A194">
         <f>'[1]Info and Calculations'!G194</f>
-        <v>0</v>
+        <v>5.4945054945054944E-2</v>
       </c>
       <c r="B194">
         <v>48385</v>
@@ -7289,7 +7289,7 @@
     <row r="195" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A195">
         <f>'[1]Info and Calculations'!G195</f>
-        <v>8.2089552238805971E-2</v>
+        <v>9.285714285714286E-2</v>
       </c>
       <c r="B195">
         <v>48387</v>
@@ -7298,7 +7298,7 @@
     <row r="196" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A196">
         <f>'[1]Info and Calculations'!G196</f>
-        <v>2.2222222222222223E-2</v>
+        <v>3.1645569620253167E-2</v>
       </c>
       <c r="B196">
         <v>48389</v>
@@ -7307,7 +7307,7 @@
     <row r="197" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A197">
         <f>'[1]Info and Calculations'!G197</f>
-        <v>0</v>
+        <v>3.643724696356275E-2</v>
       </c>
       <c r="B197">
         <v>48391</v>
@@ -7325,7 +7325,7 @@
     <row r="199" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A199">
         <f>'[1]Info and Calculations'!G199</f>
-        <v>4.6728971962616819E-3</v>
+        <v>1.2448132780082987E-2</v>
       </c>
       <c r="B199">
         <v>48395</v>
@@ -7334,7 +7334,7 @@
     <row r="200" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A200">
         <f>'[1]Info and Calculations'!G200</f>
-        <v>1.5277777777777777E-2</v>
+        <v>1.4446227929373997E-2</v>
       </c>
       <c r="B200">
         <v>48397</v>
@@ -7343,7 +7343,7 @@
     <row r="201" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A201">
         <f>'[1]Info and Calculations'!G201</f>
-        <v>9.3457943925233638E-3</v>
+        <v>1.7647058823529412E-2</v>
       </c>
       <c r="B201">
         <v>48399</v>
@@ -7352,7 +7352,7 @@
     <row r="202" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A202">
         <f>'[1]Info and Calculations'!G202</f>
-        <v>6.024096385542169E-3</v>
+        <v>6.9284064665127024E-3</v>
       </c>
       <c r="B202">
         <v>48401</v>
@@ -7361,7 +7361,7 @@
     <row r="203" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A203">
         <f>'[1]Info and Calculations'!G203</f>
-        <v>0.13636363636363635</v>
+        <v>8.6956521739130432E-2</v>
       </c>
       <c r="B203">
         <v>48403</v>
@@ -7370,7 +7370,7 @@
     <row r="204" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A204">
         <f>'[1]Info and Calculations'!G204</f>
-        <v>7.0967741935483872E-2</v>
+        <v>6.4864864864864868E-2</v>
       </c>
       <c r="B204">
         <v>48405</v>
@@ -7379,7 +7379,7 @@
     <row r="205" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A205">
         <f>'[1]Info and Calculations'!G205</f>
-        <v>5.5172413793103448E-2</v>
+        <v>4.1884816753926704E-2</v>
       </c>
       <c r="B205">
         <v>48407</v>
@@ -7388,7 +7388,7 @@
     <row r="206" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A206">
         <f>'[1]Info and Calculations'!G206</f>
-        <v>2.0075282308657464E-2</v>
+        <v>4.1095890410958902E-2</v>
       </c>
       <c r="B206">
         <v>48409</v>
@@ -7406,7 +7406,7 @@
     <row r="208" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A208">
         <f>'[1]Info and Calculations'!G208</f>
-        <v>2.8571428571428571E-2</v>
+        <v>2.7777777777777776E-2</v>
       </c>
       <c r="B208">
         <v>48413</v>
@@ -7415,7 +7415,7 @@
     <row r="209" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A209">
         <f>'[1]Info and Calculations'!G209</f>
-        <v>2.3094688221709007E-3</v>
+        <v>3.9447731755424065E-3</v>
       </c>
       <c r="B209">
         <v>48415</v>
@@ -7433,7 +7433,7 @@
     <row r="211" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A211">
         <f>'[1]Info and Calculations'!G211</f>
-        <v>4.221635883905013E-2</v>
+        <v>4.2959427207637228E-2</v>
       </c>
       <c r="B211">
         <v>48419</v>
@@ -7451,7 +7451,7 @@
     <row r="213" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A213">
         <f>'[1]Info and Calculations'!G213</f>
-        <v>7.3624945864010395E-3</v>
+        <v>1.4002732240437158E-2</v>
       </c>
       <c r="B213">
         <v>48423</v>
@@ -7469,7 +7469,7 @@
     <row r="215" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A215">
         <f>'[1]Info and Calculations'!G215</f>
-        <v>2.768549280177187E-2</v>
+        <v>3.9536741214057508E-2</v>
       </c>
       <c r="B215">
         <v>48427</v>
@@ -7478,7 +7478,7 @@
     <row r="216" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A216">
         <f>'[1]Info and Calculations'!G216</f>
-        <v>6.8965517241379309E-2</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="B216">
         <v>48429</v>
@@ -7505,7 +7505,7 @@
     <row r="219" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A219">
         <f>'[1]Info and Calculations'!G219</f>
-        <v>1.7241379310344827E-2</v>
+        <v>2.7777777777777776E-2</v>
       </c>
       <c r="B219">
         <v>48435</v>
@@ -7514,7 +7514,7 @@
     <row r="220" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A220">
         <f>'[1]Info and Calculations'!G220</f>
-        <v>2.6666666666666668E-2</v>
+        <v>3.4482758620689655E-2</v>
       </c>
       <c r="B220">
         <v>48437</v>
@@ -7523,7 +7523,7 @@
     <row r="221" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A221">
         <f>'[1]Info and Calculations'!G221</f>
-        <v>1.3305174234424498E-2</v>
+        <v>1.4505672609400324E-2</v>
       </c>
       <c r="B221">
         <v>48439</v>
@@ -7532,7 +7532,7 @@
     <row r="222" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A222">
         <f>'[1]Info and Calculations'!G222</f>
-        <v>1.7641597028783658E-2</v>
+        <v>2.585487906588824E-2</v>
       </c>
       <c r="B222">
         <v>48441</v>
@@ -7550,7 +7550,7 @@
     <row r="224" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A224">
         <f>'[1]Info and Calculations'!G224</f>
-        <v>8.6206896551724137E-3</v>
+        <v>1.0638297872340425E-2</v>
       </c>
       <c r="B224">
         <v>48445</v>
@@ -7559,7 +7559,7 @@
     <row r="225" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A225">
         <f>'[1]Info and Calculations'!G225</f>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="B225">
         <v>48447</v>
@@ -7568,7 +7568,7 @@
     <row r="226" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A226">
         <f>'[1]Info and Calculations'!G226</f>
-        <v>1.1996572407883462E-2</v>
+        <v>1.4007782101167316E-2</v>
       </c>
       <c r="B226">
         <v>48449</v>
@@ -7577,7 +7577,7 @@
     <row r="227" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A227">
         <f>'[1]Info and Calculations'!G227</f>
-        <v>1.2698412698412698E-2</v>
+        <v>2.1578947368421052E-2</v>
       </c>
       <c r="B227">
         <v>48451</v>
@@ -7586,7 +7586,7 @@
     <row r="228" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A228">
         <f>'[1]Info and Calculations'!G228</f>
-        <v>1.1279826464208243E-2</v>
+        <v>1.2927938711994253E-2</v>
       </c>
       <c r="B228">
         <v>48453</v>
@@ -7595,7 +7595,7 @@
     <row r="229" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A229">
         <f>'[1]Info and Calculations'!G229</f>
-        <v>1.4814814814814815E-2</v>
+        <v>2.3809523809523808E-2</v>
       </c>
       <c r="B229">
         <v>48455</v>
@@ -7604,7 +7604,7 @@
     <row r="230" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A230">
         <f>'[1]Info and Calculations'!G230</f>
-        <v>8.6956521739130436E-3</v>
+        <v>1.8072289156626505E-2</v>
       </c>
       <c r="B230">
         <v>48457</v>
@@ -7613,7 +7613,7 @@
     <row r="231" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A231">
         <f>'[1]Info and Calculations'!G231</f>
-        <v>1.0471204188481676E-2</v>
+        <v>1.0344827586206896E-2</v>
       </c>
       <c r="B231">
         <v>48459</v>
@@ -7622,7 +7622,7 @@
     <row r="232" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A232">
         <f>'[1]Info and Calculations'!G232</f>
-        <v>6.25E-2</v>
+        <v>5.8823529411764705E-2</v>
       </c>
       <c r="B232">
         <v>48461</v>
@@ -7631,7 +7631,7 @@
     <row r="233" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A233">
         <f>'[1]Info and Calculations'!G233</f>
-        <v>1.4522821576763486E-2</v>
+        <v>2.4E-2</v>
       </c>
       <c r="B233">
         <v>48463</v>
@@ -7640,7 +7640,7 @@
     <row r="234" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A234">
         <f>'[1]Info and Calculations'!G234</f>
-        <v>1.3513513513513514E-2</v>
+        <v>3.2112676056338031E-2</v>
       </c>
       <c r="B234">
         <v>48465</v>
@@ -7649,7 +7649,7 @@
     <row r="235" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A235">
         <f>'[1]Info and Calculations'!G235</f>
-        <v>9.0361445783132526E-3</v>
+        <v>1.8907563025210083E-2</v>
       </c>
       <c r="B235">
         <v>48467</v>
@@ -7658,7 +7658,7 @@
     <row r="236" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A236">
         <f>'[1]Info and Calculations'!G236</f>
-        <v>8.7418045582266617E-3</v>
+        <v>1.7769272826681247E-2</v>
       </c>
       <c r="B236">
         <v>48469</v>
@@ -7667,7 +7667,7 @@
     <row r="237" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A237">
         <f>'[1]Info and Calculations'!G237</f>
-        <v>1.3503909026297086E-2</v>
+        <v>1.3651877133105802E-2</v>
       </c>
       <c r="B237">
         <v>48471</v>
@@ -7676,7 +7676,7 @@
     <row r="238" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A238">
         <f>'[1]Info and Calculations'!G238</f>
-        <v>7.5187969924812026E-3</v>
+        <v>8.6805555555555559E-3</v>
       </c>
       <c r="B238">
         <v>48473</v>
@@ -7685,7 +7685,7 @@
     <row r="239" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A239">
         <f>'[1]Info and Calculations'!G239</f>
-        <v>1.2048192771084338E-2</v>
+        <v>0.01</v>
       </c>
       <c r="B239">
         <v>48475</v>
@@ -7694,7 +7694,7 @@
     <row r="240" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A240">
         <f>'[1]Info and Calculations'!G240</f>
-        <v>7.9664570230607967E-2</v>
+        <v>7.650273224043716E-2</v>
       </c>
       <c r="B240">
         <v>48477</v>
@@ -7703,7 +7703,7 @@
     <row r="241" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A241">
         <f>'[1]Info and Calculations'!G241</f>
-        <v>1.2559125754363073E-2</v>
+        <v>1.4160891834890027E-2</v>
       </c>
       <c r="B241">
         <v>48479</v>
@@ -7712,7 +7712,7 @@
     <row r="242" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A242">
         <f>'[1]Info and Calculations'!G242</f>
-        <v>3.3653846153846152E-2</v>
+        <v>3.2136105860113423E-2</v>
       </c>
       <c r="B242">
         <v>48481</v>
@@ -7730,7 +7730,7 @@
     <row r="244" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A244">
         <f>'[1]Info and Calculations'!G244</f>
-        <v>9.9778270509977823E-3</v>
+        <v>1.0970464135021098E-2</v>
       </c>
       <c r="B244">
         <v>48485</v>
@@ -7739,7 +7739,7 @@
     <row r="245" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A245">
         <f>'[1]Info and Calculations'!G245</f>
-        <v>0.02</v>
+        <v>2.247191011235955E-2</v>
       </c>
       <c r="B245">
         <v>48487</v>
@@ -7748,7 +7748,7 @@
     <row r="246" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A246">
         <f>'[1]Info and Calculations'!G246</f>
-        <v>3.0716723549488054E-2</v>
+        <v>4.3804755944931162E-2</v>
       </c>
       <c r="B246">
         <v>48489</v>
@@ -7757,7 +7757,7 @@
     <row r="247" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A247">
         <f>'[1]Info and Calculations'!G247</f>
-        <v>1.3648293963254593E-2</v>
+        <v>1.4690451206715634E-2</v>
       </c>
       <c r="B247">
         <v>48491</v>
@@ -7766,7 +7766,7 @@
     <row r="248" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A248">
         <f>'[1]Info and Calculations'!G248</f>
-        <v>3.864734299516908E-2</v>
+        <v>4.2801556420233464E-2</v>
       </c>
       <c r="B248">
         <v>48493</v>
@@ -7775,7 +7775,7 @@
     <row r="249" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A249">
         <f>'[1]Info and Calculations'!G249</f>
-        <v>1.4705882352941176E-2</v>
+        <v>1.1363636363636364E-2</v>
       </c>
       <c r="B249">
         <v>48495</v>
@@ -7784,7 +7784,7 @@
     <row r="250" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A250">
         <f>'[1]Info and Calculations'!G250</f>
-        <v>1.607717041800643E-2</v>
+        <v>1.877133105802048E-2</v>
       </c>
       <c r="B250">
         <v>48497</v>
@@ -7793,7 +7793,7 @@
     <row r="251" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A251">
         <f>'[1]Info and Calculations'!G251</f>
-        <v>1.7182130584192441E-2</v>
+        <v>3.2085561497326207E-2</v>
       </c>
       <c r="B251">
         <v>48499</v>
@@ -7802,7 +7802,7 @@
     <row r="252" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A252">
         <f>'[1]Info and Calculations'!G252</f>
-        <v>1.1764705882352941E-2</v>
+        <v>2.2727272727272728E-2</v>
       </c>
       <c r="B252">
         <v>48501</v>
@@ -7811,7 +7811,7 @@
     <row r="253" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A253">
         <f>'[1]Info and Calculations'!G253</f>
-        <v>2.8776978417266189E-2</v>
+        <v>2.9126213592233011E-2</v>
       </c>
       <c r="B253">
         <v>48503</v>
@@ -7820,7 +7820,7 @@
     <row r="254" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A254">
         <f>'[1]Info and Calculations'!G254</f>
-        <v>1.282051282051282E-2</v>
+        <v>1.2875536480686695E-2</v>
       </c>
       <c r="B254">
         <v>48505</v>
@@ -7829,7 +7829,7 @@
     <row r="255" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A255">
         <f>'[1]Info and Calculations'!G255</f>
-        <v>2.8571428571428571E-2</v>
+        <v>3.2128514056224897E-2</v>
       </c>
       <c r="B255">
         <v>48507</v>
@@ -11957,7 +11957,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC897562-A88E-489A-821C-263DC69C2F69}">
   <dimension ref="A1:D255"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
